--- a/Tournament/TournamentConfig.xlsx
+++ b/Tournament/TournamentConfig.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/Tournament/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792EFBC7-883A-744D-AC53-CFBBA4471E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6B1633-1B09-E041-9C4F-22B5737C401D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-740" yWindow="-21100" windowWidth="36640" windowHeight="21100" xr2:uid="{DEC025FB-2086-0E49-B22B-82442D07B781}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18780" activeTab="1" xr2:uid="{DEC025FB-2086-0E49-B22B-82442D07B781}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="18 holes" sheetId="1" r:id="rId1"/>
+    <sheet name="9 holes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -153,21 +154,6 @@
     <t>ui配置</t>
   </si>
   <si>
-    <t>Inlet</t>
-  </si>
-  <si>
-    <t>Bg_event_zs_03</t>
-  </si>
-  <si>
-    <t>Pnl_event_zs_jl_03</t>
-  </si>
-  <si>
-    <t>Bg_event_zs_rk_3</t>
-  </si>
-  <si>
-    <t>Icon_zs_bt_03</t>
-  </si>
-  <si>
     <t>//list类型，不填为空</t>
   </si>
   <si>
@@ -178,13 +164,28 @@
   </si>
   <si>
     <t>signup_offer_id_list</t>
+  </si>
+  <si>
+    <t>Icon_zs_bt_08</t>
+  </si>
+  <si>
+    <t>Cassis Inlets</t>
+  </si>
+  <si>
+    <t>Bg_event_zs_rk_8</t>
+  </si>
+  <si>
+    <t>Pnl_event_zs_jl_07</t>
+  </si>
+  <si>
+    <t>Bg_event_zs_07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -195,6 +196,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="苹方-简"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -251,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -263,6 +270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F682C8-7EBC-4547-9087-744D49492B1E}">
   <dimension ref="A1:Y99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="R98" sqref="R98"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -683,7 +691,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -732,7 +740,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -740,7 +748,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -748,7 +756,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -890,24 +898,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" ht="20" customHeight="1">
       <c r="A25" t="s">
         <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I25" t="s">
         <v>16</v>
       </c>
       <c r="M25" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="Q25" t="s">
         <v>16</v>
       </c>
       <c r="U25" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -952,19 +960,19 @@
         <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I30" t="s">
         <v>18</v>
       </c>
       <c r="M30" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="Q30" t="s">
         <v>18</v>
       </c>
       <c r="U30" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -993,19 +1001,19 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>7</v>
       </c>
       <c r="I33" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J33">
         <v>10</v>
       </c>
       <c r="Q33" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="R33">
         <v>13</v>
@@ -1570,19 +1578,19 @@
         <v>28</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I56" t="s">
         <v>28</v>
       </c>
       <c r="M56" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="Q56" t="s">
         <v>28</v>
       </c>
       <c r="U56" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -1845,30 +1853,30 @@
     </row>
     <row r="89" spans="1:20">
       <c r="A89" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I89" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q89" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:20">
       <c r="A91" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="I91" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="8"/>
       <c r="Q91" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="R91" s="8"/>
       <c r="S91" s="8"/>
@@ -1917,37 +1925,37 @@
         <v>32</v>
       </c>
       <c r="B93">
-        <v>110061</v>
+        <v>110211</v>
       </c>
       <c r="C93">
-        <v>110062</v>
+        <v>110212</v>
       </c>
       <c r="D93">
-        <v>110063</v>
+        <v>110213</v>
       </c>
       <c r="I93" t="s">
         <v>32</v>
       </c>
       <c r="J93">
-        <v>110071</v>
+        <v>110221</v>
       </c>
       <c r="K93">
-        <v>110072</v>
+        <v>110222</v>
       </c>
       <c r="L93">
-        <v>110073</v>
+        <v>110223</v>
       </c>
       <c r="Q93" t="s">
         <v>32</v>
       </c>
       <c r="R93">
-        <v>110081</v>
+        <v>110231</v>
       </c>
       <c r="S93">
-        <v>110082</v>
-      </c>
-      <c r="T93">
-        <v>110083</v>
+        <v>110232</v>
+      </c>
+      <c r="T93" s="9">
+        <v>110233</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -2068,4 +2076,1445 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECCC400-8F91-7643-8E2C-86B622BB3F84}">
+  <dimension ref="A1:Y99"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <cols>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>11</v>
+      </c>
+      <c r="L1">
+        <v>12</v>
+      </c>
+      <c r="M1">
+        <v>13</v>
+      </c>
+      <c r="N1">
+        <v>14</v>
+      </c>
+      <c r="O1">
+        <v>15</v>
+      </c>
+      <c r="P1">
+        <v>16</v>
+      </c>
+      <c r="Q1">
+        <v>17</v>
+      </c>
+      <c r="R1">
+        <v>18</v>
+      </c>
+      <c r="S1">
+        <v>19</v>
+      </c>
+      <c r="T1">
+        <v>20</v>
+      </c>
+      <c r="U1">
+        <v>21</v>
+      </c>
+      <c r="V1">
+        <v>22</v>
+      </c>
+      <c r="W1">
+        <v>23</v>
+      </c>
+      <c r="X1">
+        <v>24</v>
+      </c>
+      <c r="Y1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1629702000</v>
+      </c>
+      <c r="D5" s="5">
+        <v>44431.625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1629788400</v>
+      </c>
+      <c r="D6" s="5">
+        <v>44432.625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="1" customFormat="1">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="1" customFormat="1">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4">
+        <v>2</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3">
+        <v>3</v>
+      </c>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18">
+        <v>9</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>11</v>
+      </c>
+      <c r="R18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="I21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="Q21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R21" s="8"/>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>500</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22">
+        <v>2000</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>14</v>
+      </c>
+      <c r="R22">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>15</v>
+      </c>
+      <c r="R23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="20" customHeight="1">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>16</v>
+      </c>
+      <c r="U25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>99</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28">
+        <v>99</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>17</v>
+      </c>
+      <c r="R28">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>18</v>
+      </c>
+      <c r="U30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="I33" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33">
+        <v>10</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>40</v>
+      </c>
+      <c r="R33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="I35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="Q35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="C36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="K36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="S36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>24</v>
+      </c>
+      <c r="R37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S37" t="s">
+        <v>0</v>
+      </c>
+      <c r="T37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38">
+        <v>-2</v>
+      </c>
+      <c r="B38">
+        <v>10086</v>
+      </c>
+      <c r="C38">
+        <v>461</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>6</v>
+      </c>
+      <c r="I38">
+        <v>-5</v>
+      </c>
+      <c r="J38">
+        <v>10086</v>
+      </c>
+      <c r="K38">
+        <v>471</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>6</v>
+      </c>
+      <c r="Q38">
+        <v>-8</v>
+      </c>
+      <c r="R38">
+        <v>10086</v>
+      </c>
+      <c r="S38">
+        <v>481</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39">
+        <v>-4</v>
+      </c>
+      <c r="B39">
+        <v>-3</v>
+      </c>
+      <c r="C39">
+        <v>462</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="I39">
+        <v>-7</v>
+      </c>
+      <c r="J39">
+        <v>-6</v>
+      </c>
+      <c r="K39">
+        <v>472</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>6</v>
+      </c>
+      <c r="Q39">
+        <v>-10</v>
+      </c>
+      <c r="R39">
+        <v>-9</v>
+      </c>
+      <c r="S39">
+        <v>482</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40">
+        <v>-6</v>
+      </c>
+      <c r="B40">
+        <v>-5</v>
+      </c>
+      <c r="C40">
+        <v>463</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="I40">
+        <v>-9</v>
+      </c>
+      <c r="J40">
+        <v>-8</v>
+      </c>
+      <c r="K40">
+        <v>473</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>6</v>
+      </c>
+      <c r="Q40">
+        <v>-12</v>
+      </c>
+      <c r="R40">
+        <v>-11</v>
+      </c>
+      <c r="S40">
+        <v>483</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41">
+        <v>-8</v>
+      </c>
+      <c r="B41">
+        <v>-7</v>
+      </c>
+      <c r="C41">
+        <v>464</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>-11</v>
+      </c>
+      <c r="J41">
+        <v>-10</v>
+      </c>
+      <c r="K41">
+        <v>474</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>6</v>
+      </c>
+      <c r="Q41">
+        <v>-14</v>
+      </c>
+      <c r="R41">
+        <v>-13</v>
+      </c>
+      <c r="S41">
+        <v>484</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42">
+        <v>-10</v>
+      </c>
+      <c r="B42">
+        <v>-9</v>
+      </c>
+      <c r="C42">
+        <v>465</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="I42">
+        <v>-13</v>
+      </c>
+      <c r="J42">
+        <v>-12</v>
+      </c>
+      <c r="K42">
+        <v>475</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>6</v>
+      </c>
+      <c r="Q42">
+        <v>-16</v>
+      </c>
+      <c r="R42">
+        <v>-15</v>
+      </c>
+      <c r="S42">
+        <v>485</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43">
+        <v>-12</v>
+      </c>
+      <c r="B43">
+        <v>-11</v>
+      </c>
+      <c r="C43">
+        <v>466</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="I43">
+        <v>-15</v>
+      </c>
+      <c r="J43">
+        <v>-14</v>
+      </c>
+      <c r="K43">
+        <v>476</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>6</v>
+      </c>
+      <c r="Q43">
+        <v>-18</v>
+      </c>
+      <c r="R43">
+        <v>-17</v>
+      </c>
+      <c r="S43">
+        <v>486</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44">
+        <v>-14</v>
+      </c>
+      <c r="B44">
+        <v>-13</v>
+      </c>
+      <c r="C44">
+        <v>467</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="I44">
+        <v>-17</v>
+      </c>
+      <c r="J44">
+        <v>-16</v>
+      </c>
+      <c r="K44">
+        <v>477</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>6</v>
+      </c>
+      <c r="Q44">
+        <v>-20</v>
+      </c>
+      <c r="R44">
+        <v>-19</v>
+      </c>
+      <c r="S44">
+        <v>487</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45">
+        <v>-10086</v>
+      </c>
+      <c r="B45">
+        <v>-15</v>
+      </c>
+      <c r="C45">
+        <v>468</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+      <c r="I45">
+        <v>-10086</v>
+      </c>
+      <c r="J45">
+        <v>-18</v>
+      </c>
+      <c r="K45">
+        <v>478</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>6</v>
+      </c>
+      <c r="Q45">
+        <v>-10086</v>
+      </c>
+      <c r="R45">
+        <v>-21</v>
+      </c>
+      <c r="S45">
+        <v>488</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>14</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>26</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53">
+        <v>120001</v>
+      </c>
+      <c r="I53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53">
+        <v>120001</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>27</v>
+      </c>
+      <c r="R53">
+        <v>120001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>15</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" t="s">
+        <v>39</v>
+      </c>
+      <c r="I56" t="s">
+        <v>28</v>
+      </c>
+      <c r="M56" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>28</v>
+      </c>
+      <c r="U56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="6">
+        <v>120021</v>
+      </c>
+      <c r="B57" s="6">
+        <v>120022</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="I57" s="6">
+        <v>120021</v>
+      </c>
+      <c r="J57" s="6">
+        <v>120022</v>
+      </c>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="Q57" s="6">
+        <v>120021</v>
+      </c>
+      <c r="R57" s="6">
+        <v>120022</v>
+      </c>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="I59" t="s">
+        <v>29</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>29</v>
+      </c>
+      <c r="R59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I61" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" s="2">
+        <v>200809</v>
+      </c>
+      <c r="I62" s="2">
+        <v>200811</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>200813</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" s="2">
+        <v>200609</v>
+      </c>
+      <c r="I63" s="2">
+        <v>200611</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>200613</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="2">
+        <v>200709</v>
+      </c>
+      <c r="I64" s="2">
+        <v>200711</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>200713</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="2">
+        <v>201109</v>
+      </c>
+      <c r="I65" s="2">
+        <v>201111</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>201113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="2">
+        <v>200109</v>
+      </c>
+      <c r="I66" s="2">
+        <v>200111</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>200113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="2">
+        <v>200309</v>
+      </c>
+      <c r="I67" s="2">
+        <v>200311</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>200313</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="2">
+        <v>201609</v>
+      </c>
+      <c r="I68" s="2">
+        <v>201611</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>201613</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="2">
+        <v>201009</v>
+      </c>
+      <c r="I69" s="2">
+        <v>201011</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>201013</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="2">
+        <v>200909</v>
+      </c>
+      <c r="I70" s="2">
+        <v>200911</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>200913</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="Q71" s="2"/>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="Q72" s="2"/>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="Q73" s="2"/>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="Q74" s="2"/>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="Q75" s="2"/>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="Q76" s="2"/>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="Q77" s="2"/>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="Q78" s="2"/>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="Q79" s="2"/>
+    </row>
+    <row r="89" spans="1:20">
+      <c r="A89" t="s">
+        <v>41</v>
+      </c>
+      <c r="I89" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20">
+      <c r="A91" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="I91" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="Q91" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R91" s="8"/>
+      <c r="S91" s="8"/>
+      <c r="T91" s="8"/>
+    </row>
+    <row r="92" spans="1:20">
+      <c r="A92" t="s">
+        <v>31</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <v>4</v>
+      </c>
+      <c r="I92" t="s">
+        <v>31</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>4</v>
+      </c>
+      <c r="L92">
+        <v>6</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>31</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>6</v>
+      </c>
+      <c r="T92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20">
+      <c r="A93" t="s">
+        <v>32</v>
+      </c>
+      <c r="B93">
+        <v>110211</v>
+      </c>
+      <c r="C93">
+        <v>110212</v>
+      </c>
+      <c r="D93">
+        <v>110213</v>
+      </c>
+      <c r="I93" t="s">
+        <v>32</v>
+      </c>
+      <c r="J93">
+        <v>110221</v>
+      </c>
+      <c r="K93">
+        <v>110222</v>
+      </c>
+      <c r="L93">
+        <v>110223</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>32</v>
+      </c>
+      <c r="R93">
+        <v>110231</v>
+      </c>
+      <c r="S93">
+        <v>110232</v>
+      </c>
+      <c r="T93" s="9">
+        <v>110233</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20">
+      <c r="A95" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95">
+        <v>38004</v>
+      </c>
+      <c r="I95" t="s">
+        <v>33</v>
+      </c>
+      <c r="J95">
+        <v>38005</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>33</v>
+      </c>
+      <c r="R95">
+        <v>38006</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20">
+      <c r="A96" t="s">
+        <v>34</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="I96" t="s">
+        <v>34</v>
+      </c>
+      <c r="J96">
+        <v>2</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>34</v>
+      </c>
+      <c r="R96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="A97" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="I97" t="s">
+        <v>22</v>
+      </c>
+      <c r="J97">
+        <v>2</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>22</v>
+      </c>
+      <c r="R97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="A98" t="s">
+        <v>35</v>
+      </c>
+      <c r="B98">
+        <v>9</v>
+      </c>
+      <c r="I98" t="s">
+        <v>35</v>
+      </c>
+      <c r="J98">
+        <v>12</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>35</v>
+      </c>
+      <c r="R98">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="A99" t="s">
+        <v>36</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+      <c r="I99" t="s">
+        <v>36</v>
+      </c>
+      <c r="J99">
+        <v>6</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>36</v>
+      </c>
+      <c r="R99">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="Q91:T91"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="Q35:U35"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tournament/TournamentConfig.xlsx
+++ b/Tournament/TournamentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/Tournament/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6B1633-1B09-E041-9C4F-22B5737C401D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9D3B9E-0F2A-9343-B041-C66C33B58364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18780" activeTab="1" xr2:uid="{DEC025FB-2086-0E49-B22B-82442D07B781}"/>
   </bookViews>
@@ -201,7 +201,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="苹方-简"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -585,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F682C8-7EBC-4547-9087-744D49492B1E}">
-  <dimension ref="A1:Y99"/>
+  <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="Q71" sqref="Q71:Q79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1699,24 +1699,24 @@
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="2">
-        <v>200109</v>
+        <v>201309</v>
       </c>
       <c r="I66" s="2">
-        <v>200111</v>
+        <v>201311</v>
       </c>
       <c r="Q66" s="2">
-        <v>200113</v>
+        <v>201313</v>
       </c>
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="2">
-        <v>200309</v>
+        <v>200509</v>
       </c>
       <c r="I67" s="2">
-        <v>200311</v>
+        <v>200511</v>
       </c>
       <c r="Q67" s="2">
-        <v>200313</v>
+        <v>200513</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -1798,24 +1798,24 @@
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="2">
-        <v>200109</v>
+        <v>201309</v>
       </c>
       <c r="I75" s="2">
-        <v>200111</v>
+        <v>201311</v>
       </c>
       <c r="Q75" s="2">
-        <v>200113</v>
+        <v>201313</v>
       </c>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="2">
-        <v>200309</v>
+        <v>200509</v>
       </c>
       <c r="I76" s="2">
-        <v>200311</v>
+        <v>200511</v>
       </c>
       <c r="Q76" s="2">
-        <v>200313</v>
+        <v>200513</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -1851,7 +1851,7 @@
         <v>200913</v>
       </c>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:26">
       <c r="A89" t="s">
         <v>41</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:26">
       <c r="A91" s="8" t="s">
         <v>42</v>
       </c>
@@ -1882,83 +1882,134 @@
       <c r="S91" s="8"/>
       <c r="T91" s="8"/>
     </row>
-    <row r="92" spans="1:20">
-      <c r="A92" t="s">
+    <row r="92" spans="1:26">
+      <c r="A92" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="9">
         <v>0</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="9">
         <v>2</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="9">
         <v>4</v>
       </c>
-      <c r="I92" t="s">
+      <c r="E92" s="9">
+        <v>6</v>
+      </c>
+      <c r="F92" s="9">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J92">
+      <c r="J92" s="9">
         <v>0</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="9">
         <v>4</v>
       </c>
-      <c r="L92">
-        <v>6</v>
-      </c>
-      <c r="Q92" t="s">
+      <c r="L92" s="9">
+        <v>6</v>
+      </c>
+      <c r="M92" s="9">
+        <v>10</v>
+      </c>
+      <c r="N92" s="9">
+        <v>15</v>
+      </c>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="R92">
+      <c r="R92" s="9">
         <v>0</v>
       </c>
-      <c r="S92">
-        <v>6</v>
-      </c>
-      <c r="T92">
+      <c r="S92" s="9">
+        <v>6</v>
+      </c>
+      <c r="T92" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="93" spans="1:20">
-      <c r="A93" t="s">
+      <c r="U92" s="9">
+        <v>15</v>
+      </c>
+      <c r="V92" s="9">
+        <v>30</v>
+      </c>
+      <c r="W92" s="2"/>
+      <c r="X92" s="2"/>
+      <c r="Y92" s="2"/>
+      <c r="Z92" s="2"/>
+    </row>
+    <row r="93" spans="1:26">
+      <c r="A93" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="9">
         <v>110211</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="9">
         <v>110212</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="9">
         <v>110213</v>
       </c>
-      <c r="I93" t="s">
+      <c r="E93" s="9">
+        <v>110214</v>
+      </c>
+      <c r="F93" s="9">
+        <v>110215</v>
+      </c>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J93">
+      <c r="J93" s="9">
         <v>110221</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="9">
         <v>110222</v>
       </c>
-      <c r="L93">
+      <c r="L93" s="9">
         <v>110223</v>
       </c>
-      <c r="Q93" t="s">
+      <c r="M93" s="9">
+        <v>110224</v>
+      </c>
+      <c r="N93" s="9">
+        <v>110225</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="R93">
+      <c r="R93" s="9">
         <v>110231</v>
       </c>
-      <c r="S93">
+      <c r="S93" s="9">
         <v>110232</v>
       </c>
       <c r="T93" s="9">
         <v>110233</v>
       </c>
-    </row>
-    <row r="95" spans="1:20">
+      <c r="U93" s="9">
+        <v>110234</v>
+      </c>
+      <c r="V93" s="9">
+        <v>110235</v>
+      </c>
+      <c r="W93" s="2"/>
+      <c r="X93" s="2"/>
+      <c r="Y93" s="2"/>
+    </row>
+    <row r="95" spans="1:26">
       <c r="A95" t="s">
         <v>33</v>
       </c>
@@ -1978,7 +2029,7 @@
         <v>38003</v>
       </c>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:26">
       <c r="A96" t="s">
         <v>34</v>
       </c>
@@ -2060,6 +2111,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="Q91:T91"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q35:U35"/>
+    <mergeCell ref="S36:U36"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C36:E36"/>
@@ -2067,12 +2124,6 @@
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I35:M35"/>
     <mergeCell ref="K36:M36"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="Q91:T91"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q35:U35"/>
-    <mergeCell ref="S36:U36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2082,8 +2133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECCC400-8F91-7643-8E2C-86B622BB3F84}">
   <dimension ref="A1:Y99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="Q70" sqref="Q70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -3194,24 +3245,24 @@
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="2">
-        <v>200109</v>
+        <v>201309</v>
       </c>
       <c r="I66" s="2">
-        <v>200111</v>
+        <v>201311</v>
       </c>
       <c r="Q66" s="2">
-        <v>200113</v>
+        <v>201313</v>
       </c>
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="2">
-        <v>200309</v>
+        <v>200509</v>
       </c>
       <c r="I67" s="2">
-        <v>200311</v>
+        <v>200511</v>
       </c>
       <c r="Q67" s="2">
-        <v>200313</v>
+        <v>200513</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -3292,7 +3343,7 @@
       <c r="I79" s="2"/>
       <c r="Q79" s="2"/>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:22">
       <c r="A89" t="s">
         <v>41</v>
       </c>
@@ -3303,7 +3354,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:22">
       <c r="A91" s="8" t="s">
         <v>42</v>
       </c>
@@ -3323,83 +3374,119 @@
       <c r="S91" s="8"/>
       <c r="T91" s="8"/>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:22">
       <c r="A92" t="s">
         <v>31</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="9">
         <v>0</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="9">
         <v>2</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="9">
         <v>4</v>
+      </c>
+      <c r="E92" s="9">
+        <v>6</v>
+      </c>
+      <c r="F92" s="9">
+        <v>10</v>
       </c>
       <c r="I92" t="s">
         <v>31</v>
       </c>
-      <c r="J92">
+      <c r="J92" s="9">
         <v>0</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="9">
         <v>4</v>
       </c>
-      <c r="L92">
-        <v>6</v>
+      <c r="L92" s="9">
+        <v>6</v>
+      </c>
+      <c r="M92" s="9">
+        <v>10</v>
+      </c>
+      <c r="N92" s="9">
+        <v>15</v>
       </c>
       <c r="Q92" t="s">
         <v>31</v>
       </c>
-      <c r="R92">
+      <c r="R92" s="9">
         <v>0</v>
       </c>
-      <c r="S92">
-        <v>6</v>
-      </c>
-      <c r="T92">
+      <c r="S92" s="9">
+        <v>6</v>
+      </c>
+      <c r="T92" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="93" spans="1:20">
+      <c r="U92" s="9">
+        <v>15</v>
+      </c>
+      <c r="V92" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22">
       <c r="A93" t="s">
         <v>32</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="9">
         <v>110211</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="9">
         <v>110212</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="9">
         <v>110213</v>
+      </c>
+      <c r="E93" s="9">
+        <v>110214</v>
+      </c>
+      <c r="F93" s="9">
+        <v>110215</v>
       </c>
       <c r="I93" t="s">
         <v>32</v>
       </c>
-      <c r="J93">
+      <c r="J93" s="9">
         <v>110221</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="9">
         <v>110222</v>
       </c>
-      <c r="L93">
+      <c r="L93" s="9">
         <v>110223</v>
+      </c>
+      <c r="M93" s="9">
+        <v>110224</v>
+      </c>
+      <c r="N93" s="9">
+        <v>110225</v>
       </c>
       <c r="Q93" t="s">
         <v>32</v>
       </c>
-      <c r="R93">
+      <c r="R93" s="9">
         <v>110231</v>
       </c>
-      <c r="S93">
+      <c r="S93" s="9">
         <v>110232</v>
       </c>
       <c r="T93" s="9">
         <v>110233</v>
       </c>
-    </row>
-    <row r="95" spans="1:20">
+      <c r="U93" s="9">
+        <v>110234</v>
+      </c>
+      <c r="V93" s="9">
+        <v>110235</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22">
       <c r="A95" t="s">
         <v>33</v>
       </c>
@@ -3419,7 +3506,7 @@
         <v>38006</v>
       </c>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:22">
       <c r="A96" t="s">
         <v>34</v>
       </c>
@@ -3501,12 +3588,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="Q91:T91"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="I21:J21"/>
@@ -3514,6 +3595,12 @@
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="I35:M35"/>
     <mergeCell ref="Q35:U35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="Q91:T91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tournament/TournamentConfig.xlsx
+++ b/Tournament/TournamentConfig.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/Tournament/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9D3B9E-0F2A-9343-B041-C66C33B58364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706C8C12-05ED-B447-B41E-3D2DEFCB0347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18780" activeTab="1" xr2:uid="{DEC025FB-2086-0E49-B22B-82442D07B781}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18780" xr2:uid="{DEC025FB-2086-0E49-B22B-82442D07B781}"/>
   </bookViews>
   <sheets>
-    <sheet name="18 holes" sheetId="1" r:id="rId1"/>
-    <sheet name="9 holes" sheetId="2" r:id="rId2"/>
+    <sheet name="Inlets 18 holes" sheetId="1" r:id="rId1"/>
+    <sheet name="Inlets 9 holes" sheetId="2" r:id="rId2"/>
+    <sheet name="Cyber 9" sheetId="4" r:id="rId3"/>
+    <sheet name="Cyber 18" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -180,6 +182,21 @@
   <si>
     <t>Bg_event_zs_07</t>
   </si>
+  <si>
+    <t>Cyberdunk</t>
+  </si>
+  <si>
+    <t>Icon_zs_bt_09</t>
+  </si>
+  <si>
+    <t>Bg_event_zs_rk_9</t>
+  </si>
+  <si>
+    <t>Pnl_event_zs_jl_08</t>
+  </si>
+  <si>
+    <t>Bg_event_zs_08</t>
+  </si>
 </sst>
 </file>
 
@@ -267,10 +284,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,12 +604,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F682C8-7EBC-4547-9087-744D49492B1E}">
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="Q71" sqref="Q71:Q79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -683,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>824</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -698,23 +716,19 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>1629529200</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="B5" s="5">
         <v>44429.625</v>
       </c>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>1629615600</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="B6" s="5">
         <v>44430.625</v>
       </c>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
@@ -730,10 +744,10 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
@@ -845,18 +859,18 @@
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="I21" s="8" t="s">
+      <c r="B21" s="9"/>
+      <c r="I21" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="8"/>
-      <c r="Q21" s="8" t="s">
+      <c r="J21" s="9"/>
+      <c r="Q21" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R21" s="8"/>
+      <c r="R21" s="9"/>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
@@ -1020,44 +1034,44 @@
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="I35" s="8" t="s">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="I35" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="Q35" s="8" t="s">
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="Q35" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="K36" s="8" t="s">
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="K36" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="S36" s="8" t="s">
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="S36" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" t="s">
@@ -1863,148 +1877,124 @@
       </c>
     </row>
     <row r="91" spans="1:26">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="I91" s="8" t="s">
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="I91" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="Q91" s="8" t="s">
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="Q91" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="R91" s="8"/>
-      <c r="S91" s="8"/>
-      <c r="T91" s="8"/>
+      <c r="R91" s="9"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="9"/>
     </row>
     <row r="92" spans="1:26">
-      <c r="A92" s="9" t="s">
+      <c r="A92" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B92" s="9">
+      <c r="B92" s="8">
         <v>0</v>
       </c>
-      <c r="C92" s="9">
+      <c r="C92" s="8">
         <v>2</v>
       </c>
-      <c r="D92" s="9">
+      <c r="D92" s="8">
         <v>4</v>
       </c>
-      <c r="E92" s="9">
-        <v>6</v>
-      </c>
-      <c r="F92" s="9">
-        <v>10</v>
-      </c>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
-      <c r="I92" s="9" t="s">
+      <c r="I92" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J92" s="9">
+      <c r="J92" s="8">
         <v>0</v>
       </c>
-      <c r="K92" s="9">
+      <c r="K92" s="8">
         <v>4</v>
       </c>
-      <c r="L92" s="9">
-        <v>6</v>
-      </c>
-      <c r="M92" s="9">
-        <v>10</v>
-      </c>
-      <c r="N92" s="9">
-        <v>15</v>
-      </c>
+      <c r="L92" s="8">
+        <v>6</v>
+      </c>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
-      <c r="Q92" s="9" t="s">
+      <c r="Q92" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="R92" s="9">
+      <c r="R92" s="8">
         <v>0</v>
       </c>
-      <c r="S92" s="9">
-        <v>6</v>
-      </c>
-      <c r="T92" s="9">
+      <c r="S92" s="8">
+        <v>6</v>
+      </c>
+      <c r="T92" s="8">
         <v>10</v>
       </c>
-      <c r="U92" s="9">
-        <v>15</v>
-      </c>
-      <c r="V92" s="9">
-        <v>30</v>
-      </c>
+      <c r="U92" s="8"/>
+      <c r="V92" s="8"/>
       <c r="W92" s="2"/>
       <c r="X92" s="2"/>
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
     </row>
     <row r="93" spans="1:26">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B93" s="9">
+      <c r="B93" s="8">
         <v>110211</v>
       </c>
-      <c r="C93" s="9">
+      <c r="C93" s="8">
         <v>110212</v>
       </c>
-      <c r="D93" s="9">
+      <c r="D93" s="8">
         <v>110213</v>
       </c>
-      <c r="E93" s="9">
-        <v>110214</v>
-      </c>
-      <c r="F93" s="9">
-        <v>110215</v>
-      </c>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
-      <c r="I93" s="9" t="s">
+      <c r="I93" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J93" s="9">
+      <c r="J93" s="8">
         <v>110221</v>
       </c>
-      <c r="K93" s="9">
+      <c r="K93" s="8">
         <v>110222</v>
       </c>
-      <c r="L93" s="9">
+      <c r="L93" s="8">
         <v>110223</v>
       </c>
-      <c r="M93" s="9">
-        <v>110224</v>
-      </c>
-      <c r="N93" s="9">
-        <v>110225</v>
-      </c>
+      <c r="M93" s="8"/>
+      <c r="N93" s="8"/>
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
-      <c r="Q93" s="9" t="s">
+      <c r="Q93" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="R93" s="9">
+      <c r="R93" s="8">
         <v>110231</v>
       </c>
-      <c r="S93" s="9">
+      <c r="S93" s="8">
         <v>110232</v>
       </c>
-      <c r="T93" s="9">
+      <c r="T93" s="8">
         <v>110233</v>
       </c>
-      <c r="U93" s="9">
-        <v>110234</v>
-      </c>
-      <c r="V93" s="9">
-        <v>110235</v>
-      </c>
+      <c r="U93" s="8"/>
+      <c r="V93" s="8"/>
       <c r="W93" s="2"/>
       <c r="X93" s="2"/>
       <c r="Y93" s="2"/>
@@ -2133,8 +2123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECCC400-8F91-7643-8E2C-86B622BB3F84}">
   <dimension ref="A1:Y99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="Q70" sqref="Q70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -2229,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>825</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -2276,10 +2266,10 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
@@ -2391,18 +2381,18 @@
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="I21" s="8" t="s">
+      <c r="B21" s="9"/>
+      <c r="I21" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="8"/>
-      <c r="Q21" s="8" t="s">
+      <c r="J21" s="9"/>
+      <c r="Q21" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R21" s="8"/>
+      <c r="R21" s="9"/>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
@@ -2566,44 +2556,44 @@
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="I35" s="8" t="s">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="I35" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="Q35" s="8" t="s">
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="Q35" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="K36" s="8" t="s">
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="K36" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="S36" s="8" t="s">
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="S36" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" t="s">
@@ -3355,136 +3345,112 @@
       </c>
     </row>
     <row r="91" spans="1:22">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="I91" s="8" t="s">
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="I91" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="Q91" s="8" t="s">
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="Q91" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="R91" s="8"/>
-      <c r="S91" s="8"/>
-      <c r="T91" s="8"/>
+      <c r="R91" s="9"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="9"/>
     </row>
     <row r="92" spans="1:22">
       <c r="A92" t="s">
         <v>31</v>
       </c>
-      <c r="B92" s="9">
+      <c r="B92" s="8">
         <v>0</v>
       </c>
-      <c r="C92" s="9">
+      <c r="C92" s="8">
         <v>2</v>
       </c>
-      <c r="D92" s="9">
+      <c r="D92" s="8">
         <v>4</v>
       </c>
-      <c r="E92" s="9">
-        <v>6</v>
-      </c>
-      <c r="F92" s="9">
-        <v>10</v>
-      </c>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
       <c r="I92" t="s">
         <v>31</v>
       </c>
-      <c r="J92" s="9">
+      <c r="J92" s="8">
         <v>0</v>
       </c>
-      <c r="K92" s="9">
+      <c r="K92" s="8">
         <v>4</v>
       </c>
-      <c r="L92" s="9">
-        <v>6</v>
-      </c>
-      <c r="M92" s="9">
-        <v>10</v>
-      </c>
-      <c r="N92" s="9">
-        <v>15</v>
-      </c>
+      <c r="L92" s="8">
+        <v>6</v>
+      </c>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
       <c r="Q92" t="s">
         <v>31</v>
       </c>
-      <c r="R92" s="9">
+      <c r="R92" s="8">
         <v>0</v>
       </c>
-      <c r="S92" s="9">
-        <v>6</v>
-      </c>
-      <c r="T92" s="9">
+      <c r="S92" s="8">
+        <v>6</v>
+      </c>
+      <c r="T92" s="8">
         <v>10</v>
       </c>
-      <c r="U92" s="9">
-        <v>15</v>
-      </c>
-      <c r="V92" s="9">
-        <v>30</v>
-      </c>
+      <c r="U92" s="8"/>
+      <c r="V92" s="8"/>
     </row>
     <row r="93" spans="1:22">
       <c r="A93" t="s">
         <v>32</v>
       </c>
-      <c r="B93" s="9">
+      <c r="B93" s="8">
         <v>110211</v>
       </c>
-      <c r="C93" s="9">
+      <c r="C93" s="8">
         <v>110212</v>
       </c>
-      <c r="D93" s="9">
+      <c r="D93" s="8">
         <v>110213</v>
       </c>
-      <c r="E93" s="9">
-        <v>110214</v>
-      </c>
-      <c r="F93" s="9">
-        <v>110215</v>
-      </c>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
       <c r="I93" t="s">
         <v>32</v>
       </c>
-      <c r="J93" s="9">
+      <c r="J93" s="8">
         <v>110221</v>
       </c>
-      <c r="K93" s="9">
+      <c r="K93" s="8">
         <v>110222</v>
       </c>
-      <c r="L93" s="9">
+      <c r="L93" s="8">
         <v>110223</v>
       </c>
-      <c r="M93" s="9">
-        <v>110224</v>
-      </c>
-      <c r="N93" s="9">
-        <v>110225</v>
-      </c>
+      <c r="M93" s="8"/>
+      <c r="N93" s="8"/>
       <c r="Q93" t="s">
         <v>32</v>
       </c>
-      <c r="R93" s="9">
+      <c r="R93" s="8">
         <v>110231</v>
       </c>
-      <c r="S93" s="9">
+      <c r="S93" s="8">
         <v>110232</v>
       </c>
-      <c r="T93" s="9">
+      <c r="T93" s="8">
         <v>110233</v>
       </c>
-      <c r="U93" s="9">
-        <v>110234</v>
-      </c>
-      <c r="V93" s="9">
-        <v>110235</v>
-      </c>
+      <c r="U93" s="8"/>
+      <c r="V93" s="8"/>
     </row>
     <row r="95" spans="1:22">
       <c r="A95" t="s">
@@ -3507,6 +3473,3029 @@
       </c>
     </row>
     <row r="96" spans="1:22">
+      <c r="A96" t="s">
+        <v>34</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="I96" t="s">
+        <v>34</v>
+      </c>
+      <c r="J96">
+        <v>2</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>34</v>
+      </c>
+      <c r="R96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="A97" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="I97" t="s">
+        <v>22</v>
+      </c>
+      <c r="J97">
+        <v>2</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>22</v>
+      </c>
+      <c r="R97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="A98" t="s">
+        <v>35</v>
+      </c>
+      <c r="B98">
+        <v>9</v>
+      </c>
+      <c r="I98" t="s">
+        <v>35</v>
+      </c>
+      <c r="J98">
+        <v>12</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>35</v>
+      </c>
+      <c r="R98">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="A99" t="s">
+        <v>36</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+      <c r="I99" t="s">
+        <v>36</v>
+      </c>
+      <c r="J99">
+        <v>6</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>36</v>
+      </c>
+      <c r="R99">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="Q35:U35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="Q91:T91"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394F7A97-C7E4-274A-9AA3-74BEE3FA552D}">
+  <dimension ref="A1:Y99"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21:J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <cols>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>11</v>
+      </c>
+      <c r="L1">
+        <v>12</v>
+      </c>
+      <c r="M1">
+        <v>13</v>
+      </c>
+      <c r="N1">
+        <v>14</v>
+      </c>
+      <c r="O1">
+        <v>15</v>
+      </c>
+      <c r="P1">
+        <v>16</v>
+      </c>
+      <c r="Q1">
+        <v>17</v>
+      </c>
+      <c r="R1">
+        <v>18</v>
+      </c>
+      <c r="S1">
+        <v>19</v>
+      </c>
+      <c r="T1">
+        <v>20</v>
+      </c>
+      <c r="U1">
+        <v>21</v>
+      </c>
+      <c r="V1">
+        <v>22</v>
+      </c>
+      <c r="W1">
+        <v>23</v>
+      </c>
+      <c r="X1">
+        <v>24</v>
+      </c>
+      <c r="Y1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1629874800</v>
+      </c>
+      <c r="D5" s="5">
+        <v>44433.645833333336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1629961200</v>
+      </c>
+      <c r="D6" s="5">
+        <v>44434.645833333336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="1" customFormat="1">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="1" customFormat="1">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4">
+        <v>2</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3">
+        <v>3</v>
+      </c>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18">
+        <v>9</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>11</v>
+      </c>
+      <c r="R18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="I21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="Q21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R21" s="9"/>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>500</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22">
+        <v>2000</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>14</v>
+      </c>
+      <c r="R22">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>15</v>
+      </c>
+      <c r="R23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="20" customHeight="1">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>16</v>
+      </c>
+      <c r="U25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>99</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28">
+        <v>99</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>17</v>
+      </c>
+      <c r="R28">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>18</v>
+      </c>
+      <c r="U30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="I33" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33">
+        <v>10</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>40</v>
+      </c>
+      <c r="R33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="I35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="Q35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="C36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="K36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="S36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>24</v>
+      </c>
+      <c r="R37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S37" t="s">
+        <v>0</v>
+      </c>
+      <c r="T37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38">
+        <v>-2</v>
+      </c>
+      <c r="B38">
+        <v>10086</v>
+      </c>
+      <c r="C38">
+        <v>461</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>6</v>
+      </c>
+      <c r="I38">
+        <v>-5</v>
+      </c>
+      <c r="J38">
+        <v>10086</v>
+      </c>
+      <c r="K38">
+        <v>471</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>6</v>
+      </c>
+      <c r="Q38">
+        <v>-8</v>
+      </c>
+      <c r="R38">
+        <v>10086</v>
+      </c>
+      <c r="S38">
+        <v>481</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39">
+        <v>-4</v>
+      </c>
+      <c r="B39">
+        <v>-3</v>
+      </c>
+      <c r="C39">
+        <v>462</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="I39">
+        <v>-7</v>
+      </c>
+      <c r="J39">
+        <v>-6</v>
+      </c>
+      <c r="K39">
+        <v>472</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>6</v>
+      </c>
+      <c r="Q39">
+        <v>-10</v>
+      </c>
+      <c r="R39">
+        <v>-9</v>
+      </c>
+      <c r="S39">
+        <v>482</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40">
+        <v>-6</v>
+      </c>
+      <c r="B40">
+        <v>-5</v>
+      </c>
+      <c r="C40">
+        <v>463</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="I40">
+        <v>-9</v>
+      </c>
+      <c r="J40">
+        <v>-8</v>
+      </c>
+      <c r="K40">
+        <v>473</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>6</v>
+      </c>
+      <c r="Q40">
+        <v>-12</v>
+      </c>
+      <c r="R40">
+        <v>-11</v>
+      </c>
+      <c r="S40">
+        <v>483</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41">
+        <v>-8</v>
+      </c>
+      <c r="B41">
+        <v>-7</v>
+      </c>
+      <c r="C41">
+        <v>464</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>-11</v>
+      </c>
+      <c r="J41">
+        <v>-10</v>
+      </c>
+      <c r="K41">
+        <v>474</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>6</v>
+      </c>
+      <c r="Q41">
+        <v>-14</v>
+      </c>
+      <c r="R41">
+        <v>-13</v>
+      </c>
+      <c r="S41">
+        <v>484</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42">
+        <v>-10</v>
+      </c>
+      <c r="B42">
+        <v>-9</v>
+      </c>
+      <c r="C42">
+        <v>465</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="I42">
+        <v>-13</v>
+      </c>
+      <c r="J42">
+        <v>-12</v>
+      </c>
+      <c r="K42">
+        <v>475</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>6</v>
+      </c>
+      <c r="Q42">
+        <v>-16</v>
+      </c>
+      <c r="R42">
+        <v>-15</v>
+      </c>
+      <c r="S42">
+        <v>485</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43">
+        <v>-12</v>
+      </c>
+      <c r="B43">
+        <v>-11</v>
+      </c>
+      <c r="C43">
+        <v>466</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="I43">
+        <v>-15</v>
+      </c>
+      <c r="J43">
+        <v>-14</v>
+      </c>
+      <c r="K43">
+        <v>476</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>6</v>
+      </c>
+      <c r="Q43">
+        <v>-18</v>
+      </c>
+      <c r="R43">
+        <v>-17</v>
+      </c>
+      <c r="S43">
+        <v>486</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44">
+        <v>-14</v>
+      </c>
+      <c r="B44">
+        <v>-13</v>
+      </c>
+      <c r="C44">
+        <v>467</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="I44">
+        <v>-17</v>
+      </c>
+      <c r="J44">
+        <v>-16</v>
+      </c>
+      <c r="K44">
+        <v>477</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>6</v>
+      </c>
+      <c r="Q44">
+        <v>-20</v>
+      </c>
+      <c r="R44">
+        <v>-19</v>
+      </c>
+      <c r="S44">
+        <v>487</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45">
+        <v>-10086</v>
+      </c>
+      <c r="B45">
+        <v>-15</v>
+      </c>
+      <c r="C45">
+        <v>468</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+      <c r="I45">
+        <v>-10086</v>
+      </c>
+      <c r="J45">
+        <v>-18</v>
+      </c>
+      <c r="K45">
+        <v>478</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>6</v>
+      </c>
+      <c r="Q45">
+        <v>-10086</v>
+      </c>
+      <c r="R45">
+        <v>-21</v>
+      </c>
+      <c r="S45">
+        <v>488</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>14</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>26</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53">
+        <v>120001</v>
+      </c>
+      <c r="I53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53">
+        <v>120001</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>27</v>
+      </c>
+      <c r="R53">
+        <v>120001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>15</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" t="s">
+        <v>39</v>
+      </c>
+      <c r="I56" t="s">
+        <v>28</v>
+      </c>
+      <c r="M56" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>28</v>
+      </c>
+      <c r="U56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="6">
+        <v>120021</v>
+      </c>
+      <c r="B57" s="6">
+        <v>120022</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="I57" s="6">
+        <v>120021</v>
+      </c>
+      <c r="J57" s="6">
+        <v>120022</v>
+      </c>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="Q57" s="6">
+        <v>120021</v>
+      </c>
+      <c r="R57" s="6">
+        <v>120022</v>
+      </c>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="I59" t="s">
+        <v>29</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>29</v>
+      </c>
+      <c r="R59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I61" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" s="2">
+        <v>20109</v>
+      </c>
+      <c r="I62" s="2">
+        <v>20111</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>20113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" s="2">
+        <v>21009</v>
+      </c>
+      <c r="I63" s="2">
+        <v>21011</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>21013</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="2">
+        <v>10609</v>
+      </c>
+      <c r="I64" s="2">
+        <v>10611</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>10613</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="2">
+        <v>10309</v>
+      </c>
+      <c r="I65" s="2">
+        <v>10311</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>10313</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="2">
+        <v>20509</v>
+      </c>
+      <c r="I66" s="2">
+        <v>20511</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>20513</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="2">
+        <v>20609</v>
+      </c>
+      <c r="I67" s="2">
+        <v>20611</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>20613</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="2">
+        <v>20209</v>
+      </c>
+      <c r="I68" s="2">
+        <v>20211</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>20213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="2">
+        <v>10509</v>
+      </c>
+      <c r="I69" s="2">
+        <v>10511</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>10513</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="2">
+        <v>20909</v>
+      </c>
+      <c r="I70" s="2">
+        <v>20911</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>20913</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="Q71" s="2"/>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="Q72" s="2"/>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="Q73" s="2"/>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="Q74" s="2"/>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="Q75" s="2"/>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="Q76" s="2"/>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="Q77" s="2"/>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="Q78" s="2"/>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="Q79" s="2"/>
+    </row>
+    <row r="89" spans="1:22">
+      <c r="A89" t="s">
+        <v>41</v>
+      </c>
+      <c r="I89" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22">
+      <c r="A91" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="I91" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="Q91" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R91" s="9"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="9"/>
+    </row>
+    <row r="92" spans="1:22">
+      <c r="A92" t="s">
+        <v>31</v>
+      </c>
+      <c r="B92" s="8">
+        <v>0</v>
+      </c>
+      <c r="C92" s="8">
+        <v>2</v>
+      </c>
+      <c r="D92" s="8">
+        <v>4</v>
+      </c>
+      <c r="E92" s="8">
+        <v>6</v>
+      </c>
+      <c r="F92" s="8">
+        <v>10</v>
+      </c>
+      <c r="I92" t="s">
+        <v>31</v>
+      </c>
+      <c r="J92" s="8">
+        <v>0</v>
+      </c>
+      <c r="K92" s="8">
+        <v>4</v>
+      </c>
+      <c r="L92" s="8">
+        <v>6</v>
+      </c>
+      <c r="M92" s="8">
+        <v>10</v>
+      </c>
+      <c r="N92" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>31</v>
+      </c>
+      <c r="R92" s="8">
+        <v>0</v>
+      </c>
+      <c r="S92" s="8">
+        <v>6</v>
+      </c>
+      <c r="T92" s="8">
+        <v>10</v>
+      </c>
+      <c r="U92" s="8">
+        <v>15</v>
+      </c>
+      <c r="V92" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22">
+      <c r="A93" t="s">
+        <v>32</v>
+      </c>
+      <c r="B93" s="8">
+        <v>110211</v>
+      </c>
+      <c r="C93" s="8">
+        <v>110212</v>
+      </c>
+      <c r="D93" s="8">
+        <v>110213</v>
+      </c>
+      <c r="E93" s="8">
+        <v>110214</v>
+      </c>
+      <c r="F93" s="8">
+        <v>110215</v>
+      </c>
+      <c r="I93" t="s">
+        <v>32</v>
+      </c>
+      <c r="J93" s="8">
+        <v>110221</v>
+      </c>
+      <c r="K93" s="8">
+        <v>110222</v>
+      </c>
+      <c r="L93" s="8">
+        <v>110223</v>
+      </c>
+      <c r="M93" s="8">
+        <v>110224</v>
+      </c>
+      <c r="N93" s="8">
+        <v>110225</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>32</v>
+      </c>
+      <c r="R93" s="8">
+        <v>110231</v>
+      </c>
+      <c r="S93" s="8">
+        <v>110232</v>
+      </c>
+      <c r="T93" s="8">
+        <v>110233</v>
+      </c>
+      <c r="U93" s="8">
+        <v>110234</v>
+      </c>
+      <c r="V93" s="8">
+        <v>110235</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22">
+      <c r="A95" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95">
+        <v>39001</v>
+      </c>
+      <c r="I95" t="s">
+        <v>33</v>
+      </c>
+      <c r="J95">
+        <v>39002</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>33</v>
+      </c>
+      <c r="R95">
+        <v>39003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22">
+      <c r="A96" t="s">
+        <v>34</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="I96" t="s">
+        <v>34</v>
+      </c>
+      <c r="J96">
+        <v>2</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>34</v>
+      </c>
+      <c r="R96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="A97" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="I97" t="s">
+        <v>22</v>
+      </c>
+      <c r="J97">
+        <v>2</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>22</v>
+      </c>
+      <c r="R97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="A98" t="s">
+        <v>35</v>
+      </c>
+      <c r="B98">
+        <v>9</v>
+      </c>
+      <c r="I98" t="s">
+        <v>35</v>
+      </c>
+      <c r="J98">
+        <v>12</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>35</v>
+      </c>
+      <c r="R98">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="A99" t="s">
+        <v>36</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+      <c r="I99" t="s">
+        <v>36</v>
+      </c>
+      <c r="J99">
+        <v>6</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>36</v>
+      </c>
+      <c r="R99">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="Q35:U35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="Q91:T91"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC89074-7971-B845-BD3A-3412DA2CD7D4}">
+  <dimension ref="A1:Z99"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <cols>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>11</v>
+      </c>
+      <c r="L1">
+        <v>12</v>
+      </c>
+      <c r="M1">
+        <v>13</v>
+      </c>
+      <c r="N1">
+        <v>14</v>
+      </c>
+      <c r="O1">
+        <v>15</v>
+      </c>
+      <c r="P1">
+        <v>16</v>
+      </c>
+      <c r="Q1">
+        <v>17</v>
+      </c>
+      <c r="R1">
+        <v>18</v>
+      </c>
+      <c r="S1">
+        <v>19</v>
+      </c>
+      <c r="T1">
+        <v>20</v>
+      </c>
+      <c r="U1">
+        <v>21</v>
+      </c>
+      <c r="V1">
+        <v>22</v>
+      </c>
+      <c r="W1">
+        <v>23</v>
+      </c>
+      <c r="X1">
+        <v>24</v>
+      </c>
+      <c r="Y1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1630047600</v>
+      </c>
+      <c r="D5" s="5">
+        <v>44435.645833333336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1630134000</v>
+      </c>
+      <c r="D6" s="5">
+        <v>44436.645833333336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="1" customFormat="1">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="1" customFormat="1">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4">
+        <v>2</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3">
+        <v>3</v>
+      </c>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18">
+        <v>18</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>11</v>
+      </c>
+      <c r="R18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="I21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="Q21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R21" s="9"/>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>1000</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22">
+        <v>5000</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>14</v>
+      </c>
+      <c r="R22">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>15</v>
+      </c>
+      <c r="R23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="20" customHeight="1">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>16</v>
+      </c>
+      <c r="U25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>99</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28">
+        <v>99</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>17</v>
+      </c>
+      <c r="R28">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>18</v>
+      </c>
+      <c r="U30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="I33" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33">
+        <v>10</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>40</v>
+      </c>
+      <c r="R33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="I35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="Q35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="C36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="K36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="S36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>24</v>
+      </c>
+      <c r="R37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S37" t="s">
+        <v>0</v>
+      </c>
+      <c r="T37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38">
+        <v>-8</v>
+      </c>
+      <c r="B38">
+        <v>10086</v>
+      </c>
+      <c r="C38">
+        <v>431</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>6</v>
+      </c>
+      <c r="I38">
+        <v>-17</v>
+      </c>
+      <c r="J38">
+        <v>10086</v>
+      </c>
+      <c r="K38">
+        <v>441</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>6</v>
+      </c>
+      <c r="Q38">
+        <v>-28</v>
+      </c>
+      <c r="R38">
+        <v>10086</v>
+      </c>
+      <c r="S38">
+        <v>451</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39">
+        <v>-13</v>
+      </c>
+      <c r="B39">
+        <v>-9</v>
+      </c>
+      <c r="C39">
+        <v>432</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="I39">
+        <v>-20</v>
+      </c>
+      <c r="J39">
+        <v>-18</v>
+      </c>
+      <c r="K39">
+        <v>442</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>6</v>
+      </c>
+      <c r="Q39">
+        <v>-32</v>
+      </c>
+      <c r="R39">
+        <v>-29</v>
+      </c>
+      <c r="S39">
+        <v>432</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40">
+        <v>-17</v>
+      </c>
+      <c r="B40">
+        <v>-14</v>
+      </c>
+      <c r="C40">
+        <v>433</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="I40">
+        <v>-23</v>
+      </c>
+      <c r="J40">
+        <v>-21</v>
+      </c>
+      <c r="K40">
+        <v>443</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>6</v>
+      </c>
+      <c r="Q40">
+        <v>-35</v>
+      </c>
+      <c r="R40">
+        <v>-33</v>
+      </c>
+      <c r="S40">
+        <v>433</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41">
+        <v>-20</v>
+      </c>
+      <c r="B41">
+        <v>-18</v>
+      </c>
+      <c r="C41">
+        <v>434</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>-26</v>
+      </c>
+      <c r="J41">
+        <v>-24</v>
+      </c>
+      <c r="K41">
+        <v>444</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>6</v>
+      </c>
+      <c r="Q41">
+        <v>-38</v>
+      </c>
+      <c r="R41">
+        <v>-36</v>
+      </c>
+      <c r="S41">
+        <v>434</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42">
+        <v>-23</v>
+      </c>
+      <c r="B42">
+        <v>-21</v>
+      </c>
+      <c r="C42">
+        <v>435</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="I42">
+        <v>-29</v>
+      </c>
+      <c r="J42">
+        <v>-27</v>
+      </c>
+      <c r="K42">
+        <v>445</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>6</v>
+      </c>
+      <c r="Q42">
+        <v>-41</v>
+      </c>
+      <c r="R42">
+        <v>-39</v>
+      </c>
+      <c r="S42">
+        <v>435</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43">
+        <v>-26</v>
+      </c>
+      <c r="B43">
+        <v>-24</v>
+      </c>
+      <c r="C43">
+        <v>436</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="I43">
+        <v>-32</v>
+      </c>
+      <c r="J43">
+        <v>-30</v>
+      </c>
+      <c r="K43">
+        <v>446</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>6</v>
+      </c>
+      <c r="Q43">
+        <v>-44</v>
+      </c>
+      <c r="R43">
+        <v>-42</v>
+      </c>
+      <c r="S43">
+        <v>436</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44">
+        <v>-29</v>
+      </c>
+      <c r="B44">
+        <v>-27</v>
+      </c>
+      <c r="C44">
+        <v>437</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="I44">
+        <v>-35</v>
+      </c>
+      <c r="J44">
+        <v>-33</v>
+      </c>
+      <c r="K44">
+        <v>447</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>6</v>
+      </c>
+      <c r="Q44">
+        <v>-47</v>
+      </c>
+      <c r="R44">
+        <v>-45</v>
+      </c>
+      <c r="S44">
+        <v>437</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45">
+        <v>-10086</v>
+      </c>
+      <c r="B45">
+        <v>-30</v>
+      </c>
+      <c r="C45">
+        <v>438</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+      <c r="I45">
+        <v>-10086</v>
+      </c>
+      <c r="J45">
+        <v>-36</v>
+      </c>
+      <c r="K45">
+        <v>448</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>6</v>
+      </c>
+      <c r="Q45">
+        <v>-10086</v>
+      </c>
+      <c r="R45">
+        <v>-48</v>
+      </c>
+      <c r="S45">
+        <v>438</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>14</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>26</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53">
+        <v>120002</v>
+      </c>
+      <c r="I53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53">
+        <v>120002</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>27</v>
+      </c>
+      <c r="R53">
+        <v>120002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>15</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" t="s">
+        <v>39</v>
+      </c>
+      <c r="I56" t="s">
+        <v>28</v>
+      </c>
+      <c r="M56" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>28</v>
+      </c>
+      <c r="U56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="6">
+        <v>120021</v>
+      </c>
+      <c r="B57" s="6">
+        <v>120022</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="I57" s="6">
+        <v>120021</v>
+      </c>
+      <c r="J57" s="6">
+        <v>120022</v>
+      </c>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="Q57" s="6">
+        <v>120021</v>
+      </c>
+      <c r="R57" s="6">
+        <v>120022</v>
+      </c>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="I59" t="s">
+        <v>29</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>29</v>
+      </c>
+      <c r="R59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I61" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" s="2">
+        <v>20109</v>
+      </c>
+      <c r="I62" s="2">
+        <v>20111</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>20113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" s="2">
+        <v>21009</v>
+      </c>
+      <c r="I63" s="2">
+        <v>21011</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>21013</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="2">
+        <v>10609</v>
+      </c>
+      <c r="I64" s="2">
+        <v>10611</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>10613</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="2">
+        <v>10309</v>
+      </c>
+      <c r="I65" s="2">
+        <v>10311</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>10313</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="2">
+        <v>20509</v>
+      </c>
+      <c r="I66" s="2">
+        <v>20511</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>20513</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="2">
+        <v>20609</v>
+      </c>
+      <c r="I67" s="2">
+        <v>20611</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>20613</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="2">
+        <v>20209</v>
+      </c>
+      <c r="I68" s="2">
+        <v>20211</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>20213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="2">
+        <v>10509</v>
+      </c>
+      <c r="I69" s="2">
+        <v>10511</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>10513</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="2">
+        <v>20909</v>
+      </c>
+      <c r="I70" s="2">
+        <v>20911</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>20913</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="2">
+        <v>20109</v>
+      </c>
+      <c r="I71" s="2">
+        <v>20111</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>20113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="2">
+        <v>21009</v>
+      </c>
+      <c r="I72" s="2">
+        <v>21011</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>21013</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="2">
+        <v>10609</v>
+      </c>
+      <c r="I73" s="2">
+        <v>10611</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>10613</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="2">
+        <v>10309</v>
+      </c>
+      <c r="I74" s="2">
+        <v>10311</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>10313</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="2">
+        <v>20509</v>
+      </c>
+      <c r="I75" s="2">
+        <v>20511</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>20513</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="2">
+        <v>20609</v>
+      </c>
+      <c r="I76" s="2">
+        <v>20611</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>20613</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="2">
+        <v>20209</v>
+      </c>
+      <c r="I77" s="2">
+        <v>20211</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>20213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="2">
+        <v>10509</v>
+      </c>
+      <c r="I78" s="2">
+        <v>10511</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>10513</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="2">
+        <v>20909</v>
+      </c>
+      <c r="I79" s="2">
+        <v>20911</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>20913</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26">
+      <c r="A89" t="s">
+        <v>41</v>
+      </c>
+      <c r="I89" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26">
+      <c r="A91" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="I91" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="Q91" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R91" s="9"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="9"/>
+    </row>
+    <row r="92" spans="1:26">
+      <c r="A92" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B92" s="8">
+        <v>0</v>
+      </c>
+      <c r="C92" s="8">
+        <v>2</v>
+      </c>
+      <c r="D92" s="8">
+        <v>4</v>
+      </c>
+      <c r="E92" s="8">
+        <v>6</v>
+      </c>
+      <c r="F92" s="8">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J92" s="8">
+        <v>0</v>
+      </c>
+      <c r="K92" s="8">
+        <v>4</v>
+      </c>
+      <c r="L92" s="8">
+        <v>6</v>
+      </c>
+      <c r="M92" s="8">
+        <v>10</v>
+      </c>
+      <c r="N92" s="8">
+        <v>15</v>
+      </c>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R92" s="8">
+        <v>0</v>
+      </c>
+      <c r="S92" s="8">
+        <v>6</v>
+      </c>
+      <c r="T92" s="8">
+        <v>10</v>
+      </c>
+      <c r="U92" s="8">
+        <v>15</v>
+      </c>
+      <c r="V92" s="8">
+        <v>30</v>
+      </c>
+      <c r="W92" s="2"/>
+      <c r="X92" s="2"/>
+      <c r="Y92" s="2"/>
+      <c r="Z92" s="2"/>
+    </row>
+    <row r="93" spans="1:26">
+      <c r="A93" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B93" s="8">
+        <v>110211</v>
+      </c>
+      <c r="C93" s="8">
+        <v>110212</v>
+      </c>
+      <c r="D93" s="8">
+        <v>110213</v>
+      </c>
+      <c r="E93" s="8">
+        <v>110214</v>
+      </c>
+      <c r="F93" s="8">
+        <v>110215</v>
+      </c>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J93" s="8">
+        <v>110221</v>
+      </c>
+      <c r="K93" s="8">
+        <v>110222</v>
+      </c>
+      <c r="L93" s="8">
+        <v>110223</v>
+      </c>
+      <c r="M93" s="8">
+        <v>110224</v>
+      </c>
+      <c r="N93" s="8">
+        <v>110225</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R93" s="8">
+        <v>110231</v>
+      </c>
+      <c r="S93" s="8">
+        <v>110232</v>
+      </c>
+      <c r="T93" s="8">
+        <v>110233</v>
+      </c>
+      <c r="U93" s="8">
+        <v>110234</v>
+      </c>
+      <c r="V93" s="8">
+        <v>110235</v>
+      </c>
+      <c r="W93" s="2"/>
+      <c r="X93" s="2"/>
+      <c r="Y93" s="2"/>
+    </row>
+    <row r="95" spans="1:26">
+      <c r="A95" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95">
+        <v>39004</v>
+      </c>
+      <c r="I95" t="s">
+        <v>33</v>
+      </c>
+      <c r="J95">
+        <v>39005</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>33</v>
+      </c>
+      <c r="R95">
+        <v>39006</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26">
       <c r="A96" t="s">
         <v>34</v>
       </c>

--- a/Tournament/TournamentConfig.xlsx
+++ b/Tournament/TournamentConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/Tournament/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706C8C12-05ED-B447-B41E-3D2DEFCB0347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9C87C4-979B-8943-8434-ECAFA20C5A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18780" xr2:uid="{DEC025FB-2086-0E49-B22B-82442D07B781}"/>
+    <workbookView xWindow="-1180" yWindow="-20280" windowWidth="36580" windowHeight="19260" activeTab="1" xr2:uid="{DEC025FB-2086-0E49-B22B-82442D07B781}"/>
   </bookViews>
   <sheets>
     <sheet name="Inlets 18 holes" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Cyber 9" sheetId="4" r:id="rId3"/>
     <sheet name="Cyber 18" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -604,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F682C8-7EBC-4547-9087-744D49492B1E}">
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="S38" sqref="S38:S45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -717,7 +717,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="5">
-        <v>44429.625</v>
+        <v>44428.625</v>
       </c>
       <c r="D5" s="5"/>
     </row>
@@ -726,7 +726,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="5">
-        <v>44430.625</v>
+        <v>44431.625</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -1205,7 +1205,7 @@
         <v>-29</v>
       </c>
       <c r="S39">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="T39">
         <v>1</v>
@@ -1252,7 +1252,7 @@
         <v>-33</v>
       </c>
       <c r="S40">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="T40">
         <v>1</v>
@@ -1299,7 +1299,7 @@
         <v>-36</v>
       </c>
       <c r="S41">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="T41">
         <v>1</v>
@@ -1346,7 +1346,7 @@
         <v>-39</v>
       </c>
       <c r="S42">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="T42">
         <v>1</v>
@@ -1393,7 +1393,7 @@
         <v>-42</v>
       </c>
       <c r="S43">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="T43">
         <v>1</v>
@@ -1440,7 +1440,7 @@
         <v>-45</v>
       </c>
       <c r="S44">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="T44">
         <v>1</v>
@@ -1487,7 +1487,7 @@
         <v>-48</v>
       </c>
       <c r="S45">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="T45">
         <v>1</v>
@@ -1909,8 +1909,12 @@
       <c r="D92" s="8">
         <v>4</v>
       </c>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
+      <c r="E92" s="8">
+        <v>6</v>
+      </c>
+      <c r="F92" s="8">
+        <v>10</v>
+      </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="8" t="s">
@@ -1925,8 +1929,12 @@
       <c r="L92" s="8">
         <v>6</v>
       </c>
-      <c r="M92" s="8"/>
-      <c r="N92" s="8"/>
+      <c r="M92" s="8">
+        <v>10</v>
+      </c>
+      <c r="N92" s="8">
+        <v>15</v>
+      </c>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
       <c r="Q92" s="8" t="s">
@@ -1941,8 +1949,12 @@
       <c r="T92" s="8">
         <v>10</v>
       </c>
-      <c r="U92" s="8"/>
-      <c r="V92" s="8"/>
+      <c r="U92" s="8">
+        <v>15</v>
+      </c>
+      <c r="V92" s="8">
+        <v>30</v>
+      </c>
       <c r="W92" s="2"/>
       <c r="X92" s="2"/>
       <c r="Y92" s="2"/>
@@ -1961,8 +1973,12 @@
       <c r="D93" s="8">
         <v>110213</v>
       </c>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
+      <c r="E93" s="8">
+        <v>110214</v>
+      </c>
+      <c r="F93" s="8">
+        <v>110215</v>
+      </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="8" t="s">
@@ -1977,8 +1993,12 @@
       <c r="L93" s="8">
         <v>110223</v>
       </c>
-      <c r="M93" s="8"/>
-      <c r="N93" s="8"/>
+      <c r="M93" s="8">
+        <v>110224</v>
+      </c>
+      <c r="N93" s="8">
+        <v>110225</v>
+      </c>
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
       <c r="Q93" s="8" t="s">
@@ -1993,8 +2013,12 @@
       <c r="T93" s="8">
         <v>110233</v>
       </c>
-      <c r="U93" s="8"/>
-      <c r="V93" s="8"/>
+      <c r="U93" s="8">
+        <v>110234</v>
+      </c>
+      <c r="V93" s="8">
+        <v>110235</v>
+      </c>
       <c r="W93" s="2"/>
       <c r="X93" s="2"/>
       <c r="Y93" s="2"/>
@@ -2101,12 +2125,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="Q91:T91"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q35:U35"/>
-    <mergeCell ref="S36:U36"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C36:E36"/>
@@ -2114,6 +2132,12 @@
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I35:M35"/>
     <mergeCell ref="K36:M36"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="Q91:T91"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q35:U35"/>
+    <mergeCell ref="S36:U36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2123,12 +2147,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECCC400-8F91-7643-8E2C-86B622BB3F84}">
   <dimension ref="A1:Y99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="K67" sqref="K67:K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2234,22 +2259,16 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>1629702000</v>
-      </c>
-      <c r="D5" s="5">
-        <v>44431.625</v>
+      <c r="B5" s="5">
+        <v>44431.631944444445</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>1629788400</v>
-      </c>
-      <c r="D6" s="5">
-        <v>44432.625</v>
+      <c r="B6" s="5">
+        <v>44433.625</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -3377,8 +3396,12 @@
       <c r="D92" s="8">
         <v>4</v>
       </c>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
+      <c r="E92" s="8">
+        <v>6</v>
+      </c>
+      <c r="F92" s="8">
+        <v>10</v>
+      </c>
       <c r="I92" t="s">
         <v>31</v>
       </c>
@@ -3391,8 +3414,12 @@
       <c r="L92" s="8">
         <v>6</v>
       </c>
-      <c r="M92" s="8"/>
-      <c r="N92" s="8"/>
+      <c r="M92" s="8">
+        <v>10</v>
+      </c>
+      <c r="N92" s="8">
+        <v>15</v>
+      </c>
       <c r="Q92" t="s">
         <v>31</v>
       </c>
@@ -3405,8 +3432,12 @@
       <c r="T92" s="8">
         <v>10</v>
       </c>
-      <c r="U92" s="8"/>
-      <c r="V92" s="8"/>
+      <c r="U92" s="8">
+        <v>15</v>
+      </c>
+      <c r="V92" s="8">
+        <v>30</v>
+      </c>
     </row>
     <row r="93" spans="1:22">
       <c r="A93" t="s">
@@ -3421,8 +3452,12 @@
       <c r="D93" s="8">
         <v>110213</v>
       </c>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
+      <c r="E93" s="8">
+        <v>110214</v>
+      </c>
+      <c r="F93" s="8">
+        <v>110215</v>
+      </c>
       <c r="I93" t="s">
         <v>32</v>
       </c>
@@ -3435,8 +3470,12 @@
       <c r="L93" s="8">
         <v>110223</v>
       </c>
-      <c r="M93" s="8"/>
-      <c r="N93" s="8"/>
+      <c r="M93" s="8">
+        <v>110224</v>
+      </c>
+      <c r="N93" s="8">
+        <v>110225</v>
+      </c>
       <c r="Q93" t="s">
         <v>32</v>
       </c>
@@ -3449,8 +3488,12 @@
       <c r="T93" s="8">
         <v>110233</v>
       </c>
-      <c r="U93" s="8"/>
-      <c r="V93" s="8"/>
+      <c r="U93" s="8">
+        <v>110234</v>
+      </c>
+      <c r="V93" s="8">
+        <v>110235</v>
+      </c>
     </row>
     <row r="95" spans="1:22">
       <c r="A95" t="s">
@@ -3554,6 +3597,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="Q91:T91"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="I21:J21"/>
@@ -3561,12 +3610,6 @@
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="I35:M35"/>
     <mergeCell ref="Q35:U35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="Q91:T91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3576,7 +3619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394F7A97-C7E4-274A-9AA3-74BEE3FA552D}">
   <dimension ref="A1:Y99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="I21" sqref="I21:J21"/>
     </sheetView>
   </sheetViews>
@@ -5031,6 +5074,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="Q91:T91"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="I21:J21"/>
@@ -5038,12 +5087,6 @@
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="I35:M35"/>
     <mergeCell ref="Q35:U35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="Q91:T91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5053,8 +5096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC89074-7971-B845-BD3A-3412DA2CD7D4}">
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -6577,6 +6620,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="Q91:T91"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="I21:J21"/>
@@ -6584,12 +6633,6 @@
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="I35:M35"/>
     <mergeCell ref="Q35:U35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="Q91:T91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tournament/TournamentConfig.xlsx
+++ b/Tournament/TournamentConfig.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/Tournament/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9C87C4-979B-8943-8434-ECAFA20C5A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0634A88-E2D2-A94C-B440-A3E8F5257BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1180" yWindow="-20280" windowWidth="36580" windowHeight="19260" activeTab="1" xr2:uid="{DEC025FB-2086-0E49-B22B-82442D07B781}"/>
+    <workbookView xWindow="-1660" yWindow="-20300" windowWidth="34720" windowHeight="19220" activeTab="4" xr2:uid="{DEC025FB-2086-0E49-B22B-82442D07B781}"/>
   </bookViews>
   <sheets>
     <sheet name="Inlets 18 holes" sheetId="1" r:id="rId1"/>
     <sheet name="Inlets 9 holes" sheetId="2" r:id="rId2"/>
     <sheet name="Cyber 9" sheetId="4" r:id="rId3"/>
     <sheet name="Cyber 18" sheetId="3" r:id="rId4"/>
+    <sheet name="Labor 18" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -196,6 +197,9 @@
   </si>
   <si>
     <t>Bg_event_zs_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labor </t>
   </si>
 </sst>
 </file>
@@ -2125,6 +2129,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="Q91:T91"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q35:U35"/>
+    <mergeCell ref="S36:U36"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C36:E36"/>
@@ -2132,12 +2142,6 @@
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I35:M35"/>
     <mergeCell ref="K36:M36"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="Q91:T91"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q35:U35"/>
-    <mergeCell ref="S36:U36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2147,8 +2151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECCC400-8F91-7643-8E2C-86B622BB3F84}">
   <dimension ref="A1:Y99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="K67" sqref="K67:K68"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -3597,12 +3601,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="Q91:T91"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="I21:J21"/>
@@ -3610,6 +3608,12 @@
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="I35:M35"/>
     <mergeCell ref="Q35:U35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="Q91:T91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3619,12 +3623,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394F7A97-C7E4-274A-9AA3-74BEE3FA552D}">
   <dimension ref="A1:Y99"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21:J21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3730,22 +3735,16 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>1629874800</v>
-      </c>
-      <c r="D5" s="5">
-        <v>44433.645833333336</v>
+      <c r="B5" s="5">
+        <v>44433.631944444445</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>1629961200</v>
-      </c>
-      <c r="D6" s="5">
-        <v>44434.645833333336</v>
+      <c r="B6" s="5">
+        <v>44435.625</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -3861,19 +3860,19 @@
         <v>12</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="s">
         <v>12</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="s">
         <v>12</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -4715,7 +4714,7 @@
         <v>10611</v>
       </c>
       <c r="Q64" s="2">
-        <v>10613</v>
+        <v>10900</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -4921,55 +4920,55 @@
         <v>32</v>
       </c>
       <c r="B93" s="8">
-        <v>110211</v>
+        <v>110241</v>
       </c>
       <c r="C93" s="8">
-        <v>110212</v>
+        <v>110242</v>
       </c>
       <c r="D93" s="8">
-        <v>110213</v>
+        <v>110243</v>
       </c>
       <c r="E93" s="8">
-        <v>110214</v>
+        <v>110244</v>
       </c>
       <c r="F93" s="8">
-        <v>110215</v>
+        <v>110245</v>
       </c>
       <c r="I93" t="s">
         <v>32</v>
       </c>
       <c r="J93" s="8">
-        <v>110221</v>
+        <v>110251</v>
       </c>
       <c r="K93" s="8">
-        <v>110222</v>
+        <v>110252</v>
       </c>
       <c r="L93" s="8">
-        <v>110223</v>
+        <v>110253</v>
       </c>
       <c r="M93" s="8">
-        <v>110224</v>
+        <v>110254</v>
       </c>
       <c r="N93" s="8">
-        <v>110225</v>
+        <v>110255</v>
       </c>
       <c r="Q93" t="s">
         <v>32</v>
       </c>
       <c r="R93" s="8">
-        <v>110231</v>
+        <v>110261</v>
       </c>
       <c r="S93" s="8">
-        <v>110232</v>
+        <v>110262</v>
       </c>
       <c r="T93" s="8">
-        <v>110233</v>
+        <v>110263</v>
       </c>
       <c r="U93" s="8">
-        <v>110234</v>
+        <v>110264</v>
       </c>
       <c r="V93" s="8">
-        <v>110235</v>
+        <v>110265</v>
       </c>
     </row>
     <row r="95" spans="1:22">
@@ -5074,12 +5073,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="Q91:T91"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="I21:J21"/>
@@ -5087,6 +5080,12 @@
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="I35:M35"/>
     <mergeCell ref="Q35:U35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="Q91:T91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5096,12 +5095,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC89074-7971-B845-BD3A-3412DA2CD7D4}">
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5207,22 +5207,16 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>1630047600</v>
-      </c>
-      <c r="D5" s="5">
-        <v>44435.645833333336</v>
+      <c r="B5" s="5">
+        <v>44435.631944444445</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>1630134000</v>
-      </c>
-      <c r="D6" s="5">
-        <v>44436.645833333336</v>
+      <c r="B6" s="5">
+        <v>44438.625</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -5700,7 +5694,7 @@
         <v>-29</v>
       </c>
       <c r="S39">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="T39">
         <v>1</v>
@@ -5725,6 +5719,10 @@
       <c r="E40">
         <v>6</v>
       </c>
+      <c r="G40">
+        <f>-27*2</f>
+        <v>-54</v>
+      </c>
       <c r="I40">
         <v>-23</v>
       </c>
@@ -5747,7 +5745,7 @@
         <v>-33</v>
       </c>
       <c r="S40">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="T40">
         <v>1</v>
@@ -5794,7 +5792,7 @@
         <v>-36</v>
       </c>
       <c r="S41">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="T41">
         <v>1</v>
@@ -5841,7 +5839,7 @@
         <v>-39</v>
       </c>
       <c r="S42">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="T42">
         <v>1</v>
@@ -5888,7 +5886,7 @@
         <v>-42</v>
       </c>
       <c r="S43">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="T43">
         <v>1</v>
@@ -5935,7 +5933,7 @@
         <v>-45</v>
       </c>
       <c r="S44">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="T44">
         <v>1</v>
@@ -5982,7 +5980,7 @@
         <v>-48</v>
       </c>
       <c r="S45">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="T45">
         <v>1</v>
@@ -6192,7 +6190,7 @@
         <v>10611</v>
       </c>
       <c r="Q64" s="2">
-        <v>10613</v>
+        <v>10900</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -6291,7 +6289,7 @@
         <v>10611</v>
       </c>
       <c r="Q73" s="2">
-        <v>10613</v>
+        <v>10700</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -6460,59 +6458,55 @@
         <v>32</v>
       </c>
       <c r="B93" s="8">
-        <v>110211</v>
+        <v>110241</v>
       </c>
       <c r="C93" s="8">
-        <v>110212</v>
+        <v>110242</v>
       </c>
       <c r="D93" s="8">
-        <v>110213</v>
+        <v>110243</v>
       </c>
       <c r="E93" s="8">
-        <v>110214</v>
+        <v>110244</v>
       </c>
       <c r="F93" s="8">
-        <v>110215</v>
-      </c>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="8" t="s">
+        <v>110245</v>
+      </c>
+      <c r="I93" t="s">
         <v>32</v>
       </c>
       <c r="J93" s="8">
-        <v>110221</v>
+        <v>110251</v>
       </c>
       <c r="K93" s="8">
-        <v>110222</v>
+        <v>110252</v>
       </c>
       <c r="L93" s="8">
-        <v>110223</v>
+        <v>110253</v>
       </c>
       <c r="M93" s="8">
-        <v>110224</v>
+        <v>110254</v>
       </c>
       <c r="N93" s="8">
-        <v>110225</v>
-      </c>
-      <c r="O93" s="2"/>
-      <c r="P93" s="2"/>
-      <c r="Q93" s="8" t="s">
+        <v>110255</v>
+      </c>
+      <c r="Q93" t="s">
         <v>32</v>
       </c>
       <c r="R93" s="8">
-        <v>110231</v>
+        <v>110261</v>
       </c>
       <c r="S93" s="8">
-        <v>110232</v>
+        <v>110262</v>
       </c>
       <c r="T93" s="8">
-        <v>110233</v>
+        <v>110263</v>
       </c>
       <c r="U93" s="8">
-        <v>110234</v>
+        <v>110264</v>
       </c>
       <c r="V93" s="8">
-        <v>110235</v>
+        <v>110265</v>
       </c>
       <c r="W93" s="2"/>
       <c r="X93" s="2"/>
@@ -6620,12 +6614,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="Q91:T91"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="I21:J21"/>
@@ -6633,6 +6621,1555 @@
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="I35:M35"/>
     <mergeCell ref="Q35:U35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="Q91:T91"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420BCA67-C8DC-BA47-9ACA-8E1655536215}">
+  <dimension ref="A1:Z99"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>11</v>
+      </c>
+      <c r="L1">
+        <v>12</v>
+      </c>
+      <c r="M1">
+        <v>13</v>
+      </c>
+      <c r="N1">
+        <v>14</v>
+      </c>
+      <c r="O1">
+        <v>15</v>
+      </c>
+      <c r="P1">
+        <v>16</v>
+      </c>
+      <c r="Q1">
+        <v>17</v>
+      </c>
+      <c r="R1">
+        <v>18</v>
+      </c>
+      <c r="S1">
+        <v>19</v>
+      </c>
+      <c r="T1">
+        <v>20</v>
+      </c>
+      <c r="U1">
+        <v>21</v>
+      </c>
+      <c r="V1">
+        <v>22</v>
+      </c>
+      <c r="W1">
+        <v>23</v>
+      </c>
+      <c r="X1">
+        <v>24</v>
+      </c>
+      <c r="Y1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>44435.631944444445</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>44438.625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="1" customFormat="1">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="1" customFormat="1">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4">
+        <v>2</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3">
+        <v>3</v>
+      </c>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18">
+        <v>18</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>11</v>
+      </c>
+      <c r="R18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="I21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="Q21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R21" s="9"/>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>1000</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22">
+        <v>5000</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>14</v>
+      </c>
+      <c r="R22">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>15</v>
+      </c>
+      <c r="R23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="20" customHeight="1">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>16</v>
+      </c>
+      <c r="U25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>99</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28">
+        <v>99</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>17</v>
+      </c>
+      <c r="R28">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>18</v>
+      </c>
+      <c r="U30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="I33" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33">
+        <v>10</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>40</v>
+      </c>
+      <c r="R33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="I35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="Q35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="C36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="K36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="S36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>24</v>
+      </c>
+      <c r="R37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S37" t="s">
+        <v>0</v>
+      </c>
+      <c r="T37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38">
+        <v>-8</v>
+      </c>
+      <c r="B38">
+        <v>10086</v>
+      </c>
+      <c r="C38">
+        <v>431</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>6</v>
+      </c>
+      <c r="I38">
+        <v>-17</v>
+      </c>
+      <c r="J38">
+        <v>10086</v>
+      </c>
+      <c r="K38">
+        <v>441</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>6</v>
+      </c>
+      <c r="Q38">
+        <v>-28</v>
+      </c>
+      <c r="R38">
+        <v>10086</v>
+      </c>
+      <c r="S38">
+        <v>451</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39">
+        <v>-13</v>
+      </c>
+      <c r="B39">
+        <v>-9</v>
+      </c>
+      <c r="C39">
+        <v>432</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="I39">
+        <v>-20</v>
+      </c>
+      <c r="J39">
+        <v>-18</v>
+      </c>
+      <c r="K39">
+        <v>442</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>6</v>
+      </c>
+      <c r="Q39">
+        <v>-32</v>
+      </c>
+      <c r="R39">
+        <v>-29</v>
+      </c>
+      <c r="S39">
+        <v>452</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40">
+        <v>-17</v>
+      </c>
+      <c r="B40">
+        <v>-14</v>
+      </c>
+      <c r="C40">
+        <v>433</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="G40">
+        <f>-27*2</f>
+        <v>-54</v>
+      </c>
+      <c r="I40">
+        <v>-23</v>
+      </c>
+      <c r="J40">
+        <v>-21</v>
+      </c>
+      <c r="K40">
+        <v>443</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>6</v>
+      </c>
+      <c r="Q40">
+        <v>-35</v>
+      </c>
+      <c r="R40">
+        <v>-33</v>
+      </c>
+      <c r="S40">
+        <v>453</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41">
+        <v>-20</v>
+      </c>
+      <c r="B41">
+        <v>-18</v>
+      </c>
+      <c r="C41">
+        <v>434</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>-26</v>
+      </c>
+      <c r="J41">
+        <v>-24</v>
+      </c>
+      <c r="K41">
+        <v>444</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>6</v>
+      </c>
+      <c r="Q41">
+        <v>-38</v>
+      </c>
+      <c r="R41">
+        <v>-36</v>
+      </c>
+      <c r="S41">
+        <v>454</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42">
+        <v>-23</v>
+      </c>
+      <c r="B42">
+        <v>-21</v>
+      </c>
+      <c r="C42">
+        <v>435</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="I42">
+        <v>-29</v>
+      </c>
+      <c r="J42">
+        <v>-27</v>
+      </c>
+      <c r="K42">
+        <v>445</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>6</v>
+      </c>
+      <c r="Q42">
+        <v>-41</v>
+      </c>
+      <c r="R42">
+        <v>-39</v>
+      </c>
+      <c r="S42">
+        <v>455</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43">
+        <v>-26</v>
+      </c>
+      <c r="B43">
+        <v>-24</v>
+      </c>
+      <c r="C43">
+        <v>436</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="I43">
+        <v>-32</v>
+      </c>
+      <c r="J43">
+        <v>-30</v>
+      </c>
+      <c r="K43">
+        <v>446</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>6</v>
+      </c>
+      <c r="Q43">
+        <v>-44</v>
+      </c>
+      <c r="R43">
+        <v>-42</v>
+      </c>
+      <c r="S43">
+        <v>456</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44">
+        <v>-29</v>
+      </c>
+      <c r="B44">
+        <v>-27</v>
+      </c>
+      <c r="C44">
+        <v>437</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="I44">
+        <v>-35</v>
+      </c>
+      <c r="J44">
+        <v>-33</v>
+      </c>
+      <c r="K44">
+        <v>447</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>6</v>
+      </c>
+      <c r="Q44">
+        <v>-47</v>
+      </c>
+      <c r="R44">
+        <v>-45</v>
+      </c>
+      <c r="S44">
+        <v>457</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45">
+        <v>-10086</v>
+      </c>
+      <c r="B45">
+        <v>-30</v>
+      </c>
+      <c r="C45">
+        <v>438</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+      <c r="I45">
+        <v>-10086</v>
+      </c>
+      <c r="J45">
+        <v>-36</v>
+      </c>
+      <c r="K45">
+        <v>448</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>6</v>
+      </c>
+      <c r="Q45">
+        <v>-10086</v>
+      </c>
+      <c r="R45">
+        <v>-48</v>
+      </c>
+      <c r="S45">
+        <v>458</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>14</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>26</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53">
+        <v>120002</v>
+      </c>
+      <c r="I53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53">
+        <v>120002</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>27</v>
+      </c>
+      <c r="R53">
+        <v>120002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>15</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" t="s">
+        <v>39</v>
+      </c>
+      <c r="I56" t="s">
+        <v>28</v>
+      </c>
+      <c r="M56" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>28</v>
+      </c>
+      <c r="U56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="6">
+        <v>120021</v>
+      </c>
+      <c r="B57" s="6">
+        <v>120022</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="I57" s="6">
+        <v>120021</v>
+      </c>
+      <c r="J57" s="6">
+        <v>120022</v>
+      </c>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="Q57" s="6">
+        <v>120021</v>
+      </c>
+      <c r="R57" s="6">
+        <v>120022</v>
+      </c>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="I59" t="s">
+        <v>29</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>29</v>
+      </c>
+      <c r="R59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I61" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" s="2">
+        <v>20109</v>
+      </c>
+      <c r="I62" s="2">
+        <v>20111</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>20113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" s="2">
+        <v>21009</v>
+      </c>
+      <c r="I63" s="2">
+        <v>21011</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>21013</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="2">
+        <v>10609</v>
+      </c>
+      <c r="I64" s="2">
+        <v>10611</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="2">
+        <v>10309</v>
+      </c>
+      <c r="I65" s="2">
+        <v>10311</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>10313</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="2">
+        <v>20509</v>
+      </c>
+      <c r="I66" s="2">
+        <v>20511</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>20513</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="2">
+        <v>20609</v>
+      </c>
+      <c r="I67" s="2">
+        <v>20611</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>20613</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="2">
+        <v>20209</v>
+      </c>
+      <c r="I68" s="2">
+        <v>20211</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>20213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="2">
+        <v>10509</v>
+      </c>
+      <c r="I69" s="2">
+        <v>10511</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>10513</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="2">
+        <v>20909</v>
+      </c>
+      <c r="I70" s="2">
+        <v>20911</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>20913</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="2">
+        <v>20109</v>
+      </c>
+      <c r="I71" s="2">
+        <v>20111</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>20113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="2">
+        <v>21009</v>
+      </c>
+      <c r="I72" s="2">
+        <v>21011</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>21013</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="2">
+        <v>10609</v>
+      </c>
+      <c r="I73" s="2">
+        <v>10611</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>10700</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="2">
+        <v>10309</v>
+      </c>
+      <c r="I74" s="2">
+        <v>10311</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>10313</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="2">
+        <v>20509</v>
+      </c>
+      <c r="I75" s="2">
+        <v>20511</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>20513</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="2">
+        <v>20609</v>
+      </c>
+      <c r="I76" s="2">
+        <v>20611</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>20613</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="2">
+        <v>20209</v>
+      </c>
+      <c r="I77" s="2">
+        <v>20211</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>20213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="2">
+        <v>10509</v>
+      </c>
+      <c r="I78" s="2">
+        <v>10511</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>10513</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="2">
+        <v>20909</v>
+      </c>
+      <c r="I79" s="2">
+        <v>20911</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>20913</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26">
+      <c r="A89" t="s">
+        <v>41</v>
+      </c>
+      <c r="I89" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26">
+      <c r="A91" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="I91" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="Q91" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R91" s="9"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="9"/>
+    </row>
+    <row r="92" spans="1:26">
+      <c r="A92" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B92" s="8">
+        <v>0</v>
+      </c>
+      <c r="C92" s="8">
+        <v>2</v>
+      </c>
+      <c r="D92" s="8">
+        <v>4</v>
+      </c>
+      <c r="E92" s="8">
+        <v>6</v>
+      </c>
+      <c r="F92" s="8">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J92" s="8">
+        <v>0</v>
+      </c>
+      <c r="K92" s="8">
+        <v>4</v>
+      </c>
+      <c r="L92" s="8">
+        <v>6</v>
+      </c>
+      <c r="M92" s="8">
+        <v>10</v>
+      </c>
+      <c r="N92" s="8">
+        <v>15</v>
+      </c>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R92" s="8">
+        <v>0</v>
+      </c>
+      <c r="S92" s="8">
+        <v>6</v>
+      </c>
+      <c r="T92" s="8">
+        <v>10</v>
+      </c>
+      <c r="U92" s="8">
+        <v>15</v>
+      </c>
+      <c r="V92" s="8">
+        <v>30</v>
+      </c>
+      <c r="W92" s="2"/>
+      <c r="X92" s="2"/>
+      <c r="Y92" s="2"/>
+      <c r="Z92" s="2"/>
+    </row>
+    <row r="93" spans="1:26">
+      <c r="A93" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B93" s="8">
+        <v>110241</v>
+      </c>
+      <c r="C93" s="8">
+        <v>110242</v>
+      </c>
+      <c r="D93" s="8">
+        <v>110243</v>
+      </c>
+      <c r="E93" s="8">
+        <v>110244</v>
+      </c>
+      <c r="F93" s="8">
+        <v>110245</v>
+      </c>
+      <c r="I93" t="s">
+        <v>32</v>
+      </c>
+      <c r="J93" s="8">
+        <v>110251</v>
+      </c>
+      <c r="K93" s="8">
+        <v>110252</v>
+      </c>
+      <c r="L93" s="8">
+        <v>110253</v>
+      </c>
+      <c r="M93" s="8">
+        <v>110254</v>
+      </c>
+      <c r="N93" s="8">
+        <v>110255</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>32</v>
+      </c>
+      <c r="R93" s="8">
+        <v>110261</v>
+      </c>
+      <c r="S93" s="8">
+        <v>110262</v>
+      </c>
+      <c r="T93" s="8">
+        <v>110263</v>
+      </c>
+      <c r="U93" s="8">
+        <v>110264</v>
+      </c>
+      <c r="V93" s="8">
+        <v>110265</v>
+      </c>
+      <c r="W93" s="2"/>
+      <c r="X93" s="2"/>
+      <c r="Y93" s="2"/>
+    </row>
+    <row r="95" spans="1:26">
+      <c r="A95" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95">
+        <v>39004</v>
+      </c>
+      <c r="I95" t="s">
+        <v>33</v>
+      </c>
+      <c r="J95">
+        <v>39005</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>33</v>
+      </c>
+      <c r="R95">
+        <v>39006</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26">
+      <c r="A96" t="s">
+        <v>34</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="I96" t="s">
+        <v>34</v>
+      </c>
+      <c r="J96">
+        <v>2</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>34</v>
+      </c>
+      <c r="R96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="A97" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="I97" t="s">
+        <v>22</v>
+      </c>
+      <c r="J97">
+        <v>2</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>22</v>
+      </c>
+      <c r="R97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="A98" t="s">
+        <v>35</v>
+      </c>
+      <c r="B98">
+        <v>9</v>
+      </c>
+      <c r="I98" t="s">
+        <v>35</v>
+      </c>
+      <c r="J98">
+        <v>12</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>35</v>
+      </c>
+      <c r="R98">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="A99" t="s">
+        <v>36</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+      <c r="I99" t="s">
+        <v>36</v>
+      </c>
+      <c r="J99">
+        <v>6</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>36</v>
+      </c>
+      <c r="R99">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="Q35:U35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="Q91:T91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tournament/TournamentConfig.xlsx
+++ b/Tournament/TournamentConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/Tournament/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0634A88-E2D2-A94C-B440-A3E8F5257BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B082F43B-0A82-7A43-B9A0-99472F0CF5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1660" yWindow="-20300" windowWidth="34720" windowHeight="19220" activeTab="4" xr2:uid="{DEC025FB-2086-0E49-B22B-82442D07B781}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -200,6 +200,18 @@
   </si>
   <si>
     <t xml:space="preserve">Labor </t>
+  </si>
+  <si>
+    <t>Bg_event_zs_09</t>
+  </si>
+  <si>
+    <t>Pnl_event_zs_jl_09</t>
+  </si>
+  <si>
+    <t>Bg_event_zs_rk_10</t>
+  </si>
+  <si>
+    <t>Icon_zs_bt_10</t>
   </si>
 </sst>
 </file>
@@ -2129,12 +2141,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="Q91:T91"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q35:U35"/>
-    <mergeCell ref="S36:U36"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C36:E36"/>
@@ -2142,6 +2148,12 @@
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I35:M35"/>
     <mergeCell ref="K36:M36"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="Q91:T91"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q35:U35"/>
+    <mergeCell ref="S36:U36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3601,6 +3613,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="Q91:T91"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="I21:J21"/>
@@ -3608,12 +3626,6 @@
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="I35:M35"/>
     <mergeCell ref="Q35:U35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="Q91:T91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5073,6 +5085,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="Q91:T91"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="I21:J21"/>
@@ -5080,12 +5098,6 @@
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="I35:M35"/>
     <mergeCell ref="Q35:U35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="Q91:T91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6614,6 +6626,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="Q91:T91"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="I21:J21"/>
@@ -6621,12 +6639,6 @@
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="I35:M35"/>
     <mergeCell ref="Q35:U35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="Q91:T91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6636,8 +6648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420BCA67-C8DC-BA47-9ACA-8E1655536215}">
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -6786,7 +6798,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -6794,7 +6806,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -6802,7 +6814,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -6810,7 +6822,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="1" customFormat="1">
@@ -8157,6 +8169,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="Q91:T91"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="I21:J21"/>
@@ -8164,12 +8182,6 @@
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="I35:M35"/>
     <mergeCell ref="Q35:U35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="Q91:T91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tournament/TournamentConfig.xlsx
+++ b/Tournament/TournamentConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/Tournament/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B082F43B-0A82-7A43-B9A0-99472F0CF5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B3CA37-FF77-EE47-A686-9E3490A8D08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1660" yWindow="-20300" windowWidth="34720" windowHeight="19220" activeTab="4" xr2:uid="{DEC025FB-2086-0E49-B22B-82442D07B781}"/>
+    <workbookView xWindow="11980" yWindow="-21100" windowWidth="34720" windowHeight="19220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inlets 18 holes" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Cyber 9" sheetId="4" r:id="rId3"/>
     <sheet name="Cyber 18" sheetId="3" r:id="rId4"/>
     <sheet name="Labor 18" sheetId="5" r:id="rId5"/>
+    <sheet name="Labor 9" sheetId="8" r:id="rId6"/>
+    <sheet name="Coast to Coast 9" sheetId="9" r:id="rId7"/>
+    <sheet name="S14new" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="78">
   <si>
     <t>id</t>
   </si>
@@ -202,9 +205,6 @@
     <t xml:space="preserve">Labor </t>
   </si>
   <si>
-    <t>Bg_event_zs_09</t>
-  </si>
-  <si>
     <t>Pnl_event_zs_jl_09</t>
   </si>
   <si>
@@ -213,12 +213,261 @@
   <si>
     <t>Icon_zs_bt_10</t>
   </si>
+  <si>
+    <t>Bg_event_zs_09</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">// </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不用管</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>// 9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="苹方-简"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> or 18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>洞</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">// </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>免费的重打机会，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="苹方-简"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="苹方-简"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="苹方-简"/>
+        <family val="2"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>洞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="苹方-简"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">// </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>入场费</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大重打次数</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">// </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开启Stage</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prize</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Labor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bg_event_zs_09</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pnl_event_zs_jl_09</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bg_event_zs_rk_10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_zs_bt_10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bg_event_zs_01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pnl_event_zs_jl_01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bg_event_zs_rk_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_zs_bt_01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coast to Coast</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S14new</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t>Signup_offer_list</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -237,8 +486,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,8 +525,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -287,11 +579,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -304,6 +673,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,14 +1074,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F682C8-7EBC-4547-9087-744D49492B1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="S38" sqref="S38:S45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="19"/>
   <cols>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
@@ -2141,6 +2598,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="Q91:T91"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q35:U35"/>
+    <mergeCell ref="S36:U36"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C36:E36"/>
@@ -2148,26 +2611,21 @@
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I35:M35"/>
     <mergeCell ref="K36:M36"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="Q91:T91"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q35:U35"/>
-    <mergeCell ref="S36:U36"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECCC400-8F91-7643-8E2C-86B622BB3F84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="H10" sqref="H10:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="19"/>
   <cols>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
@@ -3613,12 +4071,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="Q91:T91"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="I21:J21"/>
@@ -3626,20 +4078,27 @@
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="I35:M35"/>
     <mergeCell ref="Q35:U35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="Q91:T91"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394F7A97-C7E4-274A-9AA3-74BEE3FA552D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y99"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="19"/>
   <cols>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
@@ -5085,12 +5544,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="Q91:T91"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="I21:J21"/>
@@ -5098,20 +5551,27 @@
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="I35:M35"/>
     <mergeCell ref="Q35:U35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="Q91:T91"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC89074-7971-B845-BD3A-3412DA2CD7D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+      <selection activeCell="N79" sqref="N79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="19"/>
   <cols>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
@@ -6626,12 +7086,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="Q91:T91"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="I21:J21"/>
@@ -6639,20 +7093,27 @@
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="I35:M35"/>
     <mergeCell ref="Q35:U35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="Q91:T91"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420BCA67-C8DC-BA47-9ACA-8E1655536215}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:G12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="19"/>
   <cols>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
@@ -6762,7 +7223,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="5">
-        <v>44435.631944444445</v>
+        <v>44442.625</v>
       </c>
       <c r="C5" s="5"/>
     </row>
@@ -6771,7 +7232,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="5">
-        <v>44438.625</v>
+        <v>44445.625</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -6781,6 +7242,9 @@
       <c r="B7">
         <v>4</v>
       </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:25" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
@@ -6798,7 +7262,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -6806,7 +7270,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -6814,7 +7278,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -6822,7 +7286,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="1" customFormat="1">
@@ -6869,6 +7333,9 @@
       <c r="B18">
         <v>18</v>
       </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
       <c r="I18" t="s">
         <v>11</v>
       </c>
@@ -6889,6 +7356,9 @@
       <c r="B19">
         <v>2</v>
       </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
       <c r="I19" t="s">
         <v>12</v>
       </c>
@@ -6922,6 +7392,9 @@
       </c>
       <c r="B22">
         <v>1000</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
       </c>
       <c r="I22" t="s">
         <v>14</v>
@@ -7000,6 +7473,9 @@
       <c r="B28">
         <v>99</v>
       </c>
+      <c r="D28" t="s">
+        <v>62</v>
+      </c>
       <c r="I28" t="s">
         <v>17</v>
       </c>
@@ -7064,6 +7540,9 @@
       <c r="B33">
         <v>7</v>
       </c>
+      <c r="D33" t="s">
+        <v>63</v>
+      </c>
       <c r="I33" t="s">
         <v>40</v>
       </c>
@@ -7079,7 +7558,7 @@
     </row>
     <row r="35" spans="1:21">
       <c r="A35" s="9" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -7274,10 +7753,6 @@
       <c r="E40">
         <v>6</v>
       </c>
-      <c r="G40">
-        <f>-27*2</f>
-        <v>-54</v>
-      </c>
       <c r="I40">
         <v>-23</v>
       </c>
@@ -7717,200 +8192,200 @@
     </row>
     <row r="62" spans="1:21">
       <c r="A62" s="2">
-        <v>20109</v>
+        <v>7309</v>
       </c>
       <c r="I62" s="2">
-        <v>20111</v>
+        <v>7311</v>
       </c>
       <c r="Q62" s="2">
-        <v>20113</v>
+        <v>7313</v>
       </c>
     </row>
     <row r="63" spans="1:21">
       <c r="A63" s="2">
-        <v>21009</v>
+        <v>5509</v>
       </c>
       <c r="I63" s="2">
-        <v>21011</v>
+        <v>5511</v>
       </c>
       <c r="Q63" s="2">
-        <v>21013</v>
+        <v>5513</v>
       </c>
     </row>
     <row r="64" spans="1:21">
       <c r="A64" s="2">
-        <v>10609</v>
+        <v>6009</v>
       </c>
       <c r="I64" s="2">
-        <v>10611</v>
+        <v>6011</v>
       </c>
       <c r="Q64" s="2">
-        <v>10900</v>
+        <v>6013</v>
       </c>
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="2">
-        <v>10309</v>
+        <v>6209</v>
       </c>
       <c r="I65" s="2">
-        <v>10311</v>
+        <v>6211</v>
       </c>
       <c r="Q65" s="2">
-        <v>10313</v>
+        <v>6213</v>
       </c>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="2">
-        <v>20509</v>
+        <v>105409</v>
       </c>
       <c r="I66" s="2">
-        <v>20511</v>
+        <v>105411</v>
       </c>
       <c r="Q66" s="2">
-        <v>20513</v>
+        <v>105413</v>
       </c>
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="2">
-        <v>20609</v>
+        <v>5608</v>
       </c>
       <c r="I67" s="2">
-        <v>20611</v>
+        <v>5610</v>
       </c>
       <c r="Q67" s="2">
-        <v>20613</v>
+        <v>5612</v>
       </c>
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="2">
-        <v>20209</v>
+        <v>5709</v>
       </c>
       <c r="I68" s="2">
-        <v>20211</v>
+        <v>5711</v>
       </c>
       <c r="Q68" s="2">
-        <v>20213</v>
+        <v>5713</v>
       </c>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="2">
-        <v>10509</v>
+        <v>5309</v>
       </c>
       <c r="I69" s="2">
-        <v>10511</v>
+        <v>5311</v>
       </c>
       <c r="Q69" s="2">
-        <v>10513</v>
+        <v>5313</v>
       </c>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="2">
-        <v>20909</v>
+        <v>5908</v>
       </c>
       <c r="I70" s="2">
-        <v>20911</v>
+        <v>5910</v>
       </c>
       <c r="Q70" s="2">
-        <v>20913</v>
+        <v>5912</v>
       </c>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="2">
-        <v>20109</v>
+        <v>7309</v>
       </c>
       <c r="I71" s="2">
-        <v>20111</v>
+        <v>7311</v>
       </c>
       <c r="Q71" s="2">
-        <v>20113</v>
+        <v>7313</v>
       </c>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="2">
-        <v>21009</v>
+        <v>5509</v>
       </c>
       <c r="I72" s="2">
-        <v>21011</v>
+        <v>5511</v>
       </c>
       <c r="Q72" s="2">
-        <v>21013</v>
+        <v>5513</v>
       </c>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="2">
-        <v>10609</v>
+        <v>6009</v>
       </c>
       <c r="I73" s="2">
-        <v>10611</v>
+        <v>6011</v>
       </c>
       <c r="Q73" s="2">
-        <v>10700</v>
+        <v>6013</v>
       </c>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="2">
-        <v>10309</v>
+        <v>6209</v>
       </c>
       <c r="I74" s="2">
-        <v>10311</v>
+        <v>6211</v>
       </c>
       <c r="Q74" s="2">
-        <v>10313</v>
+        <v>6213</v>
       </c>
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="2">
-        <v>20509</v>
+        <v>105409</v>
       </c>
       <c r="I75" s="2">
-        <v>20511</v>
+        <v>105411</v>
       </c>
       <c r="Q75" s="2">
-        <v>20513</v>
+        <v>105413</v>
       </c>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="2">
-        <v>20609</v>
+        <v>5608</v>
       </c>
       <c r="I76" s="2">
-        <v>20611</v>
+        <v>5610</v>
       </c>
       <c r="Q76" s="2">
-        <v>20613</v>
+        <v>5612</v>
       </c>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="2">
-        <v>20209</v>
+        <v>5709</v>
       </c>
       <c r="I77" s="2">
-        <v>20211</v>
+        <v>5711</v>
       </c>
       <c r="Q77" s="2">
-        <v>20213</v>
+        <v>5713</v>
       </c>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="2">
-        <v>10509</v>
+        <v>5309</v>
       </c>
       <c r="I78" s="2">
-        <v>10511</v>
+        <v>5311</v>
       </c>
       <c r="Q78" s="2">
-        <v>10513</v>
+        <v>5313</v>
       </c>
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="2">
-        <v>20909</v>
+        <v>5908</v>
       </c>
       <c r="I79" s="2">
-        <v>20911</v>
+        <v>5910</v>
       </c>
       <c r="Q79" s="2">
-        <v>20913</v>
+        <v>5912</v>
       </c>
     </row>
     <row r="89" spans="1:26">
@@ -8013,55 +8488,55 @@
         <v>32</v>
       </c>
       <c r="B93" s="8">
-        <v>110241</v>
+        <v>110271</v>
       </c>
       <c r="C93" s="8">
-        <v>110242</v>
+        <v>110272</v>
       </c>
       <c r="D93" s="8">
-        <v>110243</v>
+        <v>110273</v>
       </c>
       <c r="E93" s="8">
-        <v>110244</v>
+        <v>110274</v>
       </c>
       <c r="F93" s="8">
-        <v>110245</v>
+        <v>110275</v>
       </c>
       <c r="I93" t="s">
         <v>32</v>
       </c>
       <c r="J93" s="8">
-        <v>110251</v>
+        <v>110281</v>
       </c>
       <c r="K93" s="8">
-        <v>110252</v>
+        <v>110282</v>
       </c>
       <c r="L93" s="8">
-        <v>110253</v>
+        <v>110283</v>
       </c>
       <c r="M93" s="8">
-        <v>110254</v>
+        <v>110284</v>
       </c>
       <c r="N93" s="8">
-        <v>110255</v>
+        <v>110285</v>
       </c>
       <c r="Q93" t="s">
         <v>32</v>
       </c>
       <c r="R93" s="8">
-        <v>110261</v>
+        <v>110291</v>
       </c>
       <c r="S93" s="8">
-        <v>110262</v>
+        <v>110292</v>
       </c>
       <c r="T93" s="8">
-        <v>110263</v>
+        <v>110293</v>
       </c>
       <c r="U93" s="8">
-        <v>110264</v>
+        <v>110294</v>
       </c>
       <c r="V93" s="8">
-        <v>110265</v>
+        <v>110295</v>
       </c>
       <c r="W93" s="2"/>
       <c r="X93" s="2"/>
@@ -8072,22 +8547,2970 @@
         <v>33</v>
       </c>
       <c r="B95">
-        <v>39004</v>
+        <v>39101</v>
       </c>
       <c r="I95" t="s">
         <v>33</v>
       </c>
       <c r="J95">
-        <v>39005</v>
+        <v>39102</v>
       </c>
       <c r="Q95" t="s">
         <v>33</v>
       </c>
       <c r="R95">
-        <v>39006</v>
+        <v>39103</v>
       </c>
     </row>
     <row r="96" spans="1:26">
+      <c r="A96" t="s">
+        <v>34</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="I96" t="s">
+        <v>34</v>
+      </c>
+      <c r="J96">
+        <v>2</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>34</v>
+      </c>
+      <c r="R96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="A97" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="I97" t="s">
+        <v>22</v>
+      </c>
+      <c r="J97">
+        <v>2</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>22</v>
+      </c>
+      <c r="R97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="A98" t="s">
+        <v>35</v>
+      </c>
+      <c r="B98">
+        <v>9</v>
+      </c>
+      <c r="I98" t="s">
+        <v>35</v>
+      </c>
+      <c r="J98">
+        <v>12</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>35</v>
+      </c>
+      <c r="R98">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="A99" t="s">
+        <v>36</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+      <c r="I99" t="s">
+        <v>36</v>
+      </c>
+      <c r="J99">
+        <v>6</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>36</v>
+      </c>
+      <c r="R99">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="Q35:U35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="Q91:T91"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:Y99"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="19"/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>11</v>
+      </c>
+      <c r="L1">
+        <v>12</v>
+      </c>
+      <c r="M1">
+        <v>13</v>
+      </c>
+      <c r="N1">
+        <v>14</v>
+      </c>
+      <c r="O1">
+        <v>15</v>
+      </c>
+      <c r="P1">
+        <v>16</v>
+      </c>
+      <c r="Q1">
+        <v>17</v>
+      </c>
+      <c r="R1">
+        <v>18</v>
+      </c>
+      <c r="S1">
+        <v>19</v>
+      </c>
+      <c r="T1">
+        <v>20</v>
+      </c>
+      <c r="U1">
+        <v>21</v>
+      </c>
+      <c r="V1">
+        <v>22</v>
+      </c>
+      <c r="W1">
+        <v>23</v>
+      </c>
+      <c r="X1">
+        <v>24</v>
+      </c>
+      <c r="Y1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>44445.631944444445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>44447.625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="1" customFormat="1">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="1" customFormat="1">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4">
+        <v>2</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3">
+        <v>3</v>
+      </c>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18">
+        <v>9</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>11</v>
+      </c>
+      <c r="R18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="I21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="Q21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R21" s="9"/>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>500</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22">
+        <v>2000</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>14</v>
+      </c>
+      <c r="R22">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>15</v>
+      </c>
+      <c r="R23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="20" customHeight="1">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>16</v>
+      </c>
+      <c r="U25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>99</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28">
+        <v>99</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>17</v>
+      </c>
+      <c r="R28">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>18</v>
+      </c>
+      <c r="U30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="I33" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33">
+        <v>10</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>40</v>
+      </c>
+      <c r="R33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="I35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="Q35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="C36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="K36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="S36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>24</v>
+      </c>
+      <c r="R37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S37" t="s">
+        <v>0</v>
+      </c>
+      <c r="T37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38">
+        <v>-2</v>
+      </c>
+      <c r="B38">
+        <v>10086</v>
+      </c>
+      <c r="C38">
+        <v>461</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>6</v>
+      </c>
+      <c r="I38">
+        <v>-5</v>
+      </c>
+      <c r="J38">
+        <v>10086</v>
+      </c>
+      <c r="K38">
+        <v>471</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>6</v>
+      </c>
+      <c r="Q38">
+        <v>-8</v>
+      </c>
+      <c r="R38">
+        <v>10086</v>
+      </c>
+      <c r="S38">
+        <v>481</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39">
+        <v>-4</v>
+      </c>
+      <c r="B39">
+        <v>-3</v>
+      </c>
+      <c r="C39">
+        <v>462</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="I39">
+        <v>-7</v>
+      </c>
+      <c r="J39">
+        <v>-6</v>
+      </c>
+      <c r="K39">
+        <v>472</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>6</v>
+      </c>
+      <c r="Q39">
+        <v>-10</v>
+      </c>
+      <c r="R39">
+        <v>-9</v>
+      </c>
+      <c r="S39">
+        <v>482</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40">
+        <v>-6</v>
+      </c>
+      <c r="B40">
+        <v>-5</v>
+      </c>
+      <c r="C40">
+        <v>463</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="I40">
+        <v>-9</v>
+      </c>
+      <c r="J40">
+        <v>-8</v>
+      </c>
+      <c r="K40">
+        <v>473</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>6</v>
+      </c>
+      <c r="Q40">
+        <v>-12</v>
+      </c>
+      <c r="R40">
+        <v>-11</v>
+      </c>
+      <c r="S40">
+        <v>483</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41">
+        <v>-8</v>
+      </c>
+      <c r="B41">
+        <v>-7</v>
+      </c>
+      <c r="C41">
+        <v>464</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>-11</v>
+      </c>
+      <c r="J41">
+        <v>-10</v>
+      </c>
+      <c r="K41">
+        <v>474</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>6</v>
+      </c>
+      <c r="Q41">
+        <v>-14</v>
+      </c>
+      <c r="R41">
+        <v>-13</v>
+      </c>
+      <c r="S41">
+        <v>484</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42">
+        <v>-10</v>
+      </c>
+      <c r="B42">
+        <v>-9</v>
+      </c>
+      <c r="C42">
+        <v>465</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="I42">
+        <v>-13</v>
+      </c>
+      <c r="J42">
+        <v>-12</v>
+      </c>
+      <c r="K42">
+        <v>475</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>6</v>
+      </c>
+      <c r="Q42">
+        <v>-16</v>
+      </c>
+      <c r="R42">
+        <v>-15</v>
+      </c>
+      <c r="S42">
+        <v>485</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43">
+        <v>-12</v>
+      </c>
+      <c r="B43">
+        <v>-11</v>
+      </c>
+      <c r="C43">
+        <v>466</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="I43">
+        <v>-15</v>
+      </c>
+      <c r="J43">
+        <v>-14</v>
+      </c>
+      <c r="K43">
+        <v>476</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>6</v>
+      </c>
+      <c r="Q43">
+        <v>-18</v>
+      </c>
+      <c r="R43">
+        <v>-17</v>
+      </c>
+      <c r="S43">
+        <v>486</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44">
+        <v>-14</v>
+      </c>
+      <c r="B44">
+        <v>-13</v>
+      </c>
+      <c r="C44">
+        <v>467</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="I44">
+        <v>-17</v>
+      </c>
+      <c r="J44">
+        <v>-16</v>
+      </c>
+      <c r="K44">
+        <v>477</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>6</v>
+      </c>
+      <c r="Q44">
+        <v>-20</v>
+      </c>
+      <c r="R44">
+        <v>-19</v>
+      </c>
+      <c r="S44">
+        <v>487</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45">
+        <v>-10086</v>
+      </c>
+      <c r="B45">
+        <v>-15</v>
+      </c>
+      <c r="C45">
+        <v>468</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+      <c r="I45">
+        <v>-10086</v>
+      </c>
+      <c r="J45">
+        <v>-18</v>
+      </c>
+      <c r="K45">
+        <v>478</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>6</v>
+      </c>
+      <c r="Q45">
+        <v>-10086</v>
+      </c>
+      <c r="R45">
+        <v>-21</v>
+      </c>
+      <c r="S45">
+        <v>488</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>14</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>26</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53">
+        <v>120001</v>
+      </c>
+      <c r="I53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53">
+        <v>120001</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>27</v>
+      </c>
+      <c r="R53">
+        <v>120001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>15</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" t="s">
+        <v>39</v>
+      </c>
+      <c r="I56" t="s">
+        <v>28</v>
+      </c>
+      <c r="M56" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>28</v>
+      </c>
+      <c r="U56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="6">
+        <v>120021</v>
+      </c>
+      <c r="B57" s="6">
+        <v>120022</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="I57" s="6">
+        <v>120021</v>
+      </c>
+      <c r="J57" s="6">
+        <v>120022</v>
+      </c>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="Q57" s="6">
+        <v>120021</v>
+      </c>
+      <c r="R57" s="6">
+        <v>120022</v>
+      </c>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="I59" t="s">
+        <v>29</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>29</v>
+      </c>
+      <c r="R59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I61" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" s="2">
+        <v>7309</v>
+      </c>
+      <c r="I62" s="2">
+        <v>7311</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>7313</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" s="2">
+        <v>5509</v>
+      </c>
+      <c r="I63" s="2">
+        <v>5511</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>5513</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="2">
+        <v>6009</v>
+      </c>
+      <c r="I64" s="2">
+        <v>6011</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>6013</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="2">
+        <v>6209</v>
+      </c>
+      <c r="I65" s="2">
+        <v>6211</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>6213</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="2">
+        <v>105409</v>
+      </c>
+      <c r="I66" s="2">
+        <v>105411</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>105413</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="2">
+        <v>5608</v>
+      </c>
+      <c r="I67" s="2">
+        <v>5610</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>5612</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="2">
+        <v>5709</v>
+      </c>
+      <c r="I68" s="2">
+        <v>5711</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>5713</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="2">
+        <v>5309</v>
+      </c>
+      <c r="I69" s="2">
+        <v>5311</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>5313</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="2">
+        <v>5908</v>
+      </c>
+      <c r="I70" s="2">
+        <v>5910</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>5912</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="Q71" s="2"/>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="Q72" s="2"/>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="Q73" s="2"/>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="Q74" s="2"/>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="Q75" s="2"/>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="Q76" s="2"/>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="Q77" s="2"/>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="Q78" s="2"/>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="Q79" s="2"/>
+    </row>
+    <row r="89" spans="1:22">
+      <c r="A89" t="s">
+        <v>41</v>
+      </c>
+      <c r="I89" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22">
+      <c r="A91" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="I91" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="Q91" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R91" s="9"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="9"/>
+    </row>
+    <row r="92" spans="1:22">
+      <c r="A92" t="s">
+        <v>31</v>
+      </c>
+      <c r="B92" s="8">
+        <v>0</v>
+      </c>
+      <c r="C92" s="8">
+        <v>2</v>
+      </c>
+      <c r="D92" s="8">
+        <v>4</v>
+      </c>
+      <c r="E92" s="8">
+        <v>6</v>
+      </c>
+      <c r="F92" s="8">
+        <v>10</v>
+      </c>
+      <c r="I92" t="s">
+        <v>31</v>
+      </c>
+      <c r="J92" s="8">
+        <v>0</v>
+      </c>
+      <c r="K92" s="8">
+        <v>4</v>
+      </c>
+      <c r="L92" s="8">
+        <v>6</v>
+      </c>
+      <c r="M92" s="8">
+        <v>10</v>
+      </c>
+      <c r="N92" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>31</v>
+      </c>
+      <c r="R92" s="8">
+        <v>0</v>
+      </c>
+      <c r="S92" s="8">
+        <v>6</v>
+      </c>
+      <c r="T92" s="8">
+        <v>10</v>
+      </c>
+      <c r="U92" s="8">
+        <v>15</v>
+      </c>
+      <c r="V92" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22">
+      <c r="A93" t="s">
+        <v>32</v>
+      </c>
+      <c r="B93" s="8">
+        <v>110271</v>
+      </c>
+      <c r="C93" s="8">
+        <v>110272</v>
+      </c>
+      <c r="D93" s="8">
+        <v>110273</v>
+      </c>
+      <c r="E93" s="8">
+        <v>110274</v>
+      </c>
+      <c r="F93" s="8">
+        <v>110275</v>
+      </c>
+      <c r="I93" t="s">
+        <v>32</v>
+      </c>
+      <c r="J93" s="8">
+        <v>110281</v>
+      </c>
+      <c r="K93" s="8">
+        <v>110282</v>
+      </c>
+      <c r="L93" s="8">
+        <v>110283</v>
+      </c>
+      <c r="M93" s="8">
+        <v>110284</v>
+      </c>
+      <c r="N93" s="8">
+        <v>110285</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>32</v>
+      </c>
+      <c r="R93" s="8">
+        <v>110291</v>
+      </c>
+      <c r="S93" s="8">
+        <v>110292</v>
+      </c>
+      <c r="T93" s="8">
+        <v>110293</v>
+      </c>
+      <c r="U93" s="8">
+        <v>110294</v>
+      </c>
+      <c r="V93" s="8">
+        <v>110295</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22">
+      <c r="A95" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95">
+        <v>39104</v>
+      </c>
+      <c r="I95" t="s">
+        <v>33</v>
+      </c>
+      <c r="J95">
+        <v>39105</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>33</v>
+      </c>
+      <c r="R95">
+        <v>39106</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22">
+      <c r="A96" t="s">
+        <v>34</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="I96" t="s">
+        <v>34</v>
+      </c>
+      <c r="J96">
+        <v>2</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>34</v>
+      </c>
+      <c r="R96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="A97" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="I97" t="s">
+        <v>22</v>
+      </c>
+      <c r="J97">
+        <v>2</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>22</v>
+      </c>
+      <c r="R97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="A98" t="s">
+        <v>35</v>
+      </c>
+      <c r="B98">
+        <v>9</v>
+      </c>
+      <c r="I98" t="s">
+        <v>35</v>
+      </c>
+      <c r="J98">
+        <v>12</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>35</v>
+      </c>
+      <c r="R98">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="A99" t="s">
+        <v>36</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+      <c r="I99" t="s">
+        <v>36</v>
+      </c>
+      <c r="J99">
+        <v>6</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>36</v>
+      </c>
+      <c r="R99">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="Q35:U35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="Q91:T91"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:Y99"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="19"/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>11</v>
+      </c>
+      <c r="L1">
+        <v>12</v>
+      </c>
+      <c r="M1">
+        <v>13</v>
+      </c>
+      <c r="N1">
+        <v>14</v>
+      </c>
+      <c r="O1">
+        <v>15</v>
+      </c>
+      <c r="P1">
+        <v>16</v>
+      </c>
+      <c r="Q1">
+        <v>17</v>
+      </c>
+      <c r="R1">
+        <v>18</v>
+      </c>
+      <c r="S1">
+        <v>19</v>
+      </c>
+      <c r="T1">
+        <v>20</v>
+      </c>
+      <c r="U1">
+        <v>21</v>
+      </c>
+      <c r="V1">
+        <v>22</v>
+      </c>
+      <c r="W1">
+        <v>23</v>
+      </c>
+      <c r="X1">
+        <v>24</v>
+      </c>
+      <c r="Y1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>44447.631944444445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>44449.625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="1" customFormat="1">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="1" customFormat="1">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4">
+        <v>2</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3">
+        <v>3</v>
+      </c>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18">
+        <v>9</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>11</v>
+      </c>
+      <c r="R18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="I21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="Q21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R21" s="9"/>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>500</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22">
+        <v>2000</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>14</v>
+      </c>
+      <c r="R22">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>15</v>
+      </c>
+      <c r="R23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="20" customHeight="1">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>16</v>
+      </c>
+      <c r="U25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>99</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28">
+        <v>99</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>17</v>
+      </c>
+      <c r="R28">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>18</v>
+      </c>
+      <c r="U30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="I33" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33">
+        <v>10</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>40</v>
+      </c>
+      <c r="R33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="I35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="Q35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="C36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="K36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="S36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>24</v>
+      </c>
+      <c r="R37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S37" t="s">
+        <v>0</v>
+      </c>
+      <c r="T37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38">
+        <v>-2</v>
+      </c>
+      <c r="B38">
+        <v>10086</v>
+      </c>
+      <c r="C38">
+        <v>461</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>6</v>
+      </c>
+      <c r="I38">
+        <v>-5</v>
+      </c>
+      <c r="J38">
+        <v>10086</v>
+      </c>
+      <c r="K38">
+        <v>471</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>6</v>
+      </c>
+      <c r="Q38">
+        <v>-8</v>
+      </c>
+      <c r="R38">
+        <v>10086</v>
+      </c>
+      <c r="S38">
+        <v>481</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39">
+        <v>-4</v>
+      </c>
+      <c r="B39">
+        <v>-3</v>
+      </c>
+      <c r="C39">
+        <v>462</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="I39">
+        <v>-7</v>
+      </c>
+      <c r="J39">
+        <v>-6</v>
+      </c>
+      <c r="K39">
+        <v>472</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>6</v>
+      </c>
+      <c r="Q39">
+        <v>-10</v>
+      </c>
+      <c r="R39">
+        <v>-9</v>
+      </c>
+      <c r="S39">
+        <v>482</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40">
+        <v>-6</v>
+      </c>
+      <c r="B40">
+        <v>-5</v>
+      </c>
+      <c r="C40">
+        <v>463</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="I40">
+        <v>-9</v>
+      </c>
+      <c r="J40">
+        <v>-8</v>
+      </c>
+      <c r="K40">
+        <v>473</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>6</v>
+      </c>
+      <c r="Q40">
+        <v>-12</v>
+      </c>
+      <c r="R40">
+        <v>-11</v>
+      </c>
+      <c r="S40">
+        <v>483</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41">
+        <v>-8</v>
+      </c>
+      <c r="B41">
+        <v>-7</v>
+      </c>
+      <c r="C41">
+        <v>464</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>-11</v>
+      </c>
+      <c r="J41">
+        <v>-10</v>
+      </c>
+      <c r="K41">
+        <v>474</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>6</v>
+      </c>
+      <c r="Q41">
+        <v>-14</v>
+      </c>
+      <c r="R41">
+        <v>-13</v>
+      </c>
+      <c r="S41">
+        <v>484</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42">
+        <v>-10</v>
+      </c>
+      <c r="B42">
+        <v>-9</v>
+      </c>
+      <c r="C42">
+        <v>465</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="I42">
+        <v>-13</v>
+      </c>
+      <c r="J42">
+        <v>-12</v>
+      </c>
+      <c r="K42">
+        <v>475</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>6</v>
+      </c>
+      <c r="Q42">
+        <v>-16</v>
+      </c>
+      <c r="R42">
+        <v>-15</v>
+      </c>
+      <c r="S42">
+        <v>485</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43">
+        <v>-12</v>
+      </c>
+      <c r="B43">
+        <v>-11</v>
+      </c>
+      <c r="C43">
+        <v>466</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="I43">
+        <v>-15</v>
+      </c>
+      <c r="J43">
+        <v>-14</v>
+      </c>
+      <c r="K43">
+        <v>476</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>6</v>
+      </c>
+      <c r="Q43">
+        <v>-18</v>
+      </c>
+      <c r="R43">
+        <v>-17</v>
+      </c>
+      <c r="S43">
+        <v>486</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44">
+        <v>-14</v>
+      </c>
+      <c r="B44">
+        <v>-13</v>
+      </c>
+      <c r="C44">
+        <v>467</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="I44">
+        <v>-17</v>
+      </c>
+      <c r="J44">
+        <v>-16</v>
+      </c>
+      <c r="K44">
+        <v>477</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>6</v>
+      </c>
+      <c r="Q44">
+        <v>-20</v>
+      </c>
+      <c r="R44">
+        <v>-19</v>
+      </c>
+      <c r="S44">
+        <v>487</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45">
+        <v>-10086</v>
+      </c>
+      <c r="B45">
+        <v>-15</v>
+      </c>
+      <c r="C45">
+        <v>468</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+      <c r="I45">
+        <v>-10086</v>
+      </c>
+      <c r="J45">
+        <v>-18</v>
+      </c>
+      <c r="K45">
+        <v>478</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>6</v>
+      </c>
+      <c r="Q45">
+        <v>-10086</v>
+      </c>
+      <c r="R45">
+        <v>-21</v>
+      </c>
+      <c r="S45">
+        <v>488</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>14</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>26</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53">
+        <v>120001</v>
+      </c>
+      <c r="I53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53">
+        <v>120001</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>27</v>
+      </c>
+      <c r="R53">
+        <v>120001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>15</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" t="s">
+        <v>39</v>
+      </c>
+      <c r="I56" t="s">
+        <v>28</v>
+      </c>
+      <c r="M56" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>28</v>
+      </c>
+      <c r="U56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="6">
+        <v>120021</v>
+      </c>
+      <c r="B57" s="6">
+        <v>120022</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="I57" s="6">
+        <v>120021</v>
+      </c>
+      <c r="J57" s="6">
+        <v>120022</v>
+      </c>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="Q57" s="6">
+        <v>120021</v>
+      </c>
+      <c r="R57" s="6">
+        <v>120022</v>
+      </c>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="I59" t="s">
+        <v>29</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>29</v>
+      </c>
+      <c r="R59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I61" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" s="2">
+        <v>102704</v>
+      </c>
+      <c r="I62" s="2">
+        <v>102707</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>102710</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" s="2">
+        <v>1503</v>
+      </c>
+      <c r="I63" s="2">
+        <v>1507</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="2">
+        <v>304707</v>
+      </c>
+      <c r="I64" s="2">
+        <v>304709</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>304711</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="2">
+        <v>303607</v>
+      </c>
+      <c r="I65" s="2">
+        <v>303609</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>303611</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="2">
+        <v>100201</v>
+      </c>
+      <c r="I66" s="2">
+        <v>100207</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>100210</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="2">
+        <v>100807</v>
+      </c>
+      <c r="I67" s="2">
+        <v>100809</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>100811</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="2">
+        <v>2503</v>
+      </c>
+      <c r="I68" s="2">
+        <v>2507</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="2">
+        <v>1207</v>
+      </c>
+      <c r="I69" s="2">
+        <v>1209</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="2">
+        <v>100501</v>
+      </c>
+      <c r="I70" s="2">
+        <v>100507</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>100510</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="Q71" s="2"/>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="Q72" s="2"/>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="Q73" s="2"/>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="Q74" s="2"/>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="Q75" s="2"/>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="Q76" s="2"/>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="Q77" s="2"/>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="Q78" s="2"/>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="Q79" s="2"/>
+    </row>
+    <row r="89" spans="1:22">
+      <c r="A89" t="s">
+        <v>41</v>
+      </c>
+      <c r="I89" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22">
+      <c r="A91" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="I91" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="Q91" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R91" s="9"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="9"/>
+    </row>
+    <row r="92" spans="1:22">
+      <c r="A92" t="s">
+        <v>31</v>
+      </c>
+      <c r="B92" s="8">
+        <v>0</v>
+      </c>
+      <c r="C92" s="8">
+        <v>2</v>
+      </c>
+      <c r="D92" s="8">
+        <v>4</v>
+      </c>
+      <c r="E92" s="8">
+        <v>6</v>
+      </c>
+      <c r="F92" s="8">
+        <v>10</v>
+      </c>
+      <c r="I92" t="s">
+        <v>31</v>
+      </c>
+      <c r="J92" s="8">
+        <v>0</v>
+      </c>
+      <c r="K92" s="8">
+        <v>4</v>
+      </c>
+      <c r="L92" s="8">
+        <v>6</v>
+      </c>
+      <c r="M92" s="8">
+        <v>10</v>
+      </c>
+      <c r="N92" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>31</v>
+      </c>
+      <c r="R92" s="8">
+        <v>0</v>
+      </c>
+      <c r="S92" s="8">
+        <v>6</v>
+      </c>
+      <c r="T92" s="8">
+        <v>10</v>
+      </c>
+      <c r="U92" s="8">
+        <v>15</v>
+      </c>
+      <c r="V92" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22">
+      <c r="A93" t="s">
+        <v>32</v>
+      </c>
+      <c r="B93" s="8">
+        <v>110001</v>
+      </c>
+      <c r="C93" s="8">
+        <v>110002</v>
+      </c>
+      <c r="D93" s="8">
+        <v>110003</v>
+      </c>
+      <c r="E93" s="8">
+        <v>110004</v>
+      </c>
+      <c r="F93" s="8">
+        <v>110005</v>
+      </c>
+      <c r="I93" t="s">
+        <v>32</v>
+      </c>
+      <c r="J93" s="8">
+        <v>110011</v>
+      </c>
+      <c r="K93" s="8">
+        <v>110012</v>
+      </c>
+      <c r="L93" s="8">
+        <v>110013</v>
+      </c>
+      <c r="M93" s="8">
+        <v>110014</v>
+      </c>
+      <c r="N93" s="8">
+        <v>110015</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>32</v>
+      </c>
+      <c r="R93" s="8">
+        <v>110021</v>
+      </c>
+      <c r="S93" s="8">
+        <v>110022</v>
+      </c>
+      <c r="T93" s="8">
+        <v>110023</v>
+      </c>
+      <c r="U93" s="8">
+        <v>110024</v>
+      </c>
+      <c r="V93" s="8">
+        <v>110025</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22">
+      <c r="A95" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95">
+        <v>31001</v>
+      </c>
+      <c r="I95" t="s">
+        <v>33</v>
+      </c>
+      <c r="J95">
+        <v>31011</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>33</v>
+      </c>
+      <c r="R95">
+        <v>31021</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22">
       <c r="A96" t="s">
         <v>34</v>
       </c>
@@ -8183,6 +11606,2052 @@
     <mergeCell ref="I35:M35"/>
     <mergeCell ref="Q35:U35"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:Z124"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G111" sqref="G111"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="19"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1" s="13">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13">
+        <v>2</v>
+      </c>
+      <c r="C1" s="13">
+        <v>3</v>
+      </c>
+      <c r="D1" s="13">
+        <v>4</v>
+      </c>
+      <c r="E1" s="13">
+        <v>5</v>
+      </c>
+      <c r="F1" s="13">
+        <v>6</v>
+      </c>
+      <c r="G1" s="13">
+        <v>7</v>
+      </c>
+      <c r="H1" s="13">
+        <v>8</v>
+      </c>
+      <c r="I1" s="14">
+        <v>9</v>
+      </c>
+      <c r="J1" s="14">
+        <v>10</v>
+      </c>
+      <c r="K1" s="14">
+        <v>11</v>
+      </c>
+      <c r="L1" s="14">
+        <v>12</v>
+      </c>
+      <c r="M1" s="14">
+        <v>13</v>
+      </c>
+      <c r="N1" s="14">
+        <v>14</v>
+      </c>
+      <c r="O1" s="14">
+        <v>15</v>
+      </c>
+      <c r="P1" s="14">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="15">
+        <v>17</v>
+      </c>
+      <c r="R1" s="15">
+        <v>18</v>
+      </c>
+      <c r="S1" s="15">
+        <v>19</v>
+      </c>
+      <c r="T1" s="15">
+        <v>20</v>
+      </c>
+      <c r="U1" s="15">
+        <v>21</v>
+      </c>
+      <c r="V1" s="15">
+        <v>22</v>
+      </c>
+      <c r="W1" s="15">
+        <v>23</v>
+      </c>
+      <c r="X1" s="15">
+        <v>24</v>
+      </c>
+      <c r="Y1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>44439.833333333336</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>44445.625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="1" customFormat="1">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="1" customFormat="1">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13">
+        <v>1</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14">
+        <v>2</v>
+      </c>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15">
+        <v>3</v>
+      </c>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18">
+        <v>18</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>11</v>
+      </c>
+      <c r="R18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="I21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="Q21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R21" s="9"/>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>1000</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22">
+        <v>5000</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>14</v>
+      </c>
+      <c r="R22">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>15</v>
+      </c>
+      <c r="R23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="20" customHeight="1">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>16</v>
+      </c>
+      <c r="U25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>99</v>
+      </c>
+      <c r="D28" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28">
+        <v>99</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>17</v>
+      </c>
+      <c r="R28">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>18</v>
+      </c>
+      <c r="U30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33">
+        <v>10</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>40</v>
+      </c>
+      <c r="R33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="I35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="Q35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="C36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="K36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="S36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>24</v>
+      </c>
+      <c r="R37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S37" t="s">
+        <v>0</v>
+      </c>
+      <c r="T37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38">
+        <v>-8</v>
+      </c>
+      <c r="B38">
+        <v>10086</v>
+      </c>
+      <c r="C38">
+        <v>431</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>6</v>
+      </c>
+      <c r="I38">
+        <v>-17</v>
+      </c>
+      <c r="J38">
+        <v>10086</v>
+      </c>
+      <c r="K38">
+        <v>441</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>6</v>
+      </c>
+      <c r="Q38">
+        <v>-28</v>
+      </c>
+      <c r="R38">
+        <v>10086</v>
+      </c>
+      <c r="S38">
+        <v>451</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39">
+        <v>-13</v>
+      </c>
+      <c r="B39">
+        <v>-9</v>
+      </c>
+      <c r="C39">
+        <v>432</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="I39">
+        <v>-20</v>
+      </c>
+      <c r="J39">
+        <v>-18</v>
+      </c>
+      <c r="K39">
+        <v>442</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>6</v>
+      </c>
+      <c r="Q39">
+        <v>-32</v>
+      </c>
+      <c r="R39">
+        <v>-29</v>
+      </c>
+      <c r="S39">
+        <v>452</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40">
+        <v>-17</v>
+      </c>
+      <c r="B40">
+        <v>-14</v>
+      </c>
+      <c r="C40">
+        <v>433</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="I40">
+        <v>-23</v>
+      </c>
+      <c r="J40">
+        <v>-21</v>
+      </c>
+      <c r="K40">
+        <v>443</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>6</v>
+      </c>
+      <c r="Q40">
+        <v>-35</v>
+      </c>
+      <c r="R40">
+        <v>-33</v>
+      </c>
+      <c r="S40">
+        <v>453</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41">
+        <v>-20</v>
+      </c>
+      <c r="B41">
+        <v>-18</v>
+      </c>
+      <c r="C41">
+        <v>434</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>-26</v>
+      </c>
+      <c r="J41">
+        <v>-24</v>
+      </c>
+      <c r="K41">
+        <v>444</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>6</v>
+      </c>
+      <c r="Q41">
+        <v>-38</v>
+      </c>
+      <c r="R41">
+        <v>-36</v>
+      </c>
+      <c r="S41">
+        <v>454</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42">
+        <v>-23</v>
+      </c>
+      <c r="B42">
+        <v>-21</v>
+      </c>
+      <c r="C42">
+        <v>435</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="I42">
+        <v>-29</v>
+      </c>
+      <c r="J42">
+        <v>-27</v>
+      </c>
+      <c r="K42">
+        <v>445</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>6</v>
+      </c>
+      <c r="Q42">
+        <v>-41</v>
+      </c>
+      <c r="R42">
+        <v>-39</v>
+      </c>
+      <c r="S42">
+        <v>455</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43">
+        <v>-26</v>
+      </c>
+      <c r="B43">
+        <v>-24</v>
+      </c>
+      <c r="C43">
+        <v>436</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="I43">
+        <v>-32</v>
+      </c>
+      <c r="J43">
+        <v>-30</v>
+      </c>
+      <c r="K43">
+        <v>446</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>6</v>
+      </c>
+      <c r="Q43">
+        <v>-44</v>
+      </c>
+      <c r="R43">
+        <v>-42</v>
+      </c>
+      <c r="S43">
+        <v>456</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44">
+        <v>-29</v>
+      </c>
+      <c r="B44">
+        <v>-27</v>
+      </c>
+      <c r="C44">
+        <v>437</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="I44">
+        <v>-35</v>
+      </c>
+      <c r="J44">
+        <v>-33</v>
+      </c>
+      <c r="K44">
+        <v>447</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>6</v>
+      </c>
+      <c r="Q44">
+        <v>-47</v>
+      </c>
+      <c r="R44">
+        <v>-45</v>
+      </c>
+      <c r="S44">
+        <v>457</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45">
+        <v>-10086</v>
+      </c>
+      <c r="B45">
+        <v>-30</v>
+      </c>
+      <c r="C45">
+        <v>438</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+      <c r="I45">
+        <v>-10086</v>
+      </c>
+      <c r="J45">
+        <v>-36</v>
+      </c>
+      <c r="K45">
+        <v>448</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>6</v>
+      </c>
+      <c r="Q45">
+        <v>-10086</v>
+      </c>
+      <c r="R45">
+        <v>-48</v>
+      </c>
+      <c r="S45">
+        <v>458</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>14</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>26</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53">
+        <v>120002</v>
+      </c>
+      <c r="I53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53">
+        <v>120002</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>27</v>
+      </c>
+      <c r="R53">
+        <v>120002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>15</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" t="s">
+        <v>39</v>
+      </c>
+      <c r="I56" t="s">
+        <v>28</v>
+      </c>
+      <c r="M56" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>28</v>
+      </c>
+      <c r="U56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="6">
+        <v>120021</v>
+      </c>
+      <c r="B57" s="6">
+        <v>120022</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="I57" s="6">
+        <v>120021</v>
+      </c>
+      <c r="J57" s="6">
+        <v>120022</v>
+      </c>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="Q57" s="6">
+        <v>120021</v>
+      </c>
+      <c r="R57" s="6">
+        <v>120022</v>
+      </c>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="I59" t="s">
+        <v>29</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>29</v>
+      </c>
+      <c r="R59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I61" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" s="2">
+        <v>24910</v>
+      </c>
+      <c r="I62" s="2">
+        <v>24912</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>24914</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" s="2">
+        <v>25010</v>
+      </c>
+      <c r="I63" s="2">
+        <v>25012</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>25014</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="2">
+        <v>25110</v>
+      </c>
+      <c r="I64" s="2">
+        <v>25112</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>25114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="2">
+        <v>25210</v>
+      </c>
+      <c r="I65" s="2">
+        <v>25212</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>25214</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="2">
+        <v>25310</v>
+      </c>
+      <c r="I66" s="2">
+        <v>25312</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>25314</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="2">
+        <v>25410</v>
+      </c>
+      <c r="I67" s="2">
+        <v>25412</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>25414</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="2">
+        <v>25510</v>
+      </c>
+      <c r="I68" s="2">
+        <v>25512</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>25514</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="2">
+        <v>25610</v>
+      </c>
+      <c r="I69" s="2">
+        <v>25612</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>25614</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="2">
+        <v>25710</v>
+      </c>
+      <c r="I70" s="2">
+        <v>25712</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>25714</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="2">
+        <v>25810</v>
+      </c>
+      <c r="I71" s="2">
+        <v>25812</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>25814</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="2">
+        <v>25910</v>
+      </c>
+      <c r="I72" s="2">
+        <v>25912</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>25914</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="2">
+        <v>24910</v>
+      </c>
+      <c r="I73" s="2">
+        <v>24912</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>24914</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="2">
+        <v>25010</v>
+      </c>
+      <c r="I74" s="2">
+        <v>25012</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>25014</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="2">
+        <v>25110</v>
+      </c>
+      <c r="I75" s="2">
+        <v>25112</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>25114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="2">
+        <v>25210</v>
+      </c>
+      <c r="I76" s="2">
+        <v>25212</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>25214</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="2">
+        <v>25310</v>
+      </c>
+      <c r="I77" s="2">
+        <v>25312</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>25314</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="2">
+        <v>25410</v>
+      </c>
+      <c r="I78" s="2">
+        <v>25412</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>25414</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="2">
+        <v>25510</v>
+      </c>
+      <c r="I79" s="2">
+        <v>25512</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>25514</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22">
+      <c r="A89" t="s">
+        <v>41</v>
+      </c>
+      <c r="I89" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22">
+      <c r="A92" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B92" s="41"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="41"/>
+      <c r="F92" s="41"/>
+      <c r="I92" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="J92" s="49"/>
+      <c r="K92" s="49"/>
+      <c r="L92" s="49"/>
+      <c r="M92" s="49"/>
+      <c r="N92" s="49"/>
+      <c r="Q92" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="R92" s="58"/>
+      <c r="S92" s="58"/>
+      <c r="T92" s="58"/>
+      <c r="U92" s="58"/>
+      <c r="V92" s="58"/>
+    </row>
+    <row r="93" spans="1:22">
+      <c r="A93" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B93" s="42"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="42"/>
+      <c r="F93" s="43"/>
+      <c r="I93" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="J93" s="51"/>
+      <c r="K93" s="51"/>
+      <c r="L93" s="51"/>
+      <c r="M93" s="51"/>
+      <c r="N93" s="52"/>
+      <c r="Q93" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="R93" s="60"/>
+      <c r="S93" s="60"/>
+      <c r="T93" s="60"/>
+      <c r="U93" s="60"/>
+      <c r="V93" s="61"/>
+    </row>
+    <row r="94" spans="1:22">
+      <c r="A94" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B94" s="44">
+        <v>0</v>
+      </c>
+      <c r="C94" s="45"/>
+      <c r="D94" s="45"/>
+      <c r="E94" s="45"/>
+      <c r="F94" s="46"/>
+      <c r="I94" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="J94" s="53">
+        <v>0</v>
+      </c>
+      <c r="K94" s="54"/>
+      <c r="L94" s="54"/>
+      <c r="M94" s="54"/>
+      <c r="N94" s="55"/>
+      <c r="Q94" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="R94" s="62">
+        <v>0</v>
+      </c>
+      <c r="S94" s="63"/>
+      <c r="T94" s="63"/>
+      <c r="U94" s="63"/>
+      <c r="V94" s="64"/>
+    </row>
+    <row r="95" spans="1:22">
+      <c r="A95" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B95" s="44">
+        <v>1</v>
+      </c>
+      <c r="C95" s="45"/>
+      <c r="D95" s="45"/>
+      <c r="E95" s="45"/>
+      <c r="F95" s="47"/>
+      <c r="I95" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="J95" s="53">
+        <v>1</v>
+      </c>
+      <c r="K95" s="54"/>
+      <c r="L95" s="54"/>
+      <c r="M95" s="54"/>
+      <c r="N95" s="56"/>
+      <c r="Q95" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="R95" s="62">
+        <v>1</v>
+      </c>
+      <c r="S95" s="63"/>
+      <c r="T95" s="63"/>
+      <c r="U95" s="63"/>
+      <c r="V95" s="65"/>
+    </row>
+    <row r="96" spans="1:22">
+      <c r="A96" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B96" s="41"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="41"/>
+      <c r="F96" s="41"/>
+      <c r="I96" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="J96" s="49"/>
+      <c r="K96" s="49"/>
+      <c r="L96" s="49"/>
+      <c r="M96" s="49"/>
+      <c r="N96" s="49"/>
+      <c r="Q96" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="R96" s="58"/>
+      <c r="S96" s="58"/>
+      <c r="T96" s="58"/>
+      <c r="U96" s="58"/>
+      <c r="V96" s="58"/>
+    </row>
+    <row r="97" spans="1:26">
+      <c r="A97" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B97" s="48">
+        <v>0</v>
+      </c>
+      <c r="C97" s="48">
+        <v>2</v>
+      </c>
+      <c r="D97" s="48">
+        <v>4</v>
+      </c>
+      <c r="E97" s="48">
+        <v>6</v>
+      </c>
+      <c r="F97" s="48">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="J97" s="57">
+        <v>0</v>
+      </c>
+      <c r="K97" s="57">
+        <v>2</v>
+      </c>
+      <c r="L97" s="57">
+        <v>4</v>
+      </c>
+      <c r="M97" s="57">
+        <v>6</v>
+      </c>
+      <c r="N97" s="57">
+        <v>10</v>
+      </c>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="R97" s="66">
+        <v>0</v>
+      </c>
+      <c r="S97" s="66">
+        <v>2</v>
+      </c>
+      <c r="T97" s="66">
+        <v>4</v>
+      </c>
+      <c r="U97" s="66">
+        <v>6</v>
+      </c>
+      <c r="V97" s="66">
+        <v>10</v>
+      </c>
+      <c r="W97" s="2"/>
+      <c r="X97" s="2"/>
+      <c r="Y97" s="2"/>
+      <c r="Z97" s="2"/>
+    </row>
+    <row r="98" spans="1:26">
+      <c r="A98" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B98" s="48">
+        <v>110271</v>
+      </c>
+      <c r="C98" s="48">
+        <v>110272</v>
+      </c>
+      <c r="D98" s="48">
+        <v>110273</v>
+      </c>
+      <c r="E98" s="48">
+        <v>110274</v>
+      </c>
+      <c r="F98" s="48">
+        <v>110275</v>
+      </c>
+      <c r="I98" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="J98" s="57">
+        <v>110271</v>
+      </c>
+      <c r="K98" s="57">
+        <v>110272</v>
+      </c>
+      <c r="L98" s="57">
+        <v>110273</v>
+      </c>
+      <c r="M98" s="57">
+        <v>110274</v>
+      </c>
+      <c r="N98" s="57">
+        <v>110275</v>
+      </c>
+      <c r="Q98" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="R98" s="66">
+        <v>110271</v>
+      </c>
+      <c r="S98" s="66">
+        <v>110272</v>
+      </c>
+      <c r="T98" s="66">
+        <v>110273</v>
+      </c>
+      <c r="U98" s="66">
+        <v>110274</v>
+      </c>
+      <c r="V98" s="66">
+        <v>110275</v>
+      </c>
+      <c r="W98" s="2"/>
+      <c r="X98" s="2"/>
+      <c r="Y98" s="2"/>
+    </row>
+    <row r="99" spans="1:26">
+      <c r="A99" s="17"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="21"/>
+      <c r="I99" s="29"/>
+      <c r="J99" s="25"/>
+      <c r="K99" s="25"/>
+      <c r="L99" s="25"/>
+      <c r="M99" s="25"/>
+      <c r="N99" s="30"/>
+      <c r="O99" s="22"/>
+      <c r="Q99" s="38"/>
+      <c r="R99" s="34"/>
+      <c r="S99" s="34"/>
+      <c r="T99" s="34"/>
+      <c r="U99" s="34"/>
+      <c r="V99" s="39"/>
+    </row>
+    <row r="100" spans="1:26">
+      <c r="A100" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B100" s="12">
+        <v>100</v>
+      </c>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="19"/>
+      <c r="I100" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J100" s="24">
+        <v>100</v>
+      </c>
+      <c r="K100" s="25"/>
+      <c r="L100" s="25"/>
+      <c r="M100" s="25"/>
+      <c r="N100" s="26"/>
+      <c r="Q100" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="R100" s="33">
+        <v>100</v>
+      </c>
+      <c r="S100" s="34"/>
+      <c r="T100" s="34"/>
+      <c r="U100" s="34"/>
+      <c r="V100" s="35"/>
+    </row>
+    <row r="101" spans="1:26">
+      <c r="A101" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B101" s="18">
+        <v>2</v>
+      </c>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="20"/>
+      <c r="I101" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J101" s="31">
+        <v>2</v>
+      </c>
+      <c r="K101" s="25"/>
+      <c r="L101" s="25"/>
+      <c r="M101" s="25"/>
+      <c r="N101" s="27"/>
+      <c r="Q101" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="R101" s="40">
+        <v>2</v>
+      </c>
+      <c r="S101" s="34"/>
+      <c r="T101" s="34"/>
+      <c r="U101" s="34"/>
+      <c r="V101" s="36"/>
+    </row>
+    <row r="102" spans="1:26">
+      <c r="A102" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="I102" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="J102" s="23"/>
+      <c r="K102" s="23"/>
+      <c r="L102" s="23"/>
+      <c r="M102" s="23"/>
+      <c r="N102" s="23"/>
+      <c r="Q102" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="R102" s="32"/>
+      <c r="S102" s="32"/>
+      <c r="T102" s="32"/>
+      <c r="U102" s="32"/>
+      <c r="V102" s="32"/>
+    </row>
+    <row r="103" spans="1:26">
+      <c r="A103" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B103" s="11">
+        <v>0</v>
+      </c>
+      <c r="C103" s="11">
+        <v>2</v>
+      </c>
+      <c r="D103" s="11">
+        <v>4</v>
+      </c>
+      <c r="E103" s="11">
+        <v>6</v>
+      </c>
+      <c r="F103" s="11">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J103" s="28">
+        <v>0</v>
+      </c>
+      <c r="K103" s="28">
+        <v>2</v>
+      </c>
+      <c r="L103" s="28">
+        <v>4</v>
+      </c>
+      <c r="M103" s="28">
+        <v>6</v>
+      </c>
+      <c r="N103" s="28">
+        <v>10</v>
+      </c>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="R103" s="37">
+        <v>0</v>
+      </c>
+      <c r="S103" s="37">
+        <v>2</v>
+      </c>
+      <c r="T103" s="37">
+        <v>4</v>
+      </c>
+      <c r="U103" s="37">
+        <v>6</v>
+      </c>
+      <c r="V103" s="37">
+        <v>10</v>
+      </c>
+      <c r="W103" s="2"/>
+      <c r="X103" s="2"/>
+      <c r="Y103" s="2"/>
+      <c r="Z103" s="2"/>
+    </row>
+    <row r="104" spans="1:26">
+      <c r="A104" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B104" s="11">
+        <v>110271</v>
+      </c>
+      <c r="C104" s="11">
+        <v>110272</v>
+      </c>
+      <c r="D104" s="11">
+        <v>110273</v>
+      </c>
+      <c r="E104" s="11">
+        <v>110274</v>
+      </c>
+      <c r="F104" s="11">
+        <v>110275</v>
+      </c>
+      <c r="I104" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J104" s="28">
+        <v>110271</v>
+      </c>
+      <c r="K104" s="28">
+        <v>110272</v>
+      </c>
+      <c r="L104" s="28">
+        <v>110273</v>
+      </c>
+      <c r="M104" s="28">
+        <v>110274</v>
+      </c>
+      <c r="N104" s="28">
+        <v>110275</v>
+      </c>
+      <c r="Q104" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="R104" s="37">
+        <v>110271</v>
+      </c>
+      <c r="S104" s="37">
+        <v>110272</v>
+      </c>
+      <c r="T104" s="37">
+        <v>110273</v>
+      </c>
+      <c r="U104" s="37">
+        <v>110274</v>
+      </c>
+      <c r="V104" s="37">
+        <v>110275</v>
+      </c>
+      <c r="W104" s="2"/>
+      <c r="X104" s="2"/>
+      <c r="Y104" s="2"/>
+    </row>
+    <row r="105" spans="1:26">
+      <c r="A105" s="10"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="21"/>
+      <c r="I105" s="68"/>
+      <c r="J105" s="67"/>
+      <c r="K105" s="67"/>
+      <c r="L105" s="67"/>
+      <c r="M105" s="67"/>
+      <c r="N105" s="30"/>
+      <c r="Q105" s="69"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="39"/>
+    </row>
+    <row r="106" spans="1:26">
+      <c r="A106" s="12"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="19"/>
+      <c r="I106" s="24"/>
+      <c r="J106" s="24"/>
+      <c r="K106" s="25"/>
+      <c r="L106" s="25"/>
+      <c r="M106" s="25"/>
+      <c r="N106" s="26"/>
+      <c r="Q106" s="33"/>
+      <c r="R106" s="33"/>
+      <c r="S106" s="34"/>
+      <c r="T106" s="34"/>
+      <c r="U106" s="34"/>
+      <c r="V106" s="35"/>
+    </row>
+    <row r="107" spans="1:26">
+      <c r="A107" s="18"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="20"/>
+      <c r="I107" s="31"/>
+      <c r="J107" s="31"/>
+      <c r="K107" s="25"/>
+      <c r="L107" s="25"/>
+      <c r="M107" s="25"/>
+      <c r="N107" s="27"/>
+      <c r="Q107" s="40"/>
+      <c r="R107" s="40"/>
+      <c r="S107" s="34"/>
+      <c r="T107" s="34"/>
+      <c r="U107" s="34"/>
+      <c r="V107" s="36"/>
+    </row>
+    <row r="108" spans="1:26">
+      <c r="A108" s="16"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="I108" s="23"/>
+      <c r="J108" s="23"/>
+      <c r="K108" s="23"/>
+      <c r="L108" s="23"/>
+      <c r="M108" s="23"/>
+      <c r="N108" s="23"/>
+      <c r="Q108" s="32"/>
+      <c r="R108" s="32"/>
+      <c r="S108" s="32"/>
+      <c r="T108" s="32"/>
+      <c r="U108" s="32"/>
+      <c r="V108" s="32"/>
+    </row>
+    <row r="109" spans="1:26">
+      <c r="A109" s="11"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="I109" s="28"/>
+      <c r="J109" s="28"/>
+      <c r="K109" s="28"/>
+      <c r="L109" s="28"/>
+      <c r="M109" s="28"/>
+      <c r="N109" s="28"/>
+      <c r="Q109" s="37"/>
+      <c r="R109" s="37"/>
+      <c r="S109" s="37"/>
+      <c r="T109" s="37"/>
+      <c r="U109" s="37"/>
+      <c r="V109" s="37"/>
+    </row>
+    <row r="110" spans="1:26">
+      <c r="A110" s="11"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="I110" s="28"/>
+      <c r="J110" s="28"/>
+      <c r="K110" s="28"/>
+      <c r="L110" s="28"/>
+      <c r="M110" s="28"/>
+      <c r="N110" s="28"/>
+      <c r="Q110" s="37"/>
+      <c r="R110" s="37"/>
+      <c r="S110" s="37"/>
+      <c r="T110" s="37"/>
+      <c r="U110" s="37"/>
+      <c r="V110" s="37"/>
+    </row>
+    <row r="120" spans="1:18">
+      <c r="A120" t="s">
+        <v>33</v>
+      </c>
+      <c r="B120">
+        <v>39111</v>
+      </c>
+      <c r="I120" t="s">
+        <v>33</v>
+      </c>
+      <c r="J120">
+        <v>39112</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>33</v>
+      </c>
+      <c r="R120">
+        <v>39113</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18">
+      <c r="A121" t="s">
+        <v>34</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="I121" t="s">
+        <v>34</v>
+      </c>
+      <c r="J121">
+        <v>2</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>34</v>
+      </c>
+      <c r="R121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18">
+      <c r="A122" t="s">
+        <v>22</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="I122" t="s">
+        <v>22</v>
+      </c>
+      <c r="J122">
+        <v>2</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>22</v>
+      </c>
+      <c r="R122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18">
+      <c r="A123" t="s">
+        <v>35</v>
+      </c>
+      <c r="B123">
+        <v>9</v>
+      </c>
+      <c r="I123" t="s">
+        <v>35</v>
+      </c>
+      <c r="J123">
+        <v>12</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>35</v>
+      </c>
+      <c r="R123">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18">
+      <c r="A124" t="s">
+        <v>36</v>
+      </c>
+      <c r="B124">
+        <v>5</v>
+      </c>
+      <c r="I124" t="s">
+        <v>36</v>
+      </c>
+      <c r="J124">
+        <v>6</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>36</v>
+      </c>
+      <c r="R124">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="I108:N108"/>
+    <mergeCell ref="Q108:V108"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="I92:N92"/>
+    <mergeCell ref="I96:N96"/>
+    <mergeCell ref="I102:N102"/>
+    <mergeCell ref="Q92:V92"/>
+    <mergeCell ref="Q96:V96"/>
+    <mergeCell ref="Q102:V102"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="Q35:U35"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tournament/TournamentConfig.xlsx
+++ b/Tournament/TournamentConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/Tournament/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B3CA37-FF77-EE47-A686-9E3490A8D08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A1574D-CC06-AB4B-AA91-C4E5C008C28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="-21100" windowWidth="34720" windowHeight="19220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="-21100" windowWidth="34720" windowHeight="19220" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inlets 18 holes" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="Labor 9" sheetId="8" r:id="rId6"/>
     <sheet name="Coast to Coast 9" sheetId="9" r:id="rId7"/>
     <sheet name="S14new" sheetId="11" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId9"/>
+    <sheet name="21NewYear" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="79">
   <si>
     <t>id</t>
   </si>
@@ -462,12 +464,15 @@
   <si>
     <t>Signup_offer_list</t>
   </si>
+  <si>
+    <t>NewYear</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -498,6 +503,18 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -660,7 +677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -670,27 +687,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -699,9 +707,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -710,9 +715,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -724,9 +726,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -741,9 +740,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -761,6 +757,30 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1217,10 +1237,10 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="64"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
@@ -1332,18 +1352,18 @@
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="I21" s="9" t="s">
+      <c r="B21" s="64"/>
+      <c r="I21" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="Q21" s="9" t="s">
+      <c r="J21" s="64"/>
+      <c r="Q21" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="R21" s="9"/>
+      <c r="R21" s="64"/>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
@@ -1507,44 +1527,44 @@
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="I35" s="9" t="s">
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="I35" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="Q35" s="9" t="s">
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="Q35" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="64"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="K36" s="9" t="s">
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="K36" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="S36" s="9" t="s">
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="S36" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
+      <c r="T36" s="64"/>
+      <c r="U36" s="64"/>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" t="s">
@@ -2350,24 +2370,24 @@
       </c>
     </row>
     <row r="91" spans="1:26">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="I91" s="9" t="s">
+      <c r="B91" s="64"/>
+      <c r="C91" s="64"/>
+      <c r="D91" s="64"/>
+      <c r="I91" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
-      <c r="Q91" s="9" t="s">
+      <c r="J91" s="64"/>
+      <c r="K91" s="64"/>
+      <c r="L91" s="64"/>
+      <c r="Q91" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="R91" s="9"/>
-      <c r="S91" s="9"/>
-      <c r="T91" s="9"/>
+      <c r="R91" s="64"/>
+      <c r="S91" s="64"/>
+      <c r="T91" s="64"/>
     </row>
     <row r="92" spans="1:26">
       <c r="A92" s="8" t="s">
@@ -2617,6 +2637,2139 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5700636B-0736-E749-81EB-633C13337CAD}">
+  <dimension ref="A1:Z124"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H53" workbookViewId="0">
+      <selection activeCell="S72" sqref="S72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="19"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25">
+      <c r="A1" s="12">
+        <v>1</v>
+      </c>
+      <c r="B1" s="12">
+        <v>2</v>
+      </c>
+      <c r="C1" s="12">
+        <v>3</v>
+      </c>
+      <c r="D1" s="12">
+        <v>4</v>
+      </c>
+      <c r="E1" s="12">
+        <v>5</v>
+      </c>
+      <c r="F1" s="12">
+        <v>6</v>
+      </c>
+      <c r="G1" s="12">
+        <v>7</v>
+      </c>
+      <c r="H1" s="12">
+        <v>8</v>
+      </c>
+      <c r="I1" s="13">
+        <v>9</v>
+      </c>
+      <c r="J1" s="13">
+        <v>10</v>
+      </c>
+      <c r="K1" s="13">
+        <v>11</v>
+      </c>
+      <c r="L1" s="13">
+        <v>12</v>
+      </c>
+      <c r="M1" s="13">
+        <v>13</v>
+      </c>
+      <c r="N1" s="13">
+        <v>14</v>
+      </c>
+      <c r="O1" s="13">
+        <v>15</v>
+      </c>
+      <c r="P1" s="13">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="14">
+        <v>17</v>
+      </c>
+      <c r="R1" s="14">
+        <v>18</v>
+      </c>
+      <c r="S1" s="14">
+        <v>19</v>
+      </c>
+      <c r="T1" s="14">
+        <v>20</v>
+      </c>
+      <c r="U1" s="14">
+        <v>21</v>
+      </c>
+      <c r="V1" s="14">
+        <v>22</v>
+      </c>
+      <c r="W1" s="14">
+        <v>23</v>
+      </c>
+      <c r="X1" s="14">
+        <v>24</v>
+      </c>
+      <c r="Y1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>44439.833333333336</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>44445.625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="1" customFormat="1">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="64"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="1" customFormat="1">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13">
+        <v>2</v>
+      </c>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14">
+        <v>3</v>
+      </c>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18">
+        <v>18</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>11</v>
+      </c>
+      <c r="R18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>12</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="64"/>
+      <c r="I21" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="64"/>
+      <c r="Q21" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="R21" s="64"/>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>1000</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22">
+        <v>5000</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>14</v>
+      </c>
+      <c r="R22">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>15</v>
+      </c>
+      <c r="R23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="20" customHeight="1">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>16</v>
+      </c>
+      <c r="U25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>99</v>
+      </c>
+      <c r="D28" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28">
+        <v>99</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>17</v>
+      </c>
+      <c r="R28">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>18</v>
+      </c>
+      <c r="U30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33">
+        <v>10</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>40</v>
+      </c>
+      <c r="R33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="I35" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="Q35" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="64"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="C36" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="K36" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="S36" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="T36" s="64"/>
+      <c r="U36" s="64"/>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>24</v>
+      </c>
+      <c r="R37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S37" t="s">
+        <v>0</v>
+      </c>
+      <c r="T37" t="s">
+        <v>21</v>
+      </c>
+      <c r="U37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38">
+        <v>-8</v>
+      </c>
+      <c r="B38">
+        <v>10086</v>
+      </c>
+      <c r="C38">
+        <v>431</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>6</v>
+      </c>
+      <c r="I38">
+        <v>-17</v>
+      </c>
+      <c r="J38">
+        <v>10086</v>
+      </c>
+      <c r="K38">
+        <v>441</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>6</v>
+      </c>
+      <c r="Q38">
+        <v>-28</v>
+      </c>
+      <c r="R38">
+        <v>10086</v>
+      </c>
+      <c r="S38">
+        <v>451</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39">
+        <v>-13</v>
+      </c>
+      <c r="B39">
+        <v>-9</v>
+      </c>
+      <c r="C39">
+        <v>432</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="I39">
+        <v>-20</v>
+      </c>
+      <c r="J39">
+        <v>-18</v>
+      </c>
+      <c r="K39">
+        <v>442</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>6</v>
+      </c>
+      <c r="Q39">
+        <v>-32</v>
+      </c>
+      <c r="R39">
+        <v>-29</v>
+      </c>
+      <c r="S39">
+        <v>452</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40">
+        <v>-17</v>
+      </c>
+      <c r="B40">
+        <v>-14</v>
+      </c>
+      <c r="C40">
+        <v>433</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="I40">
+        <v>-23</v>
+      </c>
+      <c r="J40">
+        <v>-21</v>
+      </c>
+      <c r="K40">
+        <v>443</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>6</v>
+      </c>
+      <c r="Q40">
+        <v>-35</v>
+      </c>
+      <c r="R40">
+        <v>-33</v>
+      </c>
+      <c r="S40">
+        <v>453</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41">
+        <v>-20</v>
+      </c>
+      <c r="B41">
+        <v>-18</v>
+      </c>
+      <c r="C41">
+        <v>434</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>-26</v>
+      </c>
+      <c r="J41">
+        <v>-24</v>
+      </c>
+      <c r="K41">
+        <v>444</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>6</v>
+      </c>
+      <c r="Q41">
+        <v>-38</v>
+      </c>
+      <c r="R41">
+        <v>-36</v>
+      </c>
+      <c r="S41">
+        <v>454</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42">
+        <v>-23</v>
+      </c>
+      <c r="B42">
+        <v>-21</v>
+      </c>
+      <c r="C42">
+        <v>435</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="I42">
+        <v>-29</v>
+      </c>
+      <c r="J42">
+        <v>-27</v>
+      </c>
+      <c r="K42">
+        <v>445</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>6</v>
+      </c>
+      <c r="Q42">
+        <v>-41</v>
+      </c>
+      <c r="R42">
+        <v>-39</v>
+      </c>
+      <c r="S42">
+        <v>455</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43">
+        <v>-26</v>
+      </c>
+      <c r="B43">
+        <v>-24</v>
+      </c>
+      <c r="C43">
+        <v>436</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="I43">
+        <v>-32</v>
+      </c>
+      <c r="J43">
+        <v>-30</v>
+      </c>
+      <c r="K43">
+        <v>446</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>6</v>
+      </c>
+      <c r="Q43">
+        <v>-44</v>
+      </c>
+      <c r="R43">
+        <v>-42</v>
+      </c>
+      <c r="S43">
+        <v>456</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44">
+        <v>-29</v>
+      </c>
+      <c r="B44">
+        <v>-27</v>
+      </c>
+      <c r="C44">
+        <v>437</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="I44">
+        <v>-35</v>
+      </c>
+      <c r="J44">
+        <v>-33</v>
+      </c>
+      <c r="K44">
+        <v>447</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>6</v>
+      </c>
+      <c r="Q44">
+        <v>-47</v>
+      </c>
+      <c r="R44">
+        <v>-45</v>
+      </c>
+      <c r="S44">
+        <v>457</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45">
+        <v>-10086</v>
+      </c>
+      <c r="B45">
+        <v>-30</v>
+      </c>
+      <c r="C45">
+        <v>438</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+      <c r="I45">
+        <v>-10086</v>
+      </c>
+      <c r="J45">
+        <v>-36</v>
+      </c>
+      <c r="K45">
+        <v>448</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>6</v>
+      </c>
+      <c r="Q45">
+        <v>-10086</v>
+      </c>
+      <c r="R45">
+        <v>-48</v>
+      </c>
+      <c r="S45">
+        <v>458</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>14</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>26</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53">
+        <v>120002</v>
+      </c>
+      <c r="I53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53">
+        <v>120002</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>27</v>
+      </c>
+      <c r="R53">
+        <v>120002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>15</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" t="s">
+        <v>39</v>
+      </c>
+      <c r="I56" t="s">
+        <v>28</v>
+      </c>
+      <c r="M56" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>28</v>
+      </c>
+      <c r="U56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="6">
+        <v>120021</v>
+      </c>
+      <c r="B57" s="6">
+        <v>120022</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="I57" s="6">
+        <v>120021</v>
+      </c>
+      <c r="J57" s="6">
+        <v>120022</v>
+      </c>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="Q57" s="6">
+        <v>120021</v>
+      </c>
+      <c r="R57" s="6">
+        <v>120022</v>
+      </c>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="I59" t="s">
+        <v>29</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>29</v>
+      </c>
+      <c r="R59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I61" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" s="72">
+        <v>20201210</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+      <c r="I62" s="72">
+        <v>20201212</v>
+      </c>
+      <c r="Q62" s="72">
+        <v>20201214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" s="72">
+        <v>20201010</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="D63" s="63"/>
+      <c r="E63" s="63"/>
+      <c r="I63" s="72">
+        <v>20201012</v>
+      </c>
+      <c r="Q63" s="72">
+        <v>20201014</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="72">
+        <v>2019010</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64" s="63"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="63"/>
+      <c r="I64" s="72">
+        <v>2019012</v>
+      </c>
+      <c r="Q64" s="72">
+        <v>2019014</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="20" customHeight="1">
+      <c r="A65" s="72">
+        <v>2008010</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65" s="63"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="63"/>
+      <c r="I65" s="72">
+        <v>2008012</v>
+      </c>
+      <c r="Q65" s="72">
+        <v>2008014</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="20" customHeight="1">
+      <c r="A66" s="72">
+        <v>5808</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="D66" s="63"/>
+      <c r="E66" s="63"/>
+      <c r="I66" s="72">
+        <v>5810</v>
+      </c>
+      <c r="Q66" s="72">
+        <v>5812</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="72">
+        <v>2018710</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67" s="63"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="63"/>
+      <c r="I67" s="72">
+        <v>2018712</v>
+      </c>
+      <c r="Q67" s="72">
+        <v>2018714</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="72">
+        <v>22307</v>
+      </c>
+      <c r="B68">
+        <v>7</v>
+      </c>
+      <c r="C68" s="63"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
+      <c r="I68" s="72">
+        <v>22309</v>
+      </c>
+      <c r="Q68" s="72">
+        <v>22311</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="72">
+        <v>5908</v>
+      </c>
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="D69" s="63"/>
+      <c r="E69" s="63"/>
+      <c r="I69" s="72">
+        <v>5910</v>
+      </c>
+      <c r="Q69" s="72">
+        <v>5912</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="72">
+        <v>2024310</v>
+      </c>
+      <c r="B70">
+        <v>9</v>
+      </c>
+      <c r="C70" s="63"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="63"/>
+      <c r="I70" s="72">
+        <v>2024312</v>
+      </c>
+      <c r="Q70" s="72">
+        <v>2024314</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="2">
+        <v>29110</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="I71" s="2">
+        <v>29112</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>29114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="2">
+        <v>2729210</v>
+      </c>
+      <c r="B72">
+        <v>11</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="I72" s="2">
+        <v>2729212</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>2729214</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="2">
+        <v>2729310</v>
+      </c>
+      <c r="B73">
+        <v>12</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="I73" s="2">
+        <v>2729312</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>29314</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="2">
+        <v>29410</v>
+      </c>
+      <c r="B74">
+        <v>13</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="I74" s="2">
+        <v>29412</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>2729414</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="2">
+        <v>29510</v>
+      </c>
+      <c r="B75">
+        <v>14</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="I75" s="2">
+        <v>29512</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>2729514</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="2">
+        <v>29810</v>
+      </c>
+      <c r="B76">
+        <v>15</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="I76" s="2">
+        <v>29812</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>2729814</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="2">
+        <v>202109</v>
+      </c>
+      <c r="B77">
+        <v>16</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="I77" s="2">
+        <v>202111</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>202113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="2">
+        <v>202309</v>
+      </c>
+      <c r="B78">
+        <v>17</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="I78" s="2">
+        <v>202311</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>202313</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="2">
+        <v>202009</v>
+      </c>
+      <c r="B79">
+        <v>18</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="I79" s="2">
+        <v>202011</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>202013</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22">
+      <c r="A81" s="71"/>
+    </row>
+    <row r="89" spans="1:22">
+      <c r="A89" t="s">
+        <v>41</v>
+      </c>
+      <c r="I89" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22">
+      <c r="A92" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B92" s="68"/>
+      <c r="C92" s="68"/>
+      <c r="D92" s="68"/>
+      <c r="E92" s="68"/>
+      <c r="F92" s="68"/>
+      <c r="I92" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="J92" s="69"/>
+      <c r="K92" s="69"/>
+      <c r="L92" s="69"/>
+      <c r="M92" s="69"/>
+      <c r="N92" s="69"/>
+      <c r="Q92" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="R92" s="70"/>
+      <c r="S92" s="70"/>
+      <c r="T92" s="70"/>
+      <c r="U92" s="70"/>
+      <c r="V92" s="70"/>
+    </row>
+    <row r="93" spans="1:22">
+      <c r="A93" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B93" s="37"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="38"/>
+      <c r="I93" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="J93" s="45"/>
+      <c r="K93" s="45"/>
+      <c r="L93" s="45"/>
+      <c r="M93" s="45"/>
+      <c r="N93" s="46"/>
+      <c r="Q93" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="R93" s="53"/>
+      <c r="S93" s="53"/>
+      <c r="T93" s="53"/>
+      <c r="U93" s="53"/>
+      <c r="V93" s="54"/>
+    </row>
+    <row r="94" spans="1:22">
+      <c r="A94" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B94" s="39">
+        <v>0</v>
+      </c>
+      <c r="C94" s="40"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="40"/>
+      <c r="F94" s="41"/>
+      <c r="I94" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="J94" s="47">
+        <v>0</v>
+      </c>
+      <c r="K94" s="48"/>
+      <c r="L94" s="48"/>
+      <c r="M94" s="48"/>
+      <c r="N94" s="49"/>
+      <c r="Q94" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="R94" s="55">
+        <v>0</v>
+      </c>
+      <c r="S94" s="56"/>
+      <c r="T94" s="56"/>
+      <c r="U94" s="56"/>
+      <c r="V94" s="57"/>
+    </row>
+    <row r="95" spans="1:22">
+      <c r="A95" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B95" s="39">
+        <v>1</v>
+      </c>
+      <c r="C95" s="40"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="42"/>
+      <c r="I95" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="J95" s="47">
+        <v>1</v>
+      </c>
+      <c r="K95" s="48"/>
+      <c r="L95" s="48"/>
+      <c r="M95" s="48"/>
+      <c r="N95" s="50"/>
+      <c r="Q95" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="R95" s="55">
+        <v>1</v>
+      </c>
+      <c r="S95" s="56"/>
+      <c r="T95" s="56"/>
+      <c r="U95" s="56"/>
+      <c r="V95" s="58"/>
+    </row>
+    <row r="96" spans="1:22">
+      <c r="A96" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="B96" s="68"/>
+      <c r="C96" s="68"/>
+      <c r="D96" s="68"/>
+      <c r="E96" s="68"/>
+      <c r="F96" s="68"/>
+      <c r="I96" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="J96" s="69"/>
+      <c r="K96" s="69"/>
+      <c r="L96" s="69"/>
+      <c r="M96" s="69"/>
+      <c r="N96" s="69"/>
+      <c r="Q96" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="R96" s="70"/>
+      <c r="S96" s="70"/>
+      <c r="T96" s="70"/>
+      <c r="U96" s="70"/>
+      <c r="V96" s="70"/>
+    </row>
+    <row r="97" spans="1:26">
+      <c r="A97" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B97" s="43">
+        <v>0</v>
+      </c>
+      <c r="C97" s="43">
+        <v>2</v>
+      </c>
+      <c r="D97" s="43">
+        <v>4</v>
+      </c>
+      <c r="E97" s="43">
+        <v>6</v>
+      </c>
+      <c r="F97" s="43">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="J97" s="51">
+        <v>0</v>
+      </c>
+      <c r="K97" s="51">
+        <v>2</v>
+      </c>
+      <c r="L97" s="51">
+        <v>4</v>
+      </c>
+      <c r="M97" s="51">
+        <v>6</v>
+      </c>
+      <c r="N97" s="51">
+        <v>10</v>
+      </c>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="R97" s="59">
+        <v>0</v>
+      </c>
+      <c r="S97" s="59">
+        <v>2</v>
+      </c>
+      <c r="T97" s="59">
+        <v>4</v>
+      </c>
+      <c r="U97" s="59">
+        <v>6</v>
+      </c>
+      <c r="V97" s="59">
+        <v>10</v>
+      </c>
+      <c r="W97" s="2"/>
+      <c r="X97" s="2"/>
+      <c r="Y97" s="2"/>
+      <c r="Z97" s="2"/>
+    </row>
+    <row r="98" spans="1:26">
+      <c r="A98" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B98" s="43">
+        <v>110271</v>
+      </c>
+      <c r="C98" s="43">
+        <v>110272</v>
+      </c>
+      <c r="D98" s="43">
+        <v>110273</v>
+      </c>
+      <c r="E98" s="43">
+        <v>110274</v>
+      </c>
+      <c r="F98" s="43">
+        <v>110275</v>
+      </c>
+      <c r="I98" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="J98" s="51">
+        <v>110271</v>
+      </c>
+      <c r="K98" s="51">
+        <v>110272</v>
+      </c>
+      <c r="L98" s="51">
+        <v>110273</v>
+      </c>
+      <c r="M98" s="51">
+        <v>110274</v>
+      </c>
+      <c r="N98" s="51">
+        <v>110275</v>
+      </c>
+      <c r="Q98" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="R98" s="59">
+        <v>110271</v>
+      </c>
+      <c r="S98" s="59">
+        <v>110272</v>
+      </c>
+      <c r="T98" s="59">
+        <v>110273</v>
+      </c>
+      <c r="U98" s="59">
+        <v>110274</v>
+      </c>
+      <c r="V98" s="59">
+        <v>110275</v>
+      </c>
+      <c r="W98" s="2"/>
+      <c r="X98" s="2"/>
+      <c r="Y98" s="2"/>
+    </row>
+    <row r="99" spans="1:26">
+      <c r="A99" s="15"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="19"/>
+      <c r="I99" s="26"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="22"/>
+      <c r="L99" s="22"/>
+      <c r="M99" s="22"/>
+      <c r="N99" s="27"/>
+      <c r="O99" s="20"/>
+      <c r="Q99" s="34"/>
+      <c r="R99" s="30"/>
+      <c r="S99" s="30"/>
+      <c r="T99" s="30"/>
+      <c r="U99" s="30"/>
+      <c r="V99" s="35"/>
+    </row>
+    <row r="100" spans="1:26">
+      <c r="A100" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B100" s="11">
+        <v>100</v>
+      </c>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="17"/>
+      <c r="I100" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="J100" s="21">
+        <v>100</v>
+      </c>
+      <c r="K100" s="22"/>
+      <c r="L100" s="22"/>
+      <c r="M100" s="22"/>
+      <c r="N100" s="23"/>
+      <c r="Q100" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="R100" s="29">
+        <v>100</v>
+      </c>
+      <c r="S100" s="30"/>
+      <c r="T100" s="30"/>
+      <c r="U100" s="30"/>
+      <c r="V100" s="31"/>
+    </row>
+    <row r="101" spans="1:26">
+      <c r="A101" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B101" s="16">
+        <v>2</v>
+      </c>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="18"/>
+      <c r="I101" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="J101" s="28">
+        <v>2</v>
+      </c>
+      <c r="K101" s="22"/>
+      <c r="L101" s="22"/>
+      <c r="M101" s="22"/>
+      <c r="N101" s="24"/>
+      <c r="Q101" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="R101" s="36">
+        <v>2</v>
+      </c>
+      <c r="S101" s="30"/>
+      <c r="T101" s="30"/>
+      <c r="U101" s="30"/>
+      <c r="V101" s="32"/>
+    </row>
+    <row r="102" spans="1:26">
+      <c r="A102" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="B102" s="65"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="65"/>
+      <c r="E102" s="65"/>
+      <c r="F102" s="65"/>
+      <c r="I102" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="J102" s="66"/>
+      <c r="K102" s="66"/>
+      <c r="L102" s="66"/>
+      <c r="M102" s="66"/>
+      <c r="N102" s="66"/>
+      <c r="Q102" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="R102" s="67"/>
+      <c r="S102" s="67"/>
+      <c r="T102" s="67"/>
+      <c r="U102" s="67"/>
+      <c r="V102" s="67"/>
+    </row>
+    <row r="103" spans="1:26">
+      <c r="A103" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B103" s="10">
+        <v>0</v>
+      </c>
+      <c r="C103" s="10">
+        <v>2</v>
+      </c>
+      <c r="D103" s="10">
+        <v>4</v>
+      </c>
+      <c r="E103" s="10">
+        <v>6</v>
+      </c>
+      <c r="F103" s="10">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J103" s="25">
+        <v>0</v>
+      </c>
+      <c r="K103" s="25">
+        <v>2</v>
+      </c>
+      <c r="L103" s="25">
+        <v>4</v>
+      </c>
+      <c r="M103" s="25">
+        <v>6</v>
+      </c>
+      <c r="N103" s="25">
+        <v>10</v>
+      </c>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="R103" s="33">
+        <v>0</v>
+      </c>
+      <c r="S103" s="33">
+        <v>2</v>
+      </c>
+      <c r="T103" s="33">
+        <v>4</v>
+      </c>
+      <c r="U103" s="33">
+        <v>6</v>
+      </c>
+      <c r="V103" s="33">
+        <v>10</v>
+      </c>
+      <c r="W103" s="2"/>
+      <c r="X103" s="2"/>
+      <c r="Y103" s="2"/>
+      <c r="Z103" s="2"/>
+    </row>
+    <row r="104" spans="1:26">
+      <c r="A104" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B104" s="10">
+        <v>110271</v>
+      </c>
+      <c r="C104" s="10">
+        <v>110272</v>
+      </c>
+      <c r="D104" s="10">
+        <v>110273</v>
+      </c>
+      <c r="E104" s="10">
+        <v>110274</v>
+      </c>
+      <c r="F104" s="10">
+        <v>110275</v>
+      </c>
+      <c r="I104" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J104" s="25">
+        <v>110271</v>
+      </c>
+      <c r="K104" s="25">
+        <v>110272</v>
+      </c>
+      <c r="L104" s="25">
+        <v>110273</v>
+      </c>
+      <c r="M104" s="25">
+        <v>110274</v>
+      </c>
+      <c r="N104" s="25">
+        <v>110275</v>
+      </c>
+      <c r="Q104" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="R104" s="33">
+        <v>110271</v>
+      </c>
+      <c r="S104" s="33">
+        <v>110272</v>
+      </c>
+      <c r="T104" s="33">
+        <v>110273</v>
+      </c>
+      <c r="U104" s="33">
+        <v>110274</v>
+      </c>
+      <c r="V104" s="33">
+        <v>110275</v>
+      </c>
+      <c r="W104" s="2"/>
+      <c r="X104" s="2"/>
+      <c r="Y104" s="2"/>
+    </row>
+    <row r="105" spans="1:26">
+      <c r="A105" s="9"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="19"/>
+      <c r="I105" s="61"/>
+      <c r="J105" s="60"/>
+      <c r="K105" s="60"/>
+      <c r="L105" s="60"/>
+      <c r="M105" s="60"/>
+      <c r="N105" s="27"/>
+      <c r="Q105" s="62"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="35"/>
+    </row>
+    <row r="106" spans="1:26">
+      <c r="A106" s="11"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="17"/>
+      <c r="I106" s="21"/>
+      <c r="J106" s="21"/>
+      <c r="K106" s="22"/>
+      <c r="L106" s="22"/>
+      <c r="M106" s="22"/>
+      <c r="N106" s="23"/>
+      <c r="Q106" s="29"/>
+      <c r="R106" s="29"/>
+      <c r="S106" s="30"/>
+      <c r="T106" s="30"/>
+      <c r="U106" s="30"/>
+      <c r="V106" s="31"/>
+    </row>
+    <row r="107" spans="1:26">
+      <c r="A107" s="16"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="18"/>
+      <c r="I107" s="28"/>
+      <c r="J107" s="28"/>
+      <c r="K107" s="22"/>
+      <c r="L107" s="22"/>
+      <c r="M107" s="22"/>
+      <c r="N107" s="24"/>
+      <c r="Q107" s="36"/>
+      <c r="R107" s="36"/>
+      <c r="S107" s="30"/>
+      <c r="T107" s="30"/>
+      <c r="U107" s="30"/>
+      <c r="V107" s="32"/>
+    </row>
+    <row r="108" spans="1:26">
+      <c r="A108" s="65"/>
+      <c r="B108" s="65"/>
+      <c r="C108" s="65"/>
+      <c r="D108" s="65"/>
+      <c r="E108" s="65"/>
+      <c r="F108" s="65"/>
+      <c r="I108" s="66"/>
+      <c r="J108" s="66"/>
+      <c r="K108" s="66"/>
+      <c r="L108" s="66"/>
+      <c r="M108" s="66"/>
+      <c r="N108" s="66"/>
+      <c r="Q108" s="67"/>
+      <c r="R108" s="67"/>
+      <c r="S108" s="67"/>
+      <c r="T108" s="67"/>
+      <c r="U108" s="67"/>
+      <c r="V108" s="67"/>
+    </row>
+    <row r="109" spans="1:26">
+      <c r="A109" s="10"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="I109" s="25"/>
+      <c r="J109" s="25"/>
+      <c r="K109" s="25"/>
+      <c r="L109" s="25"/>
+      <c r="M109" s="25"/>
+      <c r="N109" s="25"/>
+      <c r="Q109" s="33"/>
+      <c r="R109" s="33"/>
+      <c r="S109" s="33"/>
+      <c r="T109" s="33"/>
+      <c r="U109" s="33"/>
+      <c r="V109" s="33"/>
+    </row>
+    <row r="110" spans="1:26">
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="I110" s="25"/>
+      <c r="J110" s="25"/>
+      <c r="K110" s="25"/>
+      <c r="L110" s="25"/>
+      <c r="M110" s="25"/>
+      <c r="N110" s="25"/>
+      <c r="Q110" s="33"/>
+      <c r="R110" s="33"/>
+      <c r="S110" s="33"/>
+      <c r="T110" s="33"/>
+      <c r="U110" s="33"/>
+      <c r="V110" s="33"/>
+    </row>
+    <row r="120" spans="1:18">
+      <c r="A120" t="s">
+        <v>33</v>
+      </c>
+      <c r="B120">
+        <v>39391</v>
+      </c>
+      <c r="I120" t="s">
+        <v>33</v>
+      </c>
+      <c r="J120">
+        <v>39392</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>33</v>
+      </c>
+      <c r="R120">
+        <v>39393</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18">
+      <c r="A121" t="s">
+        <v>34</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="I121" t="s">
+        <v>34</v>
+      </c>
+      <c r="J121">
+        <v>2</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>34</v>
+      </c>
+      <c r="R121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18">
+      <c r="A122" t="s">
+        <v>22</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="I122" t="s">
+        <v>22</v>
+      </c>
+      <c r="J122">
+        <v>2</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>22</v>
+      </c>
+      <c r="R122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18">
+      <c r="A123" t="s">
+        <v>35</v>
+      </c>
+      <c r="B123">
+        <v>9</v>
+      </c>
+      <c r="I123" t="s">
+        <v>35</v>
+      </c>
+      <c r="J123">
+        <v>12</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>35</v>
+      </c>
+      <c r="R123">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18">
+      <c r="A124" t="s">
+        <v>36</v>
+      </c>
+      <c r="B124">
+        <v>5</v>
+      </c>
+      <c r="I124" t="s">
+        <v>36</v>
+      </c>
+      <c r="J124">
+        <v>6</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>36</v>
+      </c>
+      <c r="R124">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="Q35:U35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="I92:N92"/>
+    <mergeCell ref="Q92:V92"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="I108:N108"/>
+    <mergeCell ref="Q108:V108"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="I96:N96"/>
+    <mergeCell ref="Q96:V96"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="I102:N102"/>
+    <mergeCell ref="Q102:V102"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y99"/>
@@ -2759,10 +4912,10 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="64"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
@@ -2874,18 +5027,18 @@
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="I21" s="9" t="s">
+      <c r="B21" s="64"/>
+      <c r="I21" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="Q21" s="9" t="s">
+      <c r="J21" s="64"/>
+      <c r="Q21" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="R21" s="9"/>
+      <c r="R21" s="64"/>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
@@ -3049,44 +5202,44 @@
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="I35" s="9" t="s">
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="I35" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="Q35" s="9" t="s">
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="Q35" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="64"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="K36" s="9" t="s">
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="K36" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="S36" s="9" t="s">
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="S36" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
+      <c r="T36" s="64"/>
+      <c r="U36" s="64"/>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" t="s">
@@ -3838,24 +5991,24 @@
       </c>
     </row>
     <row r="91" spans="1:22">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="I91" s="9" t="s">
+      <c r="B91" s="64"/>
+      <c r="C91" s="64"/>
+      <c r="D91" s="64"/>
+      <c r="I91" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
-      <c r="Q91" s="9" t="s">
+      <c r="J91" s="64"/>
+      <c r="K91" s="64"/>
+      <c r="L91" s="64"/>
+      <c r="Q91" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="R91" s="9"/>
-      <c r="S91" s="9"/>
-      <c r="T91" s="9"/>
+      <c r="R91" s="64"/>
+      <c r="S91" s="64"/>
+      <c r="T91" s="64"/>
     </row>
     <row r="92" spans="1:22">
       <c r="A92" t="s">
@@ -4232,10 +6385,10 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="64"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
@@ -4347,18 +6500,18 @@
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="I21" s="9" t="s">
+      <c r="B21" s="64"/>
+      <c r="I21" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="Q21" s="9" t="s">
+      <c r="J21" s="64"/>
+      <c r="Q21" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="R21" s="9"/>
+      <c r="R21" s="64"/>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
@@ -4522,44 +6675,44 @@
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="I35" s="9" t="s">
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="I35" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="Q35" s="9" t="s">
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="Q35" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="64"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="K36" s="9" t="s">
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="K36" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="S36" s="9" t="s">
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="S36" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
+      <c r="T36" s="64"/>
+      <c r="U36" s="64"/>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" t="s">
@@ -5311,24 +7464,24 @@
       </c>
     </row>
     <row r="91" spans="1:22">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="I91" s="9" t="s">
+      <c r="B91" s="64"/>
+      <c r="C91" s="64"/>
+      <c r="D91" s="64"/>
+      <c r="I91" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
-      <c r="Q91" s="9" t="s">
+      <c r="J91" s="64"/>
+      <c r="K91" s="64"/>
+      <c r="L91" s="64"/>
+      <c r="Q91" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="R91" s="9"/>
-      <c r="S91" s="9"/>
-      <c r="T91" s="9"/>
+      <c r="R91" s="64"/>
+      <c r="S91" s="64"/>
+      <c r="T91" s="64"/>
     </row>
     <row r="92" spans="1:22">
       <c r="A92" t="s">
@@ -5705,10 +7858,10 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="64"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
@@ -5820,18 +7973,18 @@
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="I21" s="9" t="s">
+      <c r="B21" s="64"/>
+      <c r="I21" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="Q21" s="9" t="s">
+      <c r="J21" s="64"/>
+      <c r="Q21" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="R21" s="9"/>
+      <c r="R21" s="64"/>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
@@ -5995,44 +8148,44 @@
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="I35" s="9" t="s">
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="I35" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="Q35" s="9" t="s">
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="Q35" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="64"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="K36" s="9" t="s">
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="K36" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="S36" s="9" t="s">
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="S36" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
+      <c r="T36" s="64"/>
+      <c r="U36" s="64"/>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" t="s">
@@ -6842,24 +8995,24 @@
       </c>
     </row>
     <row r="91" spans="1:26">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="I91" s="9" t="s">
+      <c r="B91" s="64"/>
+      <c r="C91" s="64"/>
+      <c r="D91" s="64"/>
+      <c r="I91" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
-      <c r="Q91" s="9" t="s">
+      <c r="J91" s="64"/>
+      <c r="K91" s="64"/>
+      <c r="L91" s="64"/>
+      <c r="Q91" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="R91" s="9"/>
-      <c r="S91" s="9"/>
-      <c r="T91" s="9"/>
+      <c r="R91" s="64"/>
+      <c r="S91" s="64"/>
+      <c r="T91" s="64"/>
     </row>
     <row r="92" spans="1:26">
       <c r="A92" s="8" t="s">
@@ -7252,10 +9405,10 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="64"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
@@ -7373,18 +9526,18 @@
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="I21" s="9" t="s">
+      <c r="B21" s="64"/>
+      <c r="I21" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="Q21" s="9" t="s">
+      <c r="J21" s="64"/>
+      <c r="Q21" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="R21" s="9"/>
+      <c r="R21" s="64"/>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
@@ -7557,44 +9710,44 @@
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="I35" s="9" t="s">
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="I35" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="Q35" s="9" t="s">
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="Q35" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="64"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="K36" s="9" t="s">
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="K36" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="S36" s="9" t="s">
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="S36" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
+      <c r="T36" s="64"/>
+      <c r="U36" s="64"/>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" t="s">
@@ -8400,24 +10553,24 @@
       </c>
     </row>
     <row r="91" spans="1:26">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="I91" s="9" t="s">
+      <c r="B91" s="64"/>
+      <c r="C91" s="64"/>
+      <c r="D91" s="64"/>
+      <c r="I91" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
-      <c r="Q91" s="9" t="s">
+      <c r="J91" s="64"/>
+      <c r="K91" s="64"/>
+      <c r="L91" s="64"/>
+      <c r="Q91" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="R91" s="9"/>
-      <c r="S91" s="9"/>
-      <c r="T91" s="9"/>
+      <c r="R91" s="64"/>
+      <c r="S91" s="64"/>
+      <c r="T91" s="64"/>
     </row>
     <row r="92" spans="1:26">
       <c r="A92" s="8" t="s">
@@ -8806,10 +10959,10 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="64"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
@@ -8921,18 +11074,18 @@
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="I21" s="9" t="s">
+      <c r="B21" s="64"/>
+      <c r="I21" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="Q21" s="9" t="s">
+      <c r="J21" s="64"/>
+      <c r="Q21" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="R21" s="9"/>
+      <c r="R21" s="64"/>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
@@ -9096,44 +11249,44 @@
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="I35" s="9" t="s">
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="I35" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="Q35" s="9" t="s">
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="Q35" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="64"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="K36" s="9" t="s">
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="K36" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="S36" s="9" t="s">
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="S36" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
+      <c r="T36" s="64"/>
+      <c r="U36" s="64"/>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" t="s">
@@ -9885,24 +12038,24 @@
       </c>
     </row>
     <row r="91" spans="1:22">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="I91" s="9" t="s">
+      <c r="B91" s="64"/>
+      <c r="C91" s="64"/>
+      <c r="D91" s="64"/>
+      <c r="I91" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
-      <c r="Q91" s="9" t="s">
+      <c r="J91" s="64"/>
+      <c r="K91" s="64"/>
+      <c r="L91" s="64"/>
+      <c r="Q91" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="R91" s="9"/>
-      <c r="S91" s="9"/>
-      <c r="T91" s="9"/>
+      <c r="R91" s="64"/>
+      <c r="S91" s="64"/>
+      <c r="T91" s="64"/>
     </row>
     <row r="92" spans="1:22">
       <c r="A92" t="s">
@@ -10143,7 +12296,7 @@
   <dimension ref="A1:Y99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="A10" sqref="A10:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="19"/>
@@ -10280,10 +12433,10 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="64"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
@@ -10395,18 +12548,18 @@
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="I21" s="9" t="s">
+      <c r="B21" s="64"/>
+      <c r="I21" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="Q21" s="9" t="s">
+      <c r="J21" s="64"/>
+      <c r="Q21" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="R21" s="9"/>
+      <c r="R21" s="64"/>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
@@ -10570,44 +12723,44 @@
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="I35" s="9" t="s">
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="I35" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="Q35" s="9" t="s">
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="Q35" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="64"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="K36" s="9" t="s">
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="K36" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="S36" s="9" t="s">
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="S36" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
+      <c r="T36" s="64"/>
+      <c r="U36" s="64"/>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" t="s">
@@ -11359,24 +13512,24 @@
       </c>
     </row>
     <row r="91" spans="1:22">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="I91" s="9" t="s">
+      <c r="B91" s="64"/>
+      <c r="C91" s="64"/>
+      <c r="D91" s="64"/>
+      <c r="I91" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
-      <c r="Q91" s="9" t="s">
+      <c r="J91" s="64"/>
+      <c r="K91" s="64"/>
+      <c r="L91" s="64"/>
+      <c r="Q91" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="R91" s="9"/>
-      <c r="S91" s="9"/>
-      <c r="T91" s="9"/>
+      <c r="R91" s="64"/>
+      <c r="S91" s="64"/>
+      <c r="T91" s="64"/>
     </row>
     <row r="92" spans="1:22">
       <c r="A92" t="s">
@@ -11616,9 +13769,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Z124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G111" sqref="G111"/>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="19"/>
@@ -11629,76 +13782,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="13">
-        <v>1</v>
-      </c>
-      <c r="B1" s="13">
+      <c r="A1" s="12">
+        <v>1</v>
+      </c>
+      <c r="B1" s="12">
         <v>2</v>
       </c>
-      <c r="C1" s="13">
+      <c r="C1" s="12">
         <v>3</v>
       </c>
-      <c r="D1" s="13">
+      <c r="D1" s="12">
         <v>4</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="12">
         <v>5</v>
       </c>
-      <c r="F1" s="13">
-        <v>6</v>
-      </c>
-      <c r="G1" s="13">
+      <c r="F1" s="12">
+        <v>6</v>
+      </c>
+      <c r="G1" s="12">
         <v>7</v>
       </c>
-      <c r="H1" s="13">
+      <c r="H1" s="12">
         <v>8</v>
       </c>
-      <c r="I1" s="14">
+      <c r="I1" s="13">
         <v>9</v>
       </c>
-      <c r="J1" s="14">
+      <c r="J1" s="13">
         <v>10</v>
       </c>
-      <c r="K1" s="14">
+      <c r="K1" s="13">
         <v>11</v>
       </c>
-      <c r="L1" s="14">
+      <c r="L1" s="13">
         <v>12</v>
       </c>
-      <c r="M1" s="14">
+      <c r="M1" s="13">
         <v>13</v>
       </c>
-      <c r="N1" s="14">
+      <c r="N1" s="13">
         <v>14</v>
       </c>
-      <c r="O1" s="14">
+      <c r="O1" s="13">
         <v>15</v>
       </c>
-      <c r="P1" s="14">
+      <c r="P1" s="13">
         <v>16</v>
       </c>
-      <c r="Q1" s="15">
+      <c r="Q1" s="14">
         <v>17</v>
       </c>
-      <c r="R1" s="15">
+      <c r="R1" s="14">
         <v>18</v>
       </c>
-      <c r="S1" s="15">
+      <c r="S1" s="14">
         <v>19</v>
       </c>
-      <c r="T1" s="15">
+      <c r="T1" s="14">
         <v>20</v>
       </c>
-      <c r="U1" s="15">
+      <c r="U1" s="14">
         <v>21</v>
       </c>
-      <c r="V1" s="15">
+      <c r="V1" s="14">
         <v>22</v>
       </c>
-      <c r="W1" s="15">
+      <c r="W1" s="14">
         <v>23</v>
       </c>
-      <c r="X1" s="15">
+      <c r="X1" s="14">
         <v>24</v>
       </c>
       <c r="Y1">
@@ -11760,10 +13913,10 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="64"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
@@ -11803,36 +13956,36 @@
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13">
-        <v>1</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13">
         <v>2</v>
       </c>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15">
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14">
         <v>3</v>
       </c>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
     </row>
     <row r="18" spans="1:24">
       <c r="A18" t="s">
@@ -11881,18 +14034,18 @@
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="I21" s="9" t="s">
+      <c r="B21" s="64"/>
+      <c r="I21" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="Q21" s="9" t="s">
+      <c r="J21" s="64"/>
+      <c r="Q21" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="R21" s="9"/>
+      <c r="R21" s="64"/>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
@@ -12065,44 +14218,44 @@
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="I35" s="9" t="s">
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="I35" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="Q35" s="9" t="s">
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="Q35" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="64"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="K36" s="9" t="s">
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="K36" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="S36" s="9" t="s">
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="S36" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
+      <c r="T36" s="64"/>
+      <c r="U36" s="64"/>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" t="s">
@@ -12908,204 +15061,204 @@
       </c>
     </row>
     <row r="92" spans="1:22">
-      <c r="A92" s="41" t="s">
+      <c r="A92" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="B92" s="41"/>
-      <c r="C92" s="41"/>
-      <c r="D92" s="41"/>
-      <c r="E92" s="41"/>
-      <c r="F92" s="41"/>
-      <c r="I92" s="49" t="s">
+      <c r="B92" s="68"/>
+      <c r="C92" s="68"/>
+      <c r="D92" s="68"/>
+      <c r="E92" s="68"/>
+      <c r="F92" s="68"/>
+      <c r="I92" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="J92" s="49"/>
-      <c r="K92" s="49"/>
-      <c r="L92" s="49"/>
-      <c r="M92" s="49"/>
-      <c r="N92" s="49"/>
-      <c r="Q92" s="58" t="s">
+      <c r="J92" s="69"/>
+      <c r="K92" s="69"/>
+      <c r="L92" s="69"/>
+      <c r="M92" s="69"/>
+      <c r="N92" s="69"/>
+      <c r="Q92" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="R92" s="58"/>
-      <c r="S92" s="58"/>
-      <c r="T92" s="58"/>
-      <c r="U92" s="58"/>
-      <c r="V92" s="58"/>
+      <c r="R92" s="70"/>
+      <c r="S92" s="70"/>
+      <c r="T92" s="70"/>
+      <c r="U92" s="70"/>
+      <c r="V92" s="70"/>
     </row>
     <row r="93" spans="1:22">
-      <c r="A93" s="42" t="s">
+      <c r="A93" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="B93" s="42"/>
-      <c r="C93" s="42"/>
-      <c r="D93" s="42"/>
-      <c r="E93" s="42"/>
-      <c r="F93" s="43"/>
-      <c r="I93" s="50" t="s">
+      <c r="B93" s="37"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="38"/>
+      <c r="I93" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="J93" s="51"/>
-      <c r="K93" s="51"/>
-      <c r="L93" s="51"/>
-      <c r="M93" s="51"/>
-      <c r="N93" s="52"/>
-      <c r="Q93" s="59" t="s">
+      <c r="J93" s="45"/>
+      <c r="K93" s="45"/>
+      <c r="L93" s="45"/>
+      <c r="M93" s="45"/>
+      <c r="N93" s="46"/>
+      <c r="Q93" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="R93" s="60"/>
-      <c r="S93" s="60"/>
-      <c r="T93" s="60"/>
-      <c r="U93" s="60"/>
-      <c r="V93" s="61"/>
+      <c r="R93" s="53"/>
+      <c r="S93" s="53"/>
+      <c r="T93" s="53"/>
+      <c r="U93" s="53"/>
+      <c r="V93" s="54"/>
     </row>
     <row r="94" spans="1:22">
-      <c r="A94" s="44" t="s">
+      <c r="A94" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="44">
+      <c r="B94" s="39">
         <v>0</v>
       </c>
-      <c r="C94" s="45"/>
-      <c r="D94" s="45"/>
-      <c r="E94" s="45"/>
-      <c r="F94" s="46"/>
-      <c r="I94" s="53" t="s">
+      <c r="C94" s="40"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="40"/>
+      <c r="F94" s="41"/>
+      <c r="I94" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="J94" s="53">
+      <c r="J94" s="47">
         <v>0</v>
       </c>
-      <c r="K94" s="54"/>
-      <c r="L94" s="54"/>
-      <c r="M94" s="54"/>
-      <c r="N94" s="55"/>
-      <c r="Q94" s="62" t="s">
+      <c r="K94" s="48"/>
+      <c r="L94" s="48"/>
+      <c r="M94" s="48"/>
+      <c r="N94" s="49"/>
+      <c r="Q94" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="R94" s="62">
+      <c r="R94" s="55">
         <v>0</v>
       </c>
-      <c r="S94" s="63"/>
-      <c r="T94" s="63"/>
-      <c r="U94" s="63"/>
-      <c r="V94" s="64"/>
+      <c r="S94" s="56"/>
+      <c r="T94" s="56"/>
+      <c r="U94" s="56"/>
+      <c r="V94" s="57"/>
     </row>
     <row r="95" spans="1:22">
-      <c r="A95" s="44" t="s">
+      <c r="A95" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B95" s="44">
-        <v>1</v>
-      </c>
-      <c r="C95" s="45"/>
-      <c r="D95" s="45"/>
-      <c r="E95" s="45"/>
-      <c r="F95" s="47"/>
-      <c r="I95" s="53" t="s">
+      <c r="B95" s="39">
+        <v>1</v>
+      </c>
+      <c r="C95" s="40"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="42"/>
+      <c r="I95" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="J95" s="53">
-        <v>1</v>
-      </c>
-      <c r="K95" s="54"/>
-      <c r="L95" s="54"/>
-      <c r="M95" s="54"/>
-      <c r="N95" s="56"/>
-      <c r="Q95" s="62" t="s">
+      <c r="J95" s="47">
+        <v>1</v>
+      </c>
+      <c r="K95" s="48"/>
+      <c r="L95" s="48"/>
+      <c r="M95" s="48"/>
+      <c r="N95" s="50"/>
+      <c r="Q95" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="R95" s="62">
-        <v>1</v>
-      </c>
-      <c r="S95" s="63"/>
-      <c r="T95" s="63"/>
-      <c r="U95" s="63"/>
-      <c r="V95" s="65"/>
+      <c r="R95" s="55">
+        <v>1</v>
+      </c>
+      <c r="S95" s="56"/>
+      <c r="T95" s="56"/>
+      <c r="U95" s="56"/>
+      <c r="V95" s="58"/>
     </row>
     <row r="96" spans="1:22">
-      <c r="A96" s="41" t="s">
+      <c r="A96" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="B96" s="41"/>
-      <c r="C96" s="41"/>
-      <c r="D96" s="41"/>
-      <c r="E96" s="41"/>
-      <c r="F96" s="41"/>
-      <c r="I96" s="49" t="s">
+      <c r="B96" s="68"/>
+      <c r="C96" s="68"/>
+      <c r="D96" s="68"/>
+      <c r="E96" s="68"/>
+      <c r="F96" s="68"/>
+      <c r="I96" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="J96" s="49"/>
-      <c r="K96" s="49"/>
-      <c r="L96" s="49"/>
-      <c r="M96" s="49"/>
-      <c r="N96" s="49"/>
-      <c r="Q96" s="58" t="s">
+      <c r="J96" s="69"/>
+      <c r="K96" s="69"/>
+      <c r="L96" s="69"/>
+      <c r="M96" s="69"/>
+      <c r="N96" s="69"/>
+      <c r="Q96" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="R96" s="58"/>
-      <c r="S96" s="58"/>
-      <c r="T96" s="58"/>
-      <c r="U96" s="58"/>
-      <c r="V96" s="58"/>
+      <c r="R96" s="70"/>
+      <c r="S96" s="70"/>
+      <c r="T96" s="70"/>
+      <c r="U96" s="70"/>
+      <c r="V96" s="70"/>
     </row>
     <row r="97" spans="1:26">
-      <c r="A97" s="48" t="s">
+      <c r="A97" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B97" s="48">
+      <c r="B97" s="43">
         <v>0</v>
       </c>
-      <c r="C97" s="48">
+      <c r="C97" s="43">
         <v>2</v>
       </c>
-      <c r="D97" s="48">
+      <c r="D97" s="43">
         <v>4</v>
       </c>
-      <c r="E97" s="48">
-        <v>6</v>
-      </c>
-      <c r="F97" s="48">
+      <c r="E97" s="43">
+        <v>6</v>
+      </c>
+      <c r="F97" s="43">
         <v>10</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
-      <c r="I97" s="57" t="s">
+      <c r="I97" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="J97" s="57">
+      <c r="J97" s="51">
         <v>0</v>
       </c>
-      <c r="K97" s="57">
+      <c r="K97" s="51">
         <v>2</v>
       </c>
-      <c r="L97" s="57">
+      <c r="L97" s="51">
         <v>4</v>
       </c>
-      <c r="M97" s="57">
-        <v>6</v>
-      </c>
-      <c r="N97" s="57">
+      <c r="M97" s="51">
+        <v>6</v>
+      </c>
+      <c r="N97" s="51">
         <v>10</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
-      <c r="Q97" s="66" t="s">
+      <c r="Q97" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="R97" s="66">
+      <c r="R97" s="59">
         <v>0</v>
       </c>
-      <c r="S97" s="66">
+      <c r="S97" s="59">
         <v>2</v>
       </c>
-      <c r="T97" s="66">
+      <c r="T97" s="59">
         <v>4</v>
       </c>
-      <c r="U97" s="66">
-        <v>6</v>
-      </c>
-      <c r="V97" s="66">
+      <c r="U97" s="59">
+        <v>6</v>
+      </c>
+      <c r="V97" s="59">
         <v>10</v>
       </c>
       <c r="W97" s="2"/>
@@ -13114,58 +15267,58 @@
       <c r="Z97" s="2"/>
     </row>
     <row r="98" spans="1:26">
-      <c r="A98" s="48" t="s">
+      <c r="A98" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B98" s="48">
+      <c r="B98" s="43">
         <v>110271</v>
       </c>
-      <c r="C98" s="48">
+      <c r="C98" s="43">
         <v>110272</v>
       </c>
-      <c r="D98" s="48">
+      <c r="D98" s="43">
         <v>110273</v>
       </c>
-      <c r="E98" s="48">
+      <c r="E98" s="43">
         <v>110274</v>
       </c>
-      <c r="F98" s="48">
+      <c r="F98" s="43">
         <v>110275</v>
       </c>
-      <c r="I98" s="57" t="s">
+      <c r="I98" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="J98" s="57">
+      <c r="J98" s="51">
         <v>110271</v>
       </c>
-      <c r="K98" s="57">
+      <c r="K98" s="51">
         <v>110272</v>
       </c>
-      <c r="L98" s="57">
+      <c r="L98" s="51">
         <v>110273</v>
       </c>
-      <c r="M98" s="57">
+      <c r="M98" s="51">
         <v>110274</v>
       </c>
-      <c r="N98" s="57">
+      <c r="N98" s="51">
         <v>110275</v>
       </c>
-      <c r="Q98" s="66" t="s">
+      <c r="Q98" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="R98" s="66">
+      <c r="R98" s="59">
         <v>110271</v>
       </c>
-      <c r="S98" s="66">
+      <c r="S98" s="59">
         <v>110272</v>
       </c>
-      <c r="T98" s="66">
+      <c r="T98" s="59">
         <v>110273</v>
       </c>
-      <c r="U98" s="66">
+      <c r="U98" s="59">
         <v>110274</v>
       </c>
-      <c r="V98" s="66">
+      <c r="V98" s="59">
         <v>110275</v>
       </c>
       <c r="W98" s="2"/>
@@ -13173,173 +15326,173 @@
       <c r="Y98" s="2"/>
     </row>
     <row r="99" spans="1:26">
-      <c r="A99" s="17"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="21"/>
-      <c r="I99" s="29"/>
-      <c r="J99" s="25"/>
-      <c r="K99" s="25"/>
-      <c r="L99" s="25"/>
-      <c r="M99" s="25"/>
-      <c r="N99" s="30"/>
-      <c r="O99" s="22"/>
-      <c r="Q99" s="38"/>
-      <c r="R99" s="34"/>
-      <c r="S99" s="34"/>
-      <c r="T99" s="34"/>
-      <c r="U99" s="34"/>
-      <c r="V99" s="39"/>
+      <c r="A99" s="15"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="19"/>
+      <c r="I99" s="26"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="22"/>
+      <c r="L99" s="22"/>
+      <c r="M99" s="22"/>
+      <c r="N99" s="27"/>
+      <c r="O99" s="20"/>
+      <c r="Q99" s="34"/>
+      <c r="R99" s="30"/>
+      <c r="S99" s="30"/>
+      <c r="T99" s="30"/>
+      <c r="U99" s="30"/>
+      <c r="V99" s="35"/>
     </row>
     <row r="100" spans="1:26">
-      <c r="A100" s="12" t="s">
+      <c r="A100" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B100" s="12">
+      <c r="B100" s="11">
         <v>100</v>
       </c>
-      <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="19"/>
-      <c r="I100" s="24" t="s">
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="17"/>
+      <c r="I100" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="J100" s="24">
+      <c r="J100" s="21">
         <v>100</v>
       </c>
-      <c r="K100" s="25"/>
-      <c r="L100" s="25"/>
-      <c r="M100" s="25"/>
-      <c r="N100" s="26"/>
-      <c r="Q100" s="33" t="s">
+      <c r="K100" s="22"/>
+      <c r="L100" s="22"/>
+      <c r="M100" s="22"/>
+      <c r="N100" s="23"/>
+      <c r="Q100" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="R100" s="33">
+      <c r="R100" s="29">
         <v>100</v>
       </c>
-      <c r="S100" s="34"/>
-      <c r="T100" s="34"/>
-      <c r="U100" s="34"/>
-      <c r="V100" s="35"/>
+      <c r="S100" s="30"/>
+      <c r="T100" s="30"/>
+      <c r="U100" s="30"/>
+      <c r="V100" s="31"/>
     </row>
     <row r="101" spans="1:26">
-      <c r="A101" s="18" t="s">
+      <c r="A101" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B101" s="18">
+      <c r="B101" s="16">
         <v>2</v>
       </c>
-      <c r="C101" s="17"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="20"/>
-      <c r="I101" s="31" t="s">
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="18"/>
+      <c r="I101" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="J101" s="31">
+      <c r="J101" s="28">
         <v>2</v>
       </c>
-      <c r="K101" s="25"/>
-      <c r="L101" s="25"/>
-      <c r="M101" s="25"/>
-      <c r="N101" s="27"/>
-      <c r="Q101" s="40" t="s">
+      <c r="K101" s="22"/>
+      <c r="L101" s="22"/>
+      <c r="M101" s="22"/>
+      <c r="N101" s="24"/>
+      <c r="Q101" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="R101" s="40">
+      <c r="R101" s="36">
         <v>2</v>
       </c>
-      <c r="S101" s="34"/>
-      <c r="T101" s="34"/>
-      <c r="U101" s="34"/>
-      <c r="V101" s="36"/>
+      <c r="S101" s="30"/>
+      <c r="T101" s="30"/>
+      <c r="U101" s="30"/>
+      <c r="V101" s="32"/>
     </row>
     <row r="102" spans="1:26">
-      <c r="A102" s="16" t="s">
+      <c r="A102" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B102" s="16"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
-      <c r="I102" s="23" t="s">
+      <c r="B102" s="65"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="65"/>
+      <c r="E102" s="65"/>
+      <c r="F102" s="65"/>
+      <c r="I102" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="J102" s="23"/>
-      <c r="K102" s="23"/>
-      <c r="L102" s="23"/>
-      <c r="M102" s="23"/>
-      <c r="N102" s="23"/>
-      <c r="Q102" s="32" t="s">
+      <c r="J102" s="66"/>
+      <c r="K102" s="66"/>
+      <c r="L102" s="66"/>
+      <c r="M102" s="66"/>
+      <c r="N102" s="66"/>
+      <c r="Q102" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="R102" s="32"/>
-      <c r="S102" s="32"/>
-      <c r="T102" s="32"/>
-      <c r="U102" s="32"/>
-      <c r="V102" s="32"/>
+      <c r="R102" s="67"/>
+      <c r="S102" s="67"/>
+      <c r="T102" s="67"/>
+      <c r="U102" s="67"/>
+      <c r="V102" s="67"/>
     </row>
     <row r="103" spans="1:26">
-      <c r="A103" s="11" t="s">
+      <c r="A103" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B103" s="11">
+      <c r="B103" s="10">
         <v>0</v>
       </c>
-      <c r="C103" s="11">
+      <c r="C103" s="10">
         <v>2</v>
       </c>
-      <c r="D103" s="11">
+      <c r="D103" s="10">
         <v>4</v>
       </c>
-      <c r="E103" s="11">
-        <v>6</v>
-      </c>
-      <c r="F103" s="11">
+      <c r="E103" s="10">
+        <v>6</v>
+      </c>
+      <c r="F103" s="10">
         <v>10</v>
       </c>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
-      <c r="I103" s="28" t="s">
+      <c r="I103" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="J103" s="28">
+      <c r="J103" s="25">
         <v>0</v>
       </c>
-      <c r="K103" s="28">
+      <c r="K103" s="25">
         <v>2</v>
       </c>
-      <c r="L103" s="28">
+      <c r="L103" s="25">
         <v>4</v>
       </c>
-      <c r="M103" s="28">
-        <v>6</v>
-      </c>
-      <c r="N103" s="28">
+      <c r="M103" s="25">
+        <v>6</v>
+      </c>
+      <c r="N103" s="25">
         <v>10</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
-      <c r="Q103" s="37" t="s">
+      <c r="Q103" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="R103" s="37">
+      <c r="R103" s="33">
         <v>0</v>
       </c>
-      <c r="S103" s="37">
+      <c r="S103" s="33">
         <v>2</v>
       </c>
-      <c r="T103" s="37">
+      <c r="T103" s="33">
         <v>4</v>
       </c>
-      <c r="U103" s="37">
-        <v>6</v>
-      </c>
-      <c r="V103" s="37">
+      <c r="U103" s="33">
+        <v>6</v>
+      </c>
+      <c r="V103" s="33">
         <v>10</v>
       </c>
       <c r="W103" s="2"/>
@@ -13348,58 +15501,58 @@
       <c r="Z103" s="2"/>
     </row>
     <row r="104" spans="1:26">
-      <c r="A104" s="11" t="s">
+      <c r="A104" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B104" s="11">
+      <c r="B104" s="10">
         <v>110271</v>
       </c>
-      <c r="C104" s="11">
+      <c r="C104" s="10">
         <v>110272</v>
       </c>
-      <c r="D104" s="11">
+      <c r="D104" s="10">
         <v>110273</v>
       </c>
-      <c r="E104" s="11">
+      <c r="E104" s="10">
         <v>110274</v>
       </c>
-      <c r="F104" s="11">
+      <c r="F104" s="10">
         <v>110275</v>
       </c>
-      <c r="I104" s="28" t="s">
+      <c r="I104" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="J104" s="28">
+      <c r="J104" s="25">
         <v>110271</v>
       </c>
-      <c r="K104" s="28">
+      <c r="K104" s="25">
         <v>110272</v>
       </c>
-      <c r="L104" s="28">
+      <c r="L104" s="25">
         <v>110273</v>
       </c>
-      <c r="M104" s="28">
+      <c r="M104" s="25">
         <v>110274</v>
       </c>
-      <c r="N104" s="28">
+      <c r="N104" s="25">
         <v>110275</v>
       </c>
-      <c r="Q104" s="37" t="s">
+      <c r="Q104" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="R104" s="37">
+      <c r="R104" s="33">
         <v>110271</v>
       </c>
-      <c r="S104" s="37">
+      <c r="S104" s="33">
         <v>110272</v>
       </c>
-      <c r="T104" s="37">
+      <c r="T104" s="33">
         <v>110273</v>
       </c>
-      <c r="U104" s="37">
+      <c r="U104" s="33">
         <v>110274</v>
       </c>
-      <c r="V104" s="37">
+      <c r="V104" s="33">
         <v>110275</v>
       </c>
       <c r="W104" s="2"/>
@@ -13407,124 +15560,124 @@
       <c r="Y104" s="2"/>
     </row>
     <row r="105" spans="1:26">
-      <c r="A105" s="10"/>
-      <c r="B105" s="10"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="21"/>
-      <c r="I105" s="68"/>
-      <c r="J105" s="67"/>
-      <c r="K105" s="67"/>
-      <c r="L105" s="67"/>
-      <c r="M105" s="67"/>
-      <c r="N105" s="30"/>
-      <c r="Q105" s="69"/>
+      <c r="A105" s="9"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="19"/>
+      <c r="I105" s="61"/>
+      <c r="J105" s="60"/>
+      <c r="K105" s="60"/>
+      <c r="L105" s="60"/>
+      <c r="M105" s="60"/>
+      <c r="N105" s="27"/>
+      <c r="Q105" s="62"/>
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
       <c r="U105" s="1"/>
-      <c r="V105" s="39"/>
+      <c r="V105" s="35"/>
     </row>
     <row r="106" spans="1:26">
-      <c r="A106" s="12"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="17"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="19"/>
-      <c r="I106" s="24"/>
-      <c r="J106" s="24"/>
-      <c r="K106" s="25"/>
-      <c r="L106" s="25"/>
-      <c r="M106" s="25"/>
-      <c r="N106" s="26"/>
-      <c r="Q106" s="33"/>
-      <c r="R106" s="33"/>
-      <c r="S106" s="34"/>
-      <c r="T106" s="34"/>
-      <c r="U106" s="34"/>
-      <c r="V106" s="35"/>
+      <c r="A106" s="11"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="17"/>
+      <c r="I106" s="21"/>
+      <c r="J106" s="21"/>
+      <c r="K106" s="22"/>
+      <c r="L106" s="22"/>
+      <c r="M106" s="22"/>
+      <c r="N106" s="23"/>
+      <c r="Q106" s="29"/>
+      <c r="R106" s="29"/>
+      <c r="S106" s="30"/>
+      <c r="T106" s="30"/>
+      <c r="U106" s="30"/>
+      <c r="V106" s="31"/>
     </row>
     <row r="107" spans="1:26">
-      <c r="A107" s="18"/>
-      <c r="B107" s="18"/>
-      <c r="C107" s="17"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="20"/>
-      <c r="I107" s="31"/>
-      <c r="J107" s="31"/>
-      <c r="K107" s="25"/>
-      <c r="L107" s="25"/>
-      <c r="M107" s="25"/>
-      <c r="N107" s="27"/>
-      <c r="Q107" s="40"/>
-      <c r="R107" s="40"/>
-      <c r="S107" s="34"/>
-      <c r="T107" s="34"/>
-      <c r="U107" s="34"/>
-      <c r="V107" s="36"/>
+      <c r="A107" s="16"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="18"/>
+      <c r="I107" s="28"/>
+      <c r="J107" s="28"/>
+      <c r="K107" s="22"/>
+      <c r="L107" s="22"/>
+      <c r="M107" s="22"/>
+      <c r="N107" s="24"/>
+      <c r="Q107" s="36"/>
+      <c r="R107" s="36"/>
+      <c r="S107" s="30"/>
+      <c r="T107" s="30"/>
+      <c r="U107" s="30"/>
+      <c r="V107" s="32"/>
     </row>
     <row r="108" spans="1:26">
-      <c r="A108" s="16"/>
-      <c r="B108" s="16"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="16"/>
-      <c r="F108" s="16"/>
-      <c r="I108" s="23"/>
-      <c r="J108" s="23"/>
-      <c r="K108" s="23"/>
-      <c r="L108" s="23"/>
-      <c r="M108" s="23"/>
-      <c r="N108" s="23"/>
-      <c r="Q108" s="32"/>
-      <c r="R108" s="32"/>
-      <c r="S108" s="32"/>
-      <c r="T108" s="32"/>
-      <c r="U108" s="32"/>
-      <c r="V108" s="32"/>
+      <c r="A108" s="65"/>
+      <c r="B108" s="65"/>
+      <c r="C108" s="65"/>
+      <c r="D108" s="65"/>
+      <c r="E108" s="65"/>
+      <c r="F108" s="65"/>
+      <c r="I108" s="66"/>
+      <c r="J108" s="66"/>
+      <c r="K108" s="66"/>
+      <c r="L108" s="66"/>
+      <c r="M108" s="66"/>
+      <c r="N108" s="66"/>
+      <c r="Q108" s="67"/>
+      <c r="R108" s="67"/>
+      <c r="S108" s="67"/>
+      <c r="T108" s="67"/>
+      <c r="U108" s="67"/>
+      <c r="V108" s="67"/>
     </row>
     <row r="109" spans="1:26">
-      <c r="A109" s="11"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
-      <c r="I109" s="28"/>
-      <c r="J109" s="28"/>
-      <c r="K109" s="28"/>
-      <c r="L109" s="28"/>
-      <c r="M109" s="28"/>
-      <c r="N109" s="28"/>
-      <c r="Q109" s="37"/>
-      <c r="R109" s="37"/>
-      <c r="S109" s="37"/>
-      <c r="T109" s="37"/>
-      <c r="U109" s="37"/>
-      <c r="V109" s="37"/>
+      <c r="A109" s="10"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="I109" s="25"/>
+      <c r="J109" s="25"/>
+      <c r="K109" s="25"/>
+      <c r="L109" s="25"/>
+      <c r="M109" s="25"/>
+      <c r="N109" s="25"/>
+      <c r="Q109" s="33"/>
+      <c r="R109" s="33"/>
+      <c r="S109" s="33"/>
+      <c r="T109" s="33"/>
+      <c r="U109" s="33"/>
+      <c r="V109" s="33"/>
     </row>
     <row r="110" spans="1:26">
-      <c r="A110" s="11"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="11"/>
-      <c r="I110" s="28"/>
-      <c r="J110" s="28"/>
-      <c r="K110" s="28"/>
-      <c r="L110" s="28"/>
-      <c r="M110" s="28"/>
-      <c r="N110" s="28"/>
-      <c r="Q110" s="37"/>
-      <c r="R110" s="37"/>
-      <c r="S110" s="37"/>
-      <c r="T110" s="37"/>
-      <c r="U110" s="37"/>
-      <c r="V110" s="37"/>
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="I110" s="25"/>
+      <c r="J110" s="25"/>
+      <c r="K110" s="25"/>
+      <c r="L110" s="25"/>
+      <c r="M110" s="25"/>
+      <c r="N110" s="25"/>
+      <c r="Q110" s="33"/>
+      <c r="R110" s="33"/>
+      <c r="S110" s="33"/>
+      <c r="T110" s="33"/>
+      <c r="U110" s="33"/>
+      <c r="V110" s="33"/>
     </row>
     <row r="120" spans="1:18">
       <c r="A120" t="s">
@@ -13654,4 +15807,118 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFA80A5-89D2-BC4D-A259-DE709B67285D}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="63">
+        <v>20201210</v>
+      </c>
+      <c r="B1" s="63">
+        <v>20201212</v>
+      </c>
+      <c r="C1" s="63">
+        <v>20201214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="63">
+        <v>20201010</v>
+      </c>
+      <c r="B2" s="63">
+        <v>20201012</v>
+      </c>
+      <c r="C2" s="63">
+        <v>20201014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="63">
+        <v>2019010</v>
+      </c>
+      <c r="B3" s="63">
+        <v>2019012</v>
+      </c>
+      <c r="C3" s="63">
+        <v>2019014</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="63">
+        <v>2008010</v>
+      </c>
+      <c r="B4" s="63">
+        <v>2008012</v>
+      </c>
+      <c r="C4" s="63">
+        <v>2008014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="63">
+        <v>2018710</v>
+      </c>
+      <c r="B5" s="63">
+        <v>2018712</v>
+      </c>
+      <c r="C5" s="63">
+        <v>2018714</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="63">
+        <v>2024310</v>
+      </c>
+      <c r="B6" s="63">
+        <v>2024312</v>
+      </c>
+      <c r="C6" s="63">
+        <v>2024314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="63">
+        <v>20201110</v>
+      </c>
+      <c r="B7" s="63">
+        <v>20201112</v>
+      </c>
+      <c r="C7" s="63">
+        <v>20201114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="63">
+        <v>2028810</v>
+      </c>
+      <c r="B8" s="63">
+        <v>2028812</v>
+      </c>
+      <c r="C8" s="63">
+        <v>2028814</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="63">
+        <v>2018110</v>
+      </c>
+      <c r="B9" s="63">
+        <v>2018112</v>
+      </c>
+      <c r="C9" s="63">
+        <v>2018114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tournament/TournamentConfig.xlsx
+++ b/Tournament/TournamentConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fotoable/Gamedev_Tools/Tournament/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxin/Gamedev_Tools/Tournament/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A1574D-CC06-AB4B-AA91-C4E5C008C28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A40842B-9D35-2547-899A-435ED21BC6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="-21100" windowWidth="34720" windowHeight="19220" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="-21100" windowWidth="34720" windowHeight="19220" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inlets 18 holes" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -514,6 +514,12 @@
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -677,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -758,6 +764,8 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -779,8 +787,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1237,10 +1244,10 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="64"/>
+      <c r="B10" s="66"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
@@ -1352,18 +1359,18 @@
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="I21" s="64" t="s">
+      <c r="B21" s="66"/>
+      <c r="I21" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="64"/>
-      <c r="Q21" s="64" t="s">
+      <c r="J21" s="66"/>
+      <c r="Q21" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="R21" s="64"/>
+      <c r="R21" s="66"/>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
@@ -1527,44 +1534,44 @@
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="64" t="s">
+      <c r="A35" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="I35" s="64" t="s">
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="I35" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-      <c r="Q35" s="64" t="s">
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
+      <c r="Q35" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="R35" s="64"/>
-      <c r="S35" s="64"/>
-      <c r="T35" s="64"/>
-      <c r="U35" s="64"/>
+      <c r="R35" s="66"/>
+      <c r="S35" s="66"/>
+      <c r="T35" s="66"/>
+      <c r="U35" s="66"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="C36" s="64" t="s">
+      <c r="C36" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="K36" s="64" t="s">
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="K36" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
-      <c r="S36" s="64" t="s">
+      <c r="L36" s="66"/>
+      <c r="M36" s="66"/>
+      <c r="S36" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="T36" s="64"/>
-      <c r="U36" s="64"/>
+      <c r="T36" s="66"/>
+      <c r="U36" s="66"/>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" t="s">
@@ -2370,24 +2377,24 @@
       </c>
     </row>
     <row r="91" spans="1:26">
-      <c r="A91" s="64" t="s">
+      <c r="A91" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="B91" s="64"/>
-      <c r="C91" s="64"/>
-      <c r="D91" s="64"/>
-      <c r="I91" s="64" t="s">
+      <c r="B91" s="66"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="66"/>
+      <c r="I91" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="J91" s="64"/>
-      <c r="K91" s="64"/>
-      <c r="L91" s="64"/>
-      <c r="Q91" s="64" t="s">
+      <c r="J91" s="66"/>
+      <c r="K91" s="66"/>
+      <c r="L91" s="66"/>
+      <c r="Q91" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="R91" s="64"/>
-      <c r="S91" s="64"/>
-      <c r="T91" s="64"/>
+      <c r="R91" s="66"/>
+      <c r="S91" s="66"/>
+      <c r="T91" s="66"/>
     </row>
     <row r="92" spans="1:26">
       <c r="A92" s="8" t="s">
@@ -2618,12 +2625,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="Q91:T91"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q35:U35"/>
-    <mergeCell ref="S36:U36"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C36:E36"/>
@@ -2631,6 +2632,12 @@
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I35:M35"/>
     <mergeCell ref="K36:M36"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="Q91:T91"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q35:U35"/>
+    <mergeCell ref="S36:U36"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2641,8 +2648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5700636B-0736-E749-81EB-633C13337CAD}">
   <dimension ref="A1:Z124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H53" workbookViewId="0">
-      <selection activeCell="S72" sqref="S72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="19"/>
@@ -2784,10 +2791,10 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="64"/>
+      <c r="B10" s="66"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
@@ -2905,18 +2912,18 @@
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="I21" s="64" t="s">
+      <c r="B21" s="66"/>
+      <c r="I21" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="64"/>
-      <c r="Q21" s="64" t="s">
+      <c r="J21" s="66"/>
+      <c r="Q21" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="R21" s="64"/>
+      <c r="R21" s="66"/>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
@@ -3089,44 +3096,44 @@
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="64" t="s">
+      <c r="A35" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="I35" s="64" t="s">
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="I35" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-      <c r="Q35" s="64" t="s">
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
+      <c r="Q35" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="R35" s="64"/>
-      <c r="S35" s="64"/>
-      <c r="T35" s="64"/>
-      <c r="U35" s="64"/>
+      <c r="R35" s="66"/>
+      <c r="S35" s="66"/>
+      <c r="T35" s="66"/>
+      <c r="U35" s="66"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="C36" s="64" t="s">
+      <c r="C36" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="K36" s="64" t="s">
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="K36" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
-      <c r="S36" s="64" t="s">
+      <c r="L36" s="66"/>
+      <c r="M36" s="66"/>
+      <c r="S36" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="T36" s="64"/>
-      <c r="U36" s="64"/>
+      <c r="T36" s="66"/>
+      <c r="U36" s="66"/>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" t="s">
@@ -3723,292 +3730,238 @@
       </c>
     </row>
     <row r="62" spans="1:21">
-      <c r="A62" s="72">
-        <v>20201210</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
+      <c r="A62" s="65">
+        <v>51818800</v>
       </c>
       <c r="C62" s="63"/>
       <c r="D62" s="63"/>
       <c r="E62" s="63"/>
-      <c r="I62" s="72">
-        <v>20201212</v>
-      </c>
-      <c r="Q62" s="72">
-        <v>20201214</v>
+      <c r="I62" s="65">
+        <v>51818800</v>
+      </c>
+      <c r="Q62" s="65">
+        <v>51818800</v>
       </c>
     </row>
     <row r="63" spans="1:21">
-      <c r="A63" s="72">
-        <v>20201010</v>
-      </c>
-      <c r="B63">
-        <v>2</v>
+      <c r="A63" s="65">
+        <v>51819000</v>
       </c>
       <c r="D63" s="63"/>
       <c r="E63" s="63"/>
-      <c r="I63" s="72">
-        <v>20201012</v>
-      </c>
-      <c r="Q63" s="72">
-        <v>20201014</v>
+      <c r="I63" s="65">
+        <v>51819000</v>
+      </c>
+      <c r="Q63" s="65">
+        <v>51819000</v>
       </c>
     </row>
     <row r="64" spans="1:21">
-      <c r="A64" s="72">
-        <v>2019010</v>
-      </c>
-      <c r="B64">
-        <v>3</v>
+      <c r="A64" s="65">
+        <v>51818700</v>
       </c>
       <c r="C64" s="63"/>
       <c r="D64" s="63"/>
       <c r="E64" s="63"/>
-      <c r="I64" s="72">
-        <v>2019012</v>
-      </c>
-      <c r="Q64" s="72">
-        <v>2019014</v>
+      <c r="I64" s="65">
+        <v>51818700</v>
+      </c>
+      <c r="Q64" s="65">
+        <v>51818700</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="20" customHeight="1">
-      <c r="A65" s="72">
-        <v>2008010</v>
-      </c>
-      <c r="B65">
-        <v>4</v>
+      <c r="A65" s="65">
+        <v>51828100</v>
       </c>
       <c r="C65" s="63"/>
       <c r="D65" s="63"/>
       <c r="E65" s="63"/>
-      <c r="I65" s="72">
-        <v>2008012</v>
-      </c>
-      <c r="Q65" s="72">
-        <v>2008014</v>
+      <c r="I65" s="65">
+        <v>51828100</v>
+      </c>
+      <c r="Q65" s="65">
+        <v>51828100</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="20" customHeight="1">
-      <c r="A66" s="72">
-        <v>5808</v>
-      </c>
-      <c r="B66">
-        <v>5</v>
+      <c r="A66" s="65">
+        <v>51816100</v>
       </c>
       <c r="D66" s="63"/>
       <c r="E66" s="63"/>
-      <c r="I66" s="72">
-        <v>5810</v>
-      </c>
-      <c r="Q66" s="72">
-        <v>5812</v>
+      <c r="I66" s="65">
+        <v>51816100</v>
+      </c>
+      <c r="Q66" s="65">
+        <v>51816100</v>
       </c>
     </row>
     <row r="67" spans="1:17">
-      <c r="A67" s="72">
-        <v>2018710</v>
-      </c>
-      <c r="B67">
-        <v>6</v>
+      <c r="A67" s="65">
+        <v>51825500</v>
       </c>
       <c r="C67" s="63"/>
       <c r="D67" s="63"/>
       <c r="E67" s="63"/>
-      <c r="I67" s="72">
-        <v>2018712</v>
-      </c>
-      <c r="Q67" s="72">
-        <v>2018714</v>
+      <c r="I67" s="65">
+        <v>51825500</v>
+      </c>
+      <c r="Q67" s="65">
+        <v>51825500</v>
       </c>
     </row>
     <row r="68" spans="1:17">
-      <c r="A68" s="72">
-        <v>22307</v>
-      </c>
-      <c r="B68">
-        <v>7</v>
+      <c r="A68" s="65">
+        <v>51824800</v>
       </c>
       <c r="C68" s="63"/>
       <c r="D68" s="63"/>
       <c r="E68" s="63"/>
-      <c r="I68" s="72">
-        <v>22309</v>
-      </c>
-      <c r="Q68" s="72">
-        <v>22311</v>
+      <c r="I68" s="65">
+        <v>51824800</v>
+      </c>
+      <c r="Q68" s="65">
+        <v>51824800</v>
       </c>
     </row>
     <row r="69" spans="1:17">
-      <c r="A69" s="72">
-        <v>5908</v>
-      </c>
-      <c r="B69">
-        <v>8</v>
+      <c r="A69" s="65">
+        <v>51824200</v>
       </c>
       <c r="D69" s="63"/>
       <c r="E69" s="63"/>
-      <c r="I69" s="72">
-        <v>5910</v>
-      </c>
-      <c r="Q69" s="72">
-        <v>5912</v>
+      <c r="I69" s="65">
+        <v>51824200</v>
+      </c>
+      <c r="Q69" s="65">
+        <v>51824200</v>
       </c>
     </row>
     <row r="70" spans="1:17">
-      <c r="A70" s="72">
-        <v>2024310</v>
-      </c>
-      <c r="B70">
-        <v>9</v>
+      <c r="A70" s="65">
+        <v>51823800</v>
       </c>
       <c r="C70" s="63"/>
       <c r="D70" s="63"/>
       <c r="E70" s="63"/>
-      <c r="I70" s="72">
-        <v>2024312</v>
-      </c>
-      <c r="Q70" s="72">
-        <v>2024314</v>
+      <c r="I70" s="65">
+        <v>51823800</v>
+      </c>
+      <c r="Q70" s="65">
+        <v>51823800</v>
       </c>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="2">
-        <v>29110</v>
-      </c>
-      <c r="B71">
-        <v>10</v>
+        <v>51818800</v>
       </c>
       <c r="D71" s="2"/>
       <c r="I71" s="2">
-        <v>29112</v>
+        <v>51818800</v>
       </c>
       <c r="Q71" s="2">
-        <v>29114</v>
+        <v>51818800</v>
       </c>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="2">
-        <v>2729210</v>
-      </c>
-      <c r="B72">
-        <v>11</v>
+        <v>51819000</v>
       </c>
       <c r="D72" s="2"/>
       <c r="I72" s="2">
-        <v>2729212</v>
+        <v>51819000</v>
       </c>
       <c r="Q72" s="2">
-        <v>2729214</v>
+        <v>51819000</v>
       </c>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="2">
-        <v>2729310</v>
-      </c>
-      <c r="B73">
-        <v>12</v>
+        <v>51818700</v>
       </c>
       <c r="D73" s="2"/>
       <c r="I73" s="2">
-        <v>2729312</v>
+        <v>51818700</v>
       </c>
       <c r="Q73" s="2">
-        <v>29314</v>
+        <v>51818700</v>
       </c>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="2">
-        <v>29410</v>
-      </c>
-      <c r="B74">
-        <v>13</v>
+        <v>51828100</v>
       </c>
       <c r="D74" s="2"/>
       <c r="I74" s="2">
-        <v>29412</v>
+        <v>51828100</v>
       </c>
       <c r="Q74" s="2">
-        <v>2729414</v>
+        <v>51828100</v>
       </c>
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="2">
-        <v>29510</v>
-      </c>
-      <c r="B75">
-        <v>14</v>
+        <v>51816100</v>
       </c>
       <c r="D75" s="2"/>
       <c r="I75" s="2">
-        <v>29512</v>
+        <v>51816100</v>
       </c>
       <c r="Q75" s="2">
-        <v>2729514</v>
+        <v>51816100</v>
       </c>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="2">
-        <v>29810</v>
-      </c>
-      <c r="B76">
-        <v>15</v>
+        <v>51825500</v>
       </c>
       <c r="D76" s="2"/>
       <c r="I76" s="2">
-        <v>29812</v>
+        <v>51825500</v>
       </c>
       <c r="Q76" s="2">
-        <v>2729814</v>
+        <v>51825500</v>
       </c>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="2">
-        <v>202109</v>
-      </c>
-      <c r="B77">
-        <v>16</v>
+        <v>51824800</v>
       </c>
       <c r="D77" s="2"/>
       <c r="I77" s="2">
-        <v>202111</v>
+        <v>51824800</v>
       </c>
       <c r="Q77" s="2">
-        <v>202113</v>
+        <v>51824800</v>
       </c>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="2">
-        <v>202309</v>
-      </c>
-      <c r="B78">
-        <v>17</v>
+        <v>51824200</v>
       </c>
       <c r="D78" s="2"/>
       <c r="I78" s="2">
-        <v>202311</v>
+        <v>51824200</v>
       </c>
       <c r="Q78" s="2">
-        <v>202313</v>
+        <v>51824200</v>
       </c>
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="2">
-        <v>202009</v>
-      </c>
-      <c r="B79">
-        <v>18</v>
+        <v>51823800</v>
       </c>
       <c r="D79" s="2"/>
       <c r="I79" s="2">
-        <v>202011</v>
+        <v>51823800</v>
       </c>
       <c r="Q79" s="2">
-        <v>202013</v>
+        <v>51823800</v>
       </c>
     </row>
     <row r="81" spans="1:22">
-      <c r="A81" s="71"/>
+      <c r="A81" s="64"/>
     </row>
     <row r="89" spans="1:22">
       <c r="A89" t="s">
@@ -4022,30 +3975,30 @@
       </c>
     </row>
     <row r="92" spans="1:22">
-      <c r="A92" s="68" t="s">
+      <c r="A92" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="B92" s="68"/>
-      <c r="C92" s="68"/>
-      <c r="D92" s="68"/>
-      <c r="E92" s="68"/>
-      <c r="F92" s="68"/>
-      <c r="I92" s="69" t="s">
+      <c r="B92" s="70"/>
+      <c r="C92" s="70"/>
+      <c r="D92" s="70"/>
+      <c r="E92" s="70"/>
+      <c r="F92" s="70"/>
+      <c r="I92" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="J92" s="69"/>
-      <c r="K92" s="69"/>
-      <c r="L92" s="69"/>
-      <c r="M92" s="69"/>
-      <c r="N92" s="69"/>
-      <c r="Q92" s="70" t="s">
+      <c r="J92" s="71"/>
+      <c r="K92" s="71"/>
+      <c r="L92" s="71"/>
+      <c r="M92" s="71"/>
+      <c r="N92" s="71"/>
+      <c r="Q92" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="R92" s="70"/>
-      <c r="S92" s="70"/>
-      <c r="T92" s="70"/>
-      <c r="U92" s="70"/>
-      <c r="V92" s="70"/>
+      <c r="R92" s="72"/>
+      <c r="S92" s="72"/>
+      <c r="T92" s="72"/>
+      <c r="U92" s="72"/>
+      <c r="V92" s="72"/>
     </row>
     <row r="93" spans="1:22">
       <c r="A93" s="37" t="s">
@@ -4138,30 +4091,30 @@
       <c r="V95" s="58"/>
     </row>
     <row r="96" spans="1:22">
-      <c r="A96" s="68" t="s">
+      <c r="A96" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B96" s="68"/>
-      <c r="C96" s="68"/>
-      <c r="D96" s="68"/>
-      <c r="E96" s="68"/>
-      <c r="F96" s="68"/>
-      <c r="I96" s="69" t="s">
+      <c r="B96" s="70"/>
+      <c r="C96" s="70"/>
+      <c r="D96" s="70"/>
+      <c r="E96" s="70"/>
+      <c r="F96" s="70"/>
+      <c r="I96" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="J96" s="69"/>
-      <c r="K96" s="69"/>
-      <c r="L96" s="69"/>
-      <c r="M96" s="69"/>
-      <c r="N96" s="69"/>
-      <c r="Q96" s="70" t="s">
+      <c r="J96" s="71"/>
+      <c r="K96" s="71"/>
+      <c r="L96" s="71"/>
+      <c r="M96" s="71"/>
+      <c r="N96" s="71"/>
+      <c r="Q96" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="R96" s="70"/>
-      <c r="S96" s="70"/>
-      <c r="T96" s="70"/>
-      <c r="U96" s="70"/>
-      <c r="V96" s="70"/>
+      <c r="R96" s="72"/>
+      <c r="S96" s="72"/>
+      <c r="T96" s="72"/>
+      <c r="U96" s="72"/>
+      <c r="V96" s="72"/>
     </row>
     <row r="97" spans="1:26">
       <c r="A97" s="43" t="s">
@@ -4372,30 +4325,30 @@
       <c r="V101" s="32"/>
     </row>
     <row r="102" spans="1:26">
-      <c r="A102" s="65" t="s">
+      <c r="A102" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="B102" s="65"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="65"/>
-      <c r="E102" s="65"/>
-      <c r="F102" s="65"/>
-      <c r="I102" s="66" t="s">
+      <c r="B102" s="67"/>
+      <c r="C102" s="67"/>
+      <c r="D102" s="67"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="I102" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="J102" s="66"/>
-      <c r="K102" s="66"/>
-      <c r="L102" s="66"/>
-      <c r="M102" s="66"/>
-      <c r="N102" s="66"/>
-      <c r="Q102" s="67" t="s">
+      <c r="J102" s="68"/>
+      <c r="K102" s="68"/>
+      <c r="L102" s="68"/>
+      <c r="M102" s="68"/>
+      <c r="N102" s="68"/>
+      <c r="Q102" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="R102" s="67"/>
-      <c r="S102" s="67"/>
-      <c r="T102" s="67"/>
-      <c r="U102" s="67"/>
-      <c r="V102" s="67"/>
+      <c r="R102" s="69"/>
+      <c r="S102" s="69"/>
+      <c r="T102" s="69"/>
+      <c r="U102" s="69"/>
+      <c r="V102" s="69"/>
     </row>
     <row r="103" spans="1:26">
       <c r="A103" s="10" t="s">
@@ -4581,24 +4534,24 @@
       <c r="V107" s="32"/>
     </row>
     <row r="108" spans="1:26">
-      <c r="A108" s="65"/>
-      <c r="B108" s="65"/>
-      <c r="C108" s="65"/>
-      <c r="D108" s="65"/>
-      <c r="E108" s="65"/>
-      <c r="F108" s="65"/>
-      <c r="I108" s="66"/>
-      <c r="J108" s="66"/>
-      <c r="K108" s="66"/>
-      <c r="L108" s="66"/>
-      <c r="M108" s="66"/>
-      <c r="N108" s="66"/>
-      <c r="Q108" s="67"/>
-      <c r="R108" s="67"/>
-      <c r="S108" s="67"/>
-      <c r="T108" s="67"/>
-      <c r="U108" s="67"/>
-      <c r="V108" s="67"/>
+      <c r="A108" s="67"/>
+      <c r="B108" s="67"/>
+      <c r="C108" s="67"/>
+      <c r="D108" s="67"/>
+      <c r="E108" s="67"/>
+      <c r="F108" s="67"/>
+      <c r="I108" s="68"/>
+      <c r="J108" s="68"/>
+      <c r="K108" s="68"/>
+      <c r="L108" s="68"/>
+      <c r="M108" s="68"/>
+      <c r="N108" s="68"/>
+      <c r="Q108" s="69"/>
+      <c r="R108" s="69"/>
+      <c r="S108" s="69"/>
+      <c r="T108" s="69"/>
+      <c r="U108" s="69"/>
+      <c r="V108" s="69"/>
     </row>
     <row r="109" spans="1:26">
       <c r="A109" s="10"/>
@@ -4640,24 +4593,24 @@
       <c r="U110" s="33"/>
       <c r="V110" s="33"/>
     </row>
-    <row r="120" spans="1:18">
+    <row r="120" spans="1:18" ht="24">
       <c r="A120" t="s">
         <v>33</v>
       </c>
-      <c r="B120">
-        <v>39391</v>
+      <c r="B120" s="73">
+        <v>80119</v>
       </c>
       <c r="I120" t="s">
         <v>33</v>
       </c>
-      <c r="J120">
-        <v>39392</v>
+      <c r="J120" s="73">
+        <v>80119</v>
       </c>
       <c r="Q120" t="s">
         <v>33</v>
       </c>
-      <c r="R120">
-        <v>39393</v>
+      <c r="R120" s="73">
+        <v>80119</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -4742,19 +4695,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="I35:M35"/>
-    <mergeCell ref="Q35:U35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="I92:N92"/>
-    <mergeCell ref="Q92:V92"/>
     <mergeCell ref="A108:F108"/>
     <mergeCell ref="I108:N108"/>
     <mergeCell ref="Q108:V108"/>
@@ -4764,6 +4704,19 @@
     <mergeCell ref="A102:F102"/>
     <mergeCell ref="I102:N102"/>
     <mergeCell ref="Q102:V102"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="I92:N92"/>
+    <mergeCell ref="Q92:V92"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="Q35:U35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4912,10 +4865,10 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="64"/>
+      <c r="B10" s="66"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
@@ -5027,18 +4980,18 @@
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="I21" s="64" t="s">
+      <c r="B21" s="66"/>
+      <c r="I21" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="64"/>
-      <c r="Q21" s="64" t="s">
+      <c r="J21" s="66"/>
+      <c r="Q21" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="R21" s="64"/>
+      <c r="R21" s="66"/>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
@@ -5202,44 +5155,44 @@
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="64" t="s">
+      <c r="A35" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="I35" s="64" t="s">
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="I35" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-      <c r="Q35" s="64" t="s">
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
+      <c r="Q35" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="R35" s="64"/>
-      <c r="S35" s="64"/>
-      <c r="T35" s="64"/>
-      <c r="U35" s="64"/>
+      <c r="R35" s="66"/>
+      <c r="S35" s="66"/>
+      <c r="T35" s="66"/>
+      <c r="U35" s="66"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="C36" s="64" t="s">
+      <c r="C36" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="K36" s="64" t="s">
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="K36" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
-      <c r="S36" s="64" t="s">
+      <c r="L36" s="66"/>
+      <c r="M36" s="66"/>
+      <c r="S36" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="T36" s="64"/>
-      <c r="U36" s="64"/>
+      <c r="T36" s="66"/>
+      <c r="U36" s="66"/>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" t="s">
@@ -5991,24 +5944,24 @@
       </c>
     </row>
     <row r="91" spans="1:22">
-      <c r="A91" s="64" t="s">
+      <c r="A91" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="B91" s="64"/>
-      <c r="C91" s="64"/>
-      <c r="D91" s="64"/>
-      <c r="I91" s="64" t="s">
+      <c r="B91" s="66"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="66"/>
+      <c r="I91" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="J91" s="64"/>
-      <c r="K91" s="64"/>
-      <c r="L91" s="64"/>
-      <c r="Q91" s="64" t="s">
+      <c r="J91" s="66"/>
+      <c r="K91" s="66"/>
+      <c r="L91" s="66"/>
+      <c r="Q91" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="R91" s="64"/>
-      <c r="S91" s="64"/>
-      <c r="T91" s="64"/>
+      <c r="R91" s="66"/>
+      <c r="S91" s="66"/>
+      <c r="T91" s="66"/>
     </row>
     <row r="92" spans="1:22">
       <c r="A92" t="s">
@@ -6224,6 +6177,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="Q91:T91"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="I21:J21"/>
@@ -6231,12 +6190,6 @@
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="I35:M35"/>
     <mergeCell ref="Q35:U35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="Q91:T91"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6385,10 +6338,10 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="64"/>
+      <c r="B10" s="66"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
@@ -6500,18 +6453,18 @@
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="I21" s="64" t="s">
+      <c r="B21" s="66"/>
+      <c r="I21" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="64"/>
-      <c r="Q21" s="64" t="s">
+      <c r="J21" s="66"/>
+      <c r="Q21" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="R21" s="64"/>
+      <c r="R21" s="66"/>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
@@ -6675,44 +6628,44 @@
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="64" t="s">
+      <c r="A35" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="I35" s="64" t="s">
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="I35" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-      <c r="Q35" s="64" t="s">
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
+      <c r="Q35" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="R35" s="64"/>
-      <c r="S35" s="64"/>
-      <c r="T35" s="64"/>
-      <c r="U35" s="64"/>
+      <c r="R35" s="66"/>
+      <c r="S35" s="66"/>
+      <c r="T35" s="66"/>
+      <c r="U35" s="66"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="C36" s="64" t="s">
+      <c r="C36" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="K36" s="64" t="s">
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="K36" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
-      <c r="S36" s="64" t="s">
+      <c r="L36" s="66"/>
+      <c r="M36" s="66"/>
+      <c r="S36" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="T36" s="64"/>
-      <c r="U36" s="64"/>
+      <c r="T36" s="66"/>
+      <c r="U36" s="66"/>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" t="s">
@@ -7464,24 +7417,24 @@
       </c>
     </row>
     <row r="91" spans="1:22">
-      <c r="A91" s="64" t="s">
+      <c r="A91" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="B91" s="64"/>
-      <c r="C91" s="64"/>
-      <c r="D91" s="64"/>
-      <c r="I91" s="64" t="s">
+      <c r="B91" s="66"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="66"/>
+      <c r="I91" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="J91" s="64"/>
-      <c r="K91" s="64"/>
-      <c r="L91" s="64"/>
-      <c r="Q91" s="64" t="s">
+      <c r="J91" s="66"/>
+      <c r="K91" s="66"/>
+      <c r="L91" s="66"/>
+      <c r="Q91" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="R91" s="64"/>
-      <c r="S91" s="64"/>
-      <c r="T91" s="64"/>
+      <c r="R91" s="66"/>
+      <c r="S91" s="66"/>
+      <c r="T91" s="66"/>
     </row>
     <row r="92" spans="1:22">
       <c r="A92" t="s">
@@ -7697,6 +7650,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="Q91:T91"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="I21:J21"/>
@@ -7704,12 +7663,6 @@
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="I35:M35"/>
     <mergeCell ref="Q35:U35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="Q91:T91"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7858,10 +7811,10 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="64"/>
+      <c r="B10" s="66"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
@@ -7973,18 +7926,18 @@
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="I21" s="64" t="s">
+      <c r="B21" s="66"/>
+      <c r="I21" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="64"/>
-      <c r="Q21" s="64" t="s">
+      <c r="J21" s="66"/>
+      <c r="Q21" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="R21" s="64"/>
+      <c r="R21" s="66"/>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
@@ -8148,44 +8101,44 @@
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="64" t="s">
+      <c r="A35" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="I35" s="64" t="s">
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="I35" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-      <c r="Q35" s="64" t="s">
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
+      <c r="Q35" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="R35" s="64"/>
-      <c r="S35" s="64"/>
-      <c r="T35" s="64"/>
-      <c r="U35" s="64"/>
+      <c r="R35" s="66"/>
+      <c r="S35" s="66"/>
+      <c r="T35" s="66"/>
+      <c r="U35" s="66"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="C36" s="64" t="s">
+      <c r="C36" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="K36" s="64" t="s">
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="K36" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
-      <c r="S36" s="64" t="s">
+      <c r="L36" s="66"/>
+      <c r="M36" s="66"/>
+      <c r="S36" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="T36" s="64"/>
-      <c r="U36" s="64"/>
+      <c r="T36" s="66"/>
+      <c r="U36" s="66"/>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" t="s">
@@ -8995,24 +8948,24 @@
       </c>
     </row>
     <row r="91" spans="1:26">
-      <c r="A91" s="64" t="s">
+      <c r="A91" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="B91" s="64"/>
-      <c r="C91" s="64"/>
-      <c r="D91" s="64"/>
-      <c r="I91" s="64" t="s">
+      <c r="B91" s="66"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="66"/>
+      <c r="I91" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="J91" s="64"/>
-      <c r="K91" s="64"/>
-      <c r="L91" s="64"/>
-      <c r="Q91" s="64" t="s">
+      <c r="J91" s="66"/>
+      <c r="K91" s="66"/>
+      <c r="L91" s="66"/>
+      <c r="Q91" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="R91" s="64"/>
-      <c r="S91" s="64"/>
-      <c r="T91" s="64"/>
+      <c r="R91" s="66"/>
+      <c r="S91" s="66"/>
+      <c r="T91" s="66"/>
     </row>
     <row r="92" spans="1:26">
       <c r="A92" s="8" t="s">
@@ -9239,6 +9192,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="Q91:T91"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="I21:J21"/>
@@ -9246,12 +9205,6 @@
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="I35:M35"/>
     <mergeCell ref="Q35:U35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="Q91:T91"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9405,10 +9358,10 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="64"/>
+      <c r="B10" s="66"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
@@ -9526,18 +9479,18 @@
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="I21" s="64" t="s">
+      <c r="B21" s="66"/>
+      <c r="I21" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="64"/>
-      <c r="Q21" s="64" t="s">
+      <c r="J21" s="66"/>
+      <c r="Q21" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="R21" s="64"/>
+      <c r="R21" s="66"/>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
@@ -9710,44 +9663,44 @@
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="64" t="s">
+      <c r="A35" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="I35" s="64" t="s">
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="I35" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-      <c r="Q35" s="64" t="s">
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
+      <c r="Q35" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="R35" s="64"/>
-      <c r="S35" s="64"/>
-      <c r="T35" s="64"/>
-      <c r="U35" s="64"/>
+      <c r="R35" s="66"/>
+      <c r="S35" s="66"/>
+      <c r="T35" s="66"/>
+      <c r="U35" s="66"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="C36" s="64" t="s">
+      <c r="C36" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="K36" s="64" t="s">
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="K36" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
-      <c r="S36" s="64" t="s">
+      <c r="L36" s="66"/>
+      <c r="M36" s="66"/>
+      <c r="S36" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="T36" s="64"/>
-      <c r="U36" s="64"/>
+      <c r="T36" s="66"/>
+      <c r="U36" s="66"/>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" t="s">
@@ -10553,24 +10506,24 @@
       </c>
     </row>
     <row r="91" spans="1:26">
-      <c r="A91" s="64" t="s">
+      <c r="A91" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="B91" s="64"/>
-      <c r="C91" s="64"/>
-      <c r="D91" s="64"/>
-      <c r="I91" s="64" t="s">
+      <c r="B91" s="66"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="66"/>
+      <c r="I91" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="J91" s="64"/>
-      <c r="K91" s="64"/>
-      <c r="L91" s="64"/>
-      <c r="Q91" s="64" t="s">
+      <c r="J91" s="66"/>
+      <c r="K91" s="66"/>
+      <c r="L91" s="66"/>
+      <c r="Q91" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="R91" s="64"/>
-      <c r="S91" s="64"/>
-      <c r="T91" s="64"/>
+      <c r="R91" s="66"/>
+      <c r="S91" s="66"/>
+      <c r="T91" s="66"/>
     </row>
     <row r="92" spans="1:26">
       <c r="A92" s="8" t="s">
@@ -10797,6 +10750,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="Q91:T91"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="I21:J21"/>
@@ -10804,12 +10763,6 @@
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="I35:M35"/>
     <mergeCell ref="Q35:U35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="Q91:T91"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10959,10 +10912,10 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="64"/>
+      <c r="B10" s="66"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
@@ -11074,18 +11027,18 @@
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="I21" s="64" t="s">
+      <c r="B21" s="66"/>
+      <c r="I21" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="64"/>
-      <c r="Q21" s="64" t="s">
+      <c r="J21" s="66"/>
+      <c r="Q21" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="R21" s="64"/>
+      <c r="R21" s="66"/>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
@@ -11249,44 +11202,44 @@
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="64" t="s">
+      <c r="A35" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="I35" s="64" t="s">
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="I35" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-      <c r="Q35" s="64" t="s">
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
+      <c r="Q35" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="R35" s="64"/>
-      <c r="S35" s="64"/>
-      <c r="T35" s="64"/>
-      <c r="U35" s="64"/>
+      <c r="R35" s="66"/>
+      <c r="S35" s="66"/>
+      <c r="T35" s="66"/>
+      <c r="U35" s="66"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="C36" s="64" t="s">
+      <c r="C36" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="K36" s="64" t="s">
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="K36" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
-      <c r="S36" s="64" t="s">
+      <c r="L36" s="66"/>
+      <c r="M36" s="66"/>
+      <c r="S36" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="T36" s="64"/>
-      <c r="U36" s="64"/>
+      <c r="T36" s="66"/>
+      <c r="U36" s="66"/>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" t="s">
@@ -12038,24 +11991,24 @@
       </c>
     </row>
     <row r="91" spans="1:22">
-      <c r="A91" s="64" t="s">
+      <c r="A91" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="B91" s="64"/>
-      <c r="C91" s="64"/>
-      <c r="D91" s="64"/>
-      <c r="I91" s="64" t="s">
+      <c r="B91" s="66"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="66"/>
+      <c r="I91" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="J91" s="64"/>
-      <c r="K91" s="64"/>
-      <c r="L91" s="64"/>
-      <c r="Q91" s="64" t="s">
+      <c r="J91" s="66"/>
+      <c r="K91" s="66"/>
+      <c r="L91" s="66"/>
+      <c r="Q91" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="R91" s="64"/>
-      <c r="S91" s="64"/>
-      <c r="T91" s="64"/>
+      <c r="R91" s="66"/>
+      <c r="S91" s="66"/>
+      <c r="T91" s="66"/>
     </row>
     <row r="92" spans="1:22">
       <c r="A92" t="s">
@@ -12271,6 +12224,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="Q91:T91"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="I21:J21"/>
@@ -12278,12 +12237,6 @@
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="I35:M35"/>
     <mergeCell ref="Q35:U35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="Q91:T91"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12433,10 +12386,10 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="64"/>
+      <c r="B10" s="66"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
@@ -12548,18 +12501,18 @@
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="I21" s="64" t="s">
+      <c r="B21" s="66"/>
+      <c r="I21" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="64"/>
-      <c r="Q21" s="64" t="s">
+      <c r="J21" s="66"/>
+      <c r="Q21" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="R21" s="64"/>
+      <c r="R21" s="66"/>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
@@ -12723,44 +12676,44 @@
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="64" t="s">
+      <c r="A35" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="I35" s="64" t="s">
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="I35" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-      <c r="Q35" s="64" t="s">
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
+      <c r="Q35" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="R35" s="64"/>
-      <c r="S35" s="64"/>
-      <c r="T35" s="64"/>
-      <c r="U35" s="64"/>
+      <c r="R35" s="66"/>
+      <c r="S35" s="66"/>
+      <c r="T35" s="66"/>
+      <c r="U35" s="66"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="C36" s="64" t="s">
+      <c r="C36" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="K36" s="64" t="s">
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="K36" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
-      <c r="S36" s="64" t="s">
+      <c r="L36" s="66"/>
+      <c r="M36" s="66"/>
+      <c r="S36" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="T36" s="64"/>
-      <c r="U36" s="64"/>
+      <c r="T36" s="66"/>
+      <c r="U36" s="66"/>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" t="s">
@@ -13512,24 +13465,24 @@
       </c>
     </row>
     <row r="91" spans="1:22">
-      <c r="A91" s="64" t="s">
+      <c r="A91" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="B91" s="64"/>
-      <c r="C91" s="64"/>
-      <c r="D91" s="64"/>
-      <c r="I91" s="64" t="s">
+      <c r="B91" s="66"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="66"/>
+      <c r="I91" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="J91" s="64"/>
-      <c r="K91" s="64"/>
-      <c r="L91" s="64"/>
-      <c r="Q91" s="64" t="s">
+      <c r="J91" s="66"/>
+      <c r="K91" s="66"/>
+      <c r="L91" s="66"/>
+      <c r="Q91" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="R91" s="64"/>
-      <c r="S91" s="64"/>
-      <c r="T91" s="64"/>
+      <c r="R91" s="66"/>
+      <c r="S91" s="66"/>
+      <c r="T91" s="66"/>
     </row>
     <row r="92" spans="1:22">
       <c r="A92" t="s">
@@ -13745,12 +13698,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="Q91:T91"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="I21:J21"/>
@@ -13758,6 +13705,12 @@
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="I35:M35"/>
     <mergeCell ref="Q35:U35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="Q91:T91"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13913,10 +13866,10 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="64"/>
+      <c r="B10" s="66"/>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
@@ -14034,18 +13987,18 @@
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="I21" s="64" t="s">
+      <c r="B21" s="66"/>
+      <c r="I21" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="64"/>
-      <c r="Q21" s="64" t="s">
+      <c r="J21" s="66"/>
+      <c r="Q21" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="R21" s="64"/>
+      <c r="R21" s="66"/>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
@@ -14218,44 +14171,44 @@
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="64" t="s">
+      <c r="A35" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="I35" s="64" t="s">
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="I35" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-      <c r="Q35" s="64" t="s">
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
+      <c r="Q35" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="R35" s="64"/>
-      <c r="S35" s="64"/>
-      <c r="T35" s="64"/>
-      <c r="U35" s="64"/>
+      <c r="R35" s="66"/>
+      <c r="S35" s="66"/>
+      <c r="T35" s="66"/>
+      <c r="U35" s="66"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="C36" s="64" t="s">
+      <c r="C36" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="K36" s="64" t="s">
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="K36" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
-      <c r="S36" s="64" t="s">
+      <c r="L36" s="66"/>
+      <c r="M36" s="66"/>
+      <c r="S36" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="T36" s="64"/>
-      <c r="U36" s="64"/>
+      <c r="T36" s="66"/>
+      <c r="U36" s="66"/>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" t="s">
@@ -15061,30 +15014,30 @@
       </c>
     </row>
     <row r="92" spans="1:22">
-      <c r="A92" s="68" t="s">
+      <c r="A92" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="B92" s="68"/>
-      <c r="C92" s="68"/>
-      <c r="D92" s="68"/>
-      <c r="E92" s="68"/>
-      <c r="F92" s="68"/>
-      <c r="I92" s="69" t="s">
+      <c r="B92" s="70"/>
+      <c r="C92" s="70"/>
+      <c r="D92" s="70"/>
+      <c r="E92" s="70"/>
+      <c r="F92" s="70"/>
+      <c r="I92" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="J92" s="69"/>
-      <c r="K92" s="69"/>
-      <c r="L92" s="69"/>
-      <c r="M92" s="69"/>
-      <c r="N92" s="69"/>
-      <c r="Q92" s="70" t="s">
+      <c r="J92" s="71"/>
+      <c r="K92" s="71"/>
+      <c r="L92" s="71"/>
+      <c r="M92" s="71"/>
+      <c r="N92" s="71"/>
+      <c r="Q92" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="R92" s="70"/>
-      <c r="S92" s="70"/>
-      <c r="T92" s="70"/>
-      <c r="U92" s="70"/>
-      <c r="V92" s="70"/>
+      <c r="R92" s="72"/>
+      <c r="S92" s="72"/>
+      <c r="T92" s="72"/>
+      <c r="U92" s="72"/>
+      <c r="V92" s="72"/>
     </row>
     <row r="93" spans="1:22">
       <c r="A93" s="37" t="s">
@@ -15177,30 +15130,30 @@
       <c r="V95" s="58"/>
     </row>
     <row r="96" spans="1:22">
-      <c r="A96" s="68" t="s">
+      <c r="A96" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B96" s="68"/>
-      <c r="C96" s="68"/>
-      <c r="D96" s="68"/>
-      <c r="E96" s="68"/>
-      <c r="F96" s="68"/>
-      <c r="I96" s="69" t="s">
+      <c r="B96" s="70"/>
+      <c r="C96" s="70"/>
+      <c r="D96" s="70"/>
+      <c r="E96" s="70"/>
+      <c r="F96" s="70"/>
+      <c r="I96" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="J96" s="69"/>
-      <c r="K96" s="69"/>
-      <c r="L96" s="69"/>
-      <c r="M96" s="69"/>
-      <c r="N96" s="69"/>
-      <c r="Q96" s="70" t="s">
+      <c r="J96" s="71"/>
+      <c r="K96" s="71"/>
+      <c r="L96" s="71"/>
+      <c r="M96" s="71"/>
+      <c r="N96" s="71"/>
+      <c r="Q96" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="R96" s="70"/>
-      <c r="S96" s="70"/>
-      <c r="T96" s="70"/>
-      <c r="U96" s="70"/>
-      <c r="V96" s="70"/>
+      <c r="R96" s="72"/>
+      <c r="S96" s="72"/>
+      <c r="T96" s="72"/>
+      <c r="U96" s="72"/>
+      <c r="V96" s="72"/>
     </row>
     <row r="97" spans="1:26">
       <c r="A97" s="43" t="s">
@@ -15411,30 +15364,30 @@
       <c r="V101" s="32"/>
     </row>
     <row r="102" spans="1:26">
-      <c r="A102" s="65" t="s">
+      <c r="A102" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="B102" s="65"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="65"/>
-      <c r="E102" s="65"/>
-      <c r="F102" s="65"/>
-      <c r="I102" s="66" t="s">
+      <c r="B102" s="67"/>
+      <c r="C102" s="67"/>
+      <c r="D102" s="67"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="67"/>
+      <c r="I102" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="J102" s="66"/>
-      <c r="K102" s="66"/>
-      <c r="L102" s="66"/>
-      <c r="M102" s="66"/>
-      <c r="N102" s="66"/>
-      <c r="Q102" s="67" t="s">
+      <c r="J102" s="68"/>
+      <c r="K102" s="68"/>
+      <c r="L102" s="68"/>
+      <c r="M102" s="68"/>
+      <c r="N102" s="68"/>
+      <c r="Q102" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="R102" s="67"/>
-      <c r="S102" s="67"/>
-      <c r="T102" s="67"/>
-      <c r="U102" s="67"/>
-      <c r="V102" s="67"/>
+      <c r="R102" s="69"/>
+      <c r="S102" s="69"/>
+      <c r="T102" s="69"/>
+      <c r="U102" s="69"/>
+      <c r="V102" s="69"/>
     </row>
     <row r="103" spans="1:26">
       <c r="A103" s="10" t="s">
@@ -15620,24 +15573,24 @@
       <c r="V107" s="32"/>
     </row>
     <row r="108" spans="1:26">
-      <c r="A108" s="65"/>
-      <c r="B108" s="65"/>
-      <c r="C108" s="65"/>
-      <c r="D108" s="65"/>
-      <c r="E108" s="65"/>
-      <c r="F108" s="65"/>
-      <c r="I108" s="66"/>
-      <c r="J108" s="66"/>
-      <c r="K108" s="66"/>
-      <c r="L108" s="66"/>
-      <c r="M108" s="66"/>
-      <c r="N108" s="66"/>
-      <c r="Q108" s="67"/>
-      <c r="R108" s="67"/>
-      <c r="S108" s="67"/>
-      <c r="T108" s="67"/>
-      <c r="U108" s="67"/>
-      <c r="V108" s="67"/>
+      <c r="A108" s="67"/>
+      <c r="B108" s="67"/>
+      <c r="C108" s="67"/>
+      <c r="D108" s="67"/>
+      <c r="E108" s="67"/>
+      <c r="F108" s="67"/>
+      <c r="I108" s="68"/>
+      <c r="J108" s="68"/>
+      <c r="K108" s="68"/>
+      <c r="L108" s="68"/>
+      <c r="M108" s="68"/>
+      <c r="N108" s="68"/>
+      <c r="Q108" s="69"/>
+      <c r="R108" s="69"/>
+      <c r="S108" s="69"/>
+      <c r="T108" s="69"/>
+      <c r="U108" s="69"/>
+      <c r="V108" s="69"/>
     </row>
     <row r="109" spans="1:26">
       <c r="A109" s="10"/>
@@ -15781,6 +15734,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="I35:M35"/>
+    <mergeCell ref="Q35:U35"/>
     <mergeCell ref="A108:F108"/>
     <mergeCell ref="I108:N108"/>
     <mergeCell ref="Q108:V108"/>
@@ -15793,16 +15756,6 @@
     <mergeCell ref="Q92:V92"/>
     <mergeCell ref="Q96:V96"/>
     <mergeCell ref="Q102:V102"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="I35:M35"/>
-    <mergeCell ref="Q35:U35"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
